--- a/Brighway/Results/Ananas - CONSQ_recipe_unq.xlsx
+++ b/Brighway/Results/Ananas - CONSQ_recipe_unq.xlsx
@@ -507,1302 +507,1302 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.004640164272069189</v>
+        <v>-0.0002036580944324816</v>
       </c>
       <c r="B2">
-        <v>2.172417644973059</v>
+        <v>-3.03860379158778</v>
       </c>
       <c r="C2">
-        <v>0.03628000086309742</v>
+        <v>-0.158562862399611</v>
       </c>
       <c r="D2">
-        <v>0.04922742030092352</v>
+        <v>-0.2295784818484649</v>
       </c>
       <c r="E2">
-        <v>5.981469756313518</v>
+        <v>-8.828092784836333</v>
       </c>
       <c r="F2">
-        <v>1.6559487892016</v>
+        <v>-0.01102871272359567</v>
       </c>
       <c r="G2">
-        <v>0.0002268687835551454</v>
+        <v>-4.700623400836381E-06</v>
       </c>
       <c r="H2">
-        <v>2.66140965786759E-05</v>
+        <v>-4.725445040508107E-06</v>
       </c>
       <c r="I2">
-        <v>0.04953876713217139</v>
+        <v>-0.007043862153231701</v>
       </c>
       <c r="J2">
-        <v>0.8264105084957725</v>
+        <v>-1.913075139828851</v>
       </c>
       <c r="K2">
-        <v>0.03176549730016508</v>
+        <v>-2.863318232608441E-05</v>
       </c>
       <c r="L2">
-        <v>0.02394491623377468</v>
+        <v>0.000692648549182994</v>
       </c>
       <c r="M2">
-        <v>0.002175076779259047</v>
+        <v>-0.0002833098994483963</v>
       </c>
       <c r="N2">
-        <v>1.604287268816233E-07</v>
+        <v>-2.358692474438168E-07</v>
       </c>
       <c r="O2">
-        <v>0.00199563339922082</v>
+        <v>-7.002033470975084E-05</v>
       </c>
       <c r="P2">
-        <v>0.004134859004471053</v>
+        <v>-0.0004926923049738186</v>
       </c>
       <c r="Q2">
-        <v>0.004473835897948507</v>
+        <v>-0.0004978085136901718</v>
       </c>
       <c r="R2">
-        <v>0.01576991024275375</v>
+        <v>-0.001299525934825169</v>
       </c>
       <c r="S2">
-        <v>8.109281081766466E-09</v>
+        <v>-8.847708585665492E-09</v>
       </c>
       <c r="T2">
-        <v>3.661826757378365E-06</v>
+        <v>-3.327072149998979E-06</v>
       </c>
       <c r="U2">
-        <v>0.6748054538810958</v>
+        <v>-0.003800327442201475</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.002225502091981714</v>
+        <v>-0.00017345619172165</v>
       </c>
       <c r="B3">
-        <v>0.6633579241612421</v>
+        <v>-2.566525456676903</v>
       </c>
       <c r="C3">
-        <v>0.03776600760779485</v>
+        <v>-0.1339776005579687</v>
       </c>
       <c r="D3">
-        <v>0.04919996889354653</v>
+        <v>-0.193967747615938</v>
       </c>
       <c r="E3">
-        <v>3.719783795232499</v>
+        <v>-7.457176032859258</v>
       </c>
       <c r="F3">
-        <v>0.1626205619292443</v>
+        <v>-0.009495873069086922</v>
       </c>
       <c r="G3">
-        <v>0.0003095745868465643</v>
+        <v>-4.302703609208053E-06</v>
       </c>
       <c r="H3">
-        <v>3.676146042581313E-05</v>
+        <v>-4.005811048863398E-06</v>
       </c>
       <c r="I3">
-        <v>0.02505042703973329</v>
+        <v>-0.005936573380294151</v>
       </c>
       <c r="J3">
-        <v>0.6841580642188271</v>
+        <v>-1.616352149061313</v>
       </c>
       <c r="K3">
-        <v>0.06256018036954447</v>
+        <v>-1.813077981673655E-05</v>
       </c>
       <c r="L3">
-        <v>0.03526745641596953</v>
+        <v>0.0005789276230788815</v>
       </c>
       <c r="M3">
-        <v>0.001041098870251405</v>
+        <v>-0.0002663365792062879</v>
       </c>
       <c r="N3">
-        <v>2.164227930519274E-07</v>
+        <v>-1.992672712489317E-07</v>
       </c>
       <c r="O3">
-        <v>0.001568722507781096</v>
+        <v>-6.111853799082551E-05</v>
       </c>
       <c r="P3">
-        <v>0.001954581797856193</v>
+        <v>-0.000417806955047129</v>
       </c>
       <c r="Q3">
-        <v>0.002013852645324543</v>
+        <v>-0.000422341629654537</v>
       </c>
       <c r="R3">
-        <v>0.004526912662704346</v>
+        <v>-0.001257067179862633</v>
       </c>
       <c r="S3">
-        <v>3.183342921786853E-09</v>
+        <v>-7.473997153501338E-09</v>
       </c>
       <c r="T3">
-        <v>1.853389103132994E-06</v>
+        <v>-2.811845025891895E-06</v>
       </c>
       <c r="U3">
-        <v>0.04205393711153678</v>
+        <v>-0.003260262429498836</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.006376674759669536</v>
+        <v>-0.007803120539247483</v>
       </c>
       <c r="B4">
-        <v>2.835967633759383</v>
+        <v>-0.717929778903264</v>
       </c>
       <c r="C4">
-        <v>0.06539456791350155</v>
+        <v>-0.2031457889963768</v>
       </c>
       <c r="D4">
-        <v>0.08697010161089343</v>
+        <v>-0.2795149360485089</v>
       </c>
       <c r="E4">
-        <v>7.006761610119525</v>
+        <v>-62.56950896594986</v>
       </c>
       <c r="F4">
-        <v>1.798712860268742</v>
+        <v>-0.1282994870649409</v>
       </c>
       <c r="G4">
-        <v>0.0006412244930937339</v>
+        <v>-0.0003940424675755832</v>
       </c>
       <c r="H4">
-        <v>8.931098200701069E-05</v>
+        <v>-8.312370670571981E-06</v>
       </c>
       <c r="I4">
-        <v>0.07490979898936781</v>
+        <v>-0.06284751061117161</v>
       </c>
       <c r="J4">
-        <v>1.503420465750524</v>
+        <v>-5.694933514936996</v>
       </c>
       <c r="K4">
-        <v>0.1273094533807192</v>
+        <v>-0.02473607662337229</v>
       </c>
       <c r="L4">
-        <v>0.1121490850919326</v>
+        <v>-0.1370619522892795</v>
       </c>
       <c r="M4">
-        <v>0.00302654621466975</v>
+        <v>0.02446016585079356</v>
       </c>
       <c r="N4">
-        <v>4.228469999024551E-07</v>
+        <v>-3.73206136592561E-07</v>
       </c>
       <c r="O4">
-        <v>0.003314047568087522</v>
+        <v>-0.002545297854125298</v>
       </c>
       <c r="P4">
-        <v>0.005944326699941544</v>
+        <v>-0.002365694477241824</v>
       </c>
       <c r="Q4">
-        <v>0.006631010854412189</v>
+        <v>-0.002460076972099478</v>
       </c>
       <c r="R4">
-        <v>0.04453940631102851</v>
+        <v>-0.001661619590793109</v>
       </c>
       <c r="S4">
-        <v>1.170938746451423E-08</v>
+        <v>-6.346526667183411E-09</v>
       </c>
       <c r="T4">
-        <v>5.411438720677444E-06</v>
+        <v>-3.777136942066919E-06</v>
       </c>
       <c r="U4">
-        <v>0.6995528684858736</v>
+        <v>-0.02583370785059433</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.007186257284964585</v>
+        <v>0.007834814378326907</v>
       </c>
       <c r="B5">
-        <v>3.234668417038828</v>
+        <v>3.311340417899355</v>
       </c>
       <c r="C5">
-        <v>0.05096823970493861</v>
+        <v>0.1868247532967705</v>
       </c>
       <c r="D5">
-        <v>0.07137129718938535</v>
+        <v>0.2435841899778902</v>
       </c>
       <c r="E5">
-        <v>5.283505652713961</v>
+        <v>8.932729431487518</v>
       </c>
       <c r="F5">
-        <v>0.3596394431392941</v>
+        <v>0.8123056344027652</v>
       </c>
       <c r="G5">
-        <v>0.002487409892352019</v>
+        <v>0.001638525982901075</v>
       </c>
       <c r="H5">
-        <v>0.0001433961884237131</v>
+        <v>0.0002723741844799432</v>
       </c>
       <c r="I5">
-        <v>0.09824940831951981</v>
+        <v>0.1539561373588981</v>
       </c>
       <c r="J5">
-        <v>1.817127126386454</v>
+        <v>3.772733989305804</v>
       </c>
       <c r="K5">
-        <v>-0.03405245796134154</v>
+        <v>0.2477194250520632</v>
       </c>
       <c r="L5">
-        <v>1.822394366980684</v>
+        <v>0.3893599371713575</v>
       </c>
       <c r="M5">
-        <v>0.003797878088159211</v>
+        <v>0.007111512882687967</v>
       </c>
       <c r="N5">
-        <v>4.368704293329749E-07</v>
+        <v>8.136901097343636E-07</v>
       </c>
       <c r="O5">
-        <v>0.005826737334343939</v>
+        <v>0.004318540969377269</v>
       </c>
       <c r="P5">
-        <v>0.004006066603621137</v>
+        <v>0.004691227475986906</v>
       </c>
       <c r="Q5">
-        <v>0.004138473414844842</v>
+        <v>0.005041277533375116</v>
       </c>
       <c r="R5">
-        <v>0.01358234299231974</v>
+        <v>0.07972412606987471</v>
       </c>
       <c r="S5">
-        <v>2.904318387440842E-08</v>
+        <v>1.639221749723751E-08</v>
       </c>
       <c r="T5">
-        <v>7.438758906813784E-06</v>
+        <v>7.342156691723278E-06</v>
       </c>
       <c r="U5">
-        <v>0.07279753706716356</v>
+        <v>0.2296180234693693</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.005547151661112807</v>
+        <v>0.08981716815680325</v>
       </c>
       <c r="B6">
-        <v>3.763432984904115</v>
+        <v>20.67623747600468</v>
       </c>
       <c r="C6">
-        <v>0.09740939190075772</v>
+        <v>0.4919298638728223</v>
       </c>
       <c r="D6">
-        <v>0.1104482400318485</v>
+        <v>0.688860092664269</v>
       </c>
       <c r="E6">
-        <v>13.55125960691724</v>
+        <v>17.4693432727724</v>
       </c>
       <c r="F6">
-        <v>0.1415383711572793</v>
+        <v>4.469172440199389</v>
       </c>
       <c r="G6">
-        <v>-0.0002757327490054239</v>
+        <v>0.006761205928512891</v>
       </c>
       <c r="H6">
-        <v>0.001594386446832166</v>
+        <v>0.0004877493696232702</v>
       </c>
       <c r="I6">
-        <v>0.0163754461456689</v>
+        <v>4.028007997132227</v>
       </c>
       <c r="J6">
-        <v>0.3626607533531199</v>
+        <v>17.21567178710242</v>
       </c>
       <c r="K6">
-        <v>0.01328024031270687</v>
+        <v>0.1093007506175604</v>
       </c>
       <c r="L6">
-        <v>2.019065205416295</v>
+        <v>0.1981736482803541</v>
       </c>
       <c r="M6">
-        <v>0.008202196909945668</v>
+        <v>0.2522931466492449</v>
       </c>
       <c r="N6">
-        <v>-2.332935281980519E-06</v>
+        <v>3.887160982068521E-06</v>
       </c>
       <c r="O6">
-        <v>0.002415047450646797</v>
+        <v>0.04056656281655861</v>
       </c>
       <c r="P6">
-        <v>0.004440844837516429</v>
+        <v>0.05319574647625501</v>
       </c>
       <c r="Q6">
-        <v>0.004531687334619061</v>
+        <v>0.05450810977550197</v>
       </c>
       <c r="R6">
-        <v>0.006604942880048236</v>
+        <v>0.1170714401129063</v>
       </c>
       <c r="S6">
-        <v>3.025359920817672E-08</v>
+        <v>9.088479531959564E-08</v>
       </c>
       <c r="T6">
-        <v>5.164659832368971E-06</v>
+        <v>6.228169798886513E-05</v>
       </c>
       <c r="U6">
-        <v>0.02342198376458633</v>
+        <v>0.8057023244184648</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.0003111919961497615</v>
+        <v>0.005547151661112807</v>
       </c>
       <c r="B7">
-        <v>0.06338098458727322</v>
+        <v>3.763432984904115</v>
       </c>
       <c r="C7">
-        <v>0.001256061425743024</v>
+        <v>0.09740939190075772</v>
       </c>
       <c r="D7">
-        <v>0.001785519627430043</v>
+        <v>0.1104482400318485</v>
       </c>
       <c r="E7">
-        <v>0.2284126538540599</v>
+        <v>13.55125960691724</v>
       </c>
       <c r="F7">
-        <v>0.01751781873063376</v>
+        <v>0.1415383711572793</v>
       </c>
       <c r="G7">
-        <v>7.111302556222774E-06</v>
+        <v>-0.0002757327490054239</v>
       </c>
       <c r="H7">
-        <v>1.512078808214423E-06</v>
+        <v>0.001594386446832166</v>
       </c>
       <c r="I7">
-        <v>0.00726953046575206</v>
+        <v>0.0163754461456689</v>
       </c>
       <c r="J7">
-        <v>0.02462278264660207</v>
+        <v>0.3626607533531199</v>
       </c>
       <c r="K7">
-        <v>0.001004904558531991</v>
+        <v>0.01328024031270687</v>
       </c>
       <c r="L7">
-        <v>0.002203196399511323</v>
+        <v>2.019065205416295</v>
       </c>
       <c r="M7">
-        <v>0.001078804860038357</v>
+        <v>0.008202196909945668</v>
       </c>
       <c r="N7">
-        <v>1.938158398598048E-08</v>
+        <v>-2.332935281980519E-06</v>
       </c>
       <c r="O7">
-        <v>0.0001242060218188756</v>
+        <v>0.002415047450646797</v>
       </c>
       <c r="P7">
-        <v>0.0006545212109419823</v>
+        <v>0.004440844837516429</v>
       </c>
       <c r="Q7">
-        <v>0.0006688046468532213</v>
+        <v>0.004531687334619061</v>
       </c>
       <c r="R7">
-        <v>0.0001315162025420402</v>
+        <v>0.006604942880048236</v>
       </c>
       <c r="S7">
-        <v>3.577216147293989E-10</v>
+        <v>3.025359920817672E-08</v>
       </c>
       <c r="T7">
-        <v>1.675700211187159E-07</v>
+        <v>5.164659832368971E-06</v>
       </c>
       <c r="U7">
-        <v>0.007185428990547761</v>
+        <v>0.02342198376458633</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.004780964429492928</v>
+        <v>0.08981716815680325</v>
       </c>
       <c r="B8">
-        <v>2.215027794056557</v>
+        <v>20.67623747600468</v>
       </c>
       <c r="C8">
-        <v>0.03811096832839717</v>
+        <v>0.4919298638728223</v>
       </c>
       <c r="D8">
-        <v>0.05165170234065459</v>
+        <v>0.688860092664269</v>
       </c>
       <c r="E8">
-        <v>6.356138653554373</v>
+        <v>17.4693432727724</v>
       </c>
       <c r="F8">
-        <v>1.625557050918211</v>
+        <v>4.469172440199389</v>
       </c>
       <c r="G8">
-        <v>0.0002562462263329176</v>
+        <v>0.006761205928512891</v>
       </c>
       <c r="H8">
-        <v>2.846230649914853E-05</v>
+        <v>0.0004877493696232702</v>
       </c>
       <c r="I8">
-        <v>0.06626840097325677</v>
+        <v>4.028007997132227</v>
       </c>
       <c r="J8">
-        <v>0.8811122842329958</v>
+        <v>17.21567178710242</v>
       </c>
       <c r="K8">
-        <v>0.03940658046337755</v>
+        <v>0.1093007506175604</v>
       </c>
       <c r="L8">
-        <v>0.02488070166128279</v>
+        <v>0.1981736482803541</v>
       </c>
       <c r="M8">
-        <v>0.001691993635801481</v>
+        <v>0.2522931466492449</v>
       </c>
       <c r="N8">
-        <v>3.273022413613419E-07</v>
+        <v>3.887160982068521E-06</v>
       </c>
       <c r="O8">
-        <v>0.002113792909531739</v>
+        <v>0.04056656281655861</v>
       </c>
       <c r="P8">
-        <v>0.004469588982204222</v>
+        <v>0.05319574647625501</v>
       </c>
       <c r="Q8">
-        <v>0.004864475227857818</v>
+        <v>0.05450810977550197</v>
       </c>
       <c r="R8">
-        <v>0.017929022291353</v>
+        <v>0.1170714401129063</v>
       </c>
       <c r="S8">
-        <v>8.34247010591644E-09</v>
+        <v>9.088479531959564E-08</v>
       </c>
       <c r="T8">
-        <v>3.84894262373726E-06</v>
+        <v>6.228169798886513E-05</v>
       </c>
       <c r="U8">
-        <v>0.6571808937456171</v>
+        <v>0.8057023244184648</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>-0.00017345619172165</v>
+        <v>0.002659737824694182</v>
       </c>
       <c r="B9">
-        <v>-2.566525456676903</v>
+        <v>2.604272551001701</v>
       </c>
       <c r="C9">
-        <v>-0.1339776005579687</v>
+        <v>0.1108223959880653</v>
       </c>
       <c r="D9">
-        <v>-0.193967747615938</v>
+        <v>0.1350916962557695</v>
       </c>
       <c r="E9">
-        <v>-7.457176032859258</v>
+        <v>7.766851187288493</v>
       </c>
       <c r="F9">
-        <v>-0.009495873069086922</v>
+        <v>0.06950157301937065</v>
       </c>
       <c r="G9">
-        <v>-4.302703609208053E-06</v>
+        <v>5.531609900574251E-05</v>
       </c>
       <c r="H9">
-        <v>-4.005811048863398E-06</v>
+        <v>0.0001811265966104613</v>
       </c>
       <c r="I9">
-        <v>-0.005936573380294151</v>
+        <v>0.03211676215036112</v>
       </c>
       <c r="J9">
-        <v>-1.616352149061313</v>
+        <v>0.9984957402580388</v>
       </c>
       <c r="K9">
-        <v>-1.813077981673655E-05</v>
+        <v>0.001369544203719683</v>
       </c>
       <c r="L9">
-        <v>0.0005789276230788815</v>
+        <v>1.119773469300559</v>
       </c>
       <c r="M9">
-        <v>-0.0002663365792062879</v>
+        <v>0.00308144059593619</v>
       </c>
       <c r="N9">
-        <v>-1.992672712489317E-07</v>
+        <v>6.185581060611463E-07</v>
       </c>
       <c r="O9">
-        <v>-6.111853799082551E-05</v>
+        <v>0.0009940752983490417</v>
       </c>
       <c r="P9">
-        <v>-0.000417806955047129</v>
+        <v>0.002783704052596047</v>
       </c>
       <c r="Q9">
-        <v>-0.000422341629654537</v>
+        <v>0.002846241555188645</v>
       </c>
       <c r="R9">
-        <v>-0.001257067179862633</v>
+        <v>0.002923296350302</v>
       </c>
       <c r="S9">
-        <v>-7.473997153501338E-09</v>
+        <v>1.836915669035962E-08</v>
       </c>
       <c r="T9">
-        <v>-2.811845025891895E-06</v>
+        <v>3.385349297184194E-06</v>
       </c>
       <c r="U9">
-        <v>-0.003260262429498836</v>
+        <v>0.02054473035326662</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>-0.0002036580944324816</v>
+        <v>0.0003736670231602012</v>
       </c>
       <c r="B10">
-        <v>-3.03860379158778</v>
+        <v>0.4197414960552314</v>
       </c>
       <c r="C10">
-        <v>-0.158562862399611</v>
+        <v>0.01735694911605258</v>
       </c>
       <c r="D10">
-        <v>-0.2295784818484649</v>
+        <v>0.02142888671358929</v>
       </c>
       <c r="E10">
-        <v>-8.828092784836333</v>
+        <v>1.087724673730751</v>
       </c>
       <c r="F10">
-        <v>-0.01102871272359567</v>
+        <v>0.008745847180082582</v>
       </c>
       <c r="G10">
-        <v>-4.700623400836381E-06</v>
+        <v>1.429857804026905E-05</v>
       </c>
       <c r="H10">
-        <v>-4.725445040508107E-06</v>
+        <v>1.52760617656039E-06</v>
       </c>
       <c r="I10">
-        <v>-0.007043862153231701</v>
+        <v>0.005329533745352403</v>
       </c>
       <c r="J10">
-        <v>-1.913075139828851</v>
+        <v>0.1728108976696197</v>
       </c>
       <c r="K10">
-        <v>-2.863318232608441E-05</v>
+        <v>8.878999151902986E-05</v>
       </c>
       <c r="L10">
-        <v>0.000692648549182994</v>
+        <v>0.17486427082844</v>
       </c>
       <c r="M10">
-        <v>-0.0002833098994483963</v>
+        <v>0.0004609133823264467</v>
       </c>
       <c r="N10">
-        <v>-2.358692474438168E-07</v>
+        <v>1.678931466963876E-07</v>
       </c>
       <c r="O10">
-        <v>-7.002033470975084E-05</v>
+        <v>0.0001317687004881112</v>
       </c>
       <c r="P10">
-        <v>-0.0004926923049738186</v>
+        <v>0.0004362982524317448</v>
       </c>
       <c r="Q10">
-        <v>-0.0004978085136901718</v>
+        <v>0.0004458788720437829</v>
       </c>
       <c r="R10">
-        <v>-0.001299525934825169</v>
+        <v>0.0003881229381924918</v>
       </c>
       <c r="S10">
-        <v>-8.847708585665492E-09</v>
+        <v>2.898828723056617E-09</v>
       </c>
       <c r="T10">
-        <v>-3.327072149998979E-06</v>
+        <v>5.308252369992181E-07</v>
       </c>
       <c r="U10">
-        <v>-0.003800327442201475</v>
+        <v>0.002905565989393512</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0003736670231602012</v>
+        <v>7.224247781710064E-05</v>
       </c>
       <c r="B11">
-        <v>0.4197414960552314</v>
+        <v>0.08765780760027571</v>
       </c>
       <c r="C11">
-        <v>0.01735694911605258</v>
+        <v>0.001952532045147212</v>
       </c>
       <c r="D11">
-        <v>0.02142888671358929</v>
+        <v>0.002502910752679732</v>
       </c>
       <c r="E11">
-        <v>1.087724673730751</v>
+        <v>0.1964120788656271</v>
       </c>
       <c r="F11">
-        <v>0.008745847180082582</v>
+        <v>0.01323766300881997</v>
       </c>
       <c r="G11">
-        <v>1.429857804026905E-05</v>
+        <v>7.602151222037464E-06</v>
       </c>
       <c r="H11">
-        <v>1.52760617656039E-06</v>
+        <v>6.696429407108627E-07</v>
       </c>
       <c r="I11">
-        <v>0.005329533745352403</v>
+        <v>0.0007412120545879728</v>
       </c>
       <c r="J11">
-        <v>0.1728108976696197</v>
+        <v>0.02944733985200263</v>
       </c>
       <c r="K11">
-        <v>8.878999151902986E-05</v>
+        <v>0.003003638279919019</v>
       </c>
       <c r="L11">
-        <v>0.17486427082844</v>
+        <v>0.01437969985437207</v>
       </c>
       <c r="M11">
-        <v>0.0004609133823264467</v>
+        <v>4.673569113795994E-05</v>
       </c>
       <c r="N11">
-        <v>1.678931466963876E-07</v>
+        <v>2.328325716763073E-08</v>
       </c>
       <c r="O11">
-        <v>0.0001317687004881112</v>
+        <v>4.418555646320203E-05</v>
       </c>
       <c r="P11">
-        <v>0.0004362982524317448</v>
+        <v>9.640463444990828E-05</v>
       </c>
       <c r="Q11">
-        <v>0.0004458788720437829</v>
+        <v>0.0001018812387659618</v>
       </c>
       <c r="R11">
-        <v>0.0003881229381924918</v>
+        <v>0.0001275625089226693</v>
       </c>
       <c r="S11">
-        <v>2.898828723056617E-09</v>
+        <v>4.103873474079604E-10</v>
       </c>
       <c r="T11">
-        <v>5.308252369992181E-07</v>
+        <v>1.187097415312101E-07</v>
       </c>
       <c r="U11">
-        <v>0.002905565989393512</v>
+        <v>0.0045173398511638</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>7.224247781710064E-05</v>
+        <v>0.007186257284964585</v>
       </c>
       <c r="B12">
-        <v>0.08765780760027571</v>
+        <v>3.234668417038828</v>
       </c>
       <c r="C12">
-        <v>0.001952532045147212</v>
+        <v>0.05096823970493861</v>
       </c>
       <c r="D12">
-        <v>0.002502910752679732</v>
+        <v>0.07137129718938535</v>
       </c>
       <c r="E12">
-        <v>0.1964120788656271</v>
+        <v>5.283505652713961</v>
       </c>
       <c r="F12">
-        <v>0.01323766300881997</v>
+        <v>0.3596394431392941</v>
       </c>
       <c r="G12">
-        <v>7.602151222037464E-06</v>
+        <v>0.002487409892352019</v>
       </c>
       <c r="H12">
-        <v>6.696429407108627E-07</v>
+        <v>0.0001433961884237131</v>
       </c>
       <c r="I12">
-        <v>0.0007412120545879728</v>
+        <v>0.09824940831951981</v>
       </c>
       <c r="J12">
-        <v>0.02944733985200263</v>
+        <v>1.817127126386454</v>
       </c>
       <c r="K12">
-        <v>0.003003638279919019</v>
+        <v>-0.03405245796134154</v>
       </c>
       <c r="L12">
-        <v>0.01437969985437207</v>
+        <v>1.822394366980684</v>
       </c>
       <c r="M12">
-        <v>4.673569113795994E-05</v>
+        <v>0.003797878088159211</v>
       </c>
       <c r="N12">
-        <v>2.328325716763073E-08</v>
+        <v>4.368704293329749E-07</v>
       </c>
       <c r="O12">
-        <v>4.418555646320203E-05</v>
+        <v>0.005826737334343939</v>
       </c>
       <c r="P12">
-        <v>9.640463444990828E-05</v>
+        <v>0.004006066603621137</v>
       </c>
       <c r="Q12">
-        <v>0.0001018812387659618</v>
+        <v>0.004138473414844842</v>
       </c>
       <c r="R12">
-        <v>0.0001275625089226693</v>
+        <v>0.01358234299231974</v>
       </c>
       <c r="S12">
-        <v>4.103873474079604E-10</v>
+        <v>2.904318387440842E-08</v>
       </c>
       <c r="T12">
-        <v>1.187097415312101E-07</v>
+        <v>7.438758906813784E-06</v>
       </c>
       <c r="U12">
-        <v>0.0045173398511638</v>
+        <v>0.07279753706716356</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.003211433251915275</v>
+        <v>0.004640164272069189</v>
       </c>
       <c r="B13">
-        <v>2.182686027637393</v>
+        <v>2.172417644973059</v>
       </c>
       <c r="C13">
-        <v>0.04087487210664682</v>
+        <v>0.03628000086309742</v>
       </c>
       <c r="D13">
-        <v>0.05159469984481234</v>
+        <v>0.04922742030092352</v>
       </c>
       <c r="E13">
-        <v>7.351983738297398</v>
+        <v>5.981469756313518</v>
       </c>
       <c r="F13">
-        <v>0.2589782437647937</v>
+        <v>1.6559487892016</v>
       </c>
       <c r="G13">
-        <v>0.0005037090559078802</v>
+        <v>0.0002268687835551454</v>
       </c>
       <c r="H13">
-        <v>-0.002462599941708993</v>
+        <v>2.66140965786759E-05</v>
       </c>
       <c r="I13">
-        <v>0.02425252832053517</v>
+        <v>0.04953876713217139</v>
       </c>
       <c r="J13">
-        <v>2.397394009516906</v>
+        <v>0.8264105084957725</v>
       </c>
       <c r="K13">
-        <v>0.05817103554624409</v>
+        <v>0.03176549730016508</v>
       </c>
       <c r="L13">
-        <v>2.002549866448839</v>
+        <v>0.02394491623377468</v>
       </c>
       <c r="M13">
-        <v>0.001342251397454445</v>
+        <v>0.002175076779259047</v>
       </c>
       <c r="N13">
-        <v>3.000385312227038E-07</v>
+        <v>1.604287268816233E-07</v>
       </c>
       <c r="O13">
-        <v>0.002814345994314785</v>
+        <v>0.00199563339922082</v>
       </c>
       <c r="P13">
-        <v>0.004199702844566218</v>
+        <v>0.004134859004471053</v>
       </c>
       <c r="Q13">
-        <v>0.004308237711478336</v>
+        <v>0.004473835897948507</v>
       </c>
       <c r="R13">
-        <v>0.06643524726671297</v>
+        <v>0.01576991024275375</v>
       </c>
       <c r="S13">
-        <v>2.555756955868541E-08</v>
+        <v>8.109281081766466E-09</v>
       </c>
       <c r="T13">
-        <v>4.57396973789693E-06</v>
+        <v>3.661826757378365E-06</v>
       </c>
       <c r="U13">
-        <v>0.08608849814230052</v>
+        <v>0.6748054538810958</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.08981716815680325</v>
+        <v>0.01272720797915326</v>
       </c>
       <c r="B14">
-        <v>20.67623747600468</v>
+        <v>6.756719746398571</v>
       </c>
       <c r="C14">
-        <v>0.4919298638728223</v>
+        <v>0.1663298357429507</v>
       </c>
       <c r="D14">
-        <v>0.688860092664269</v>
+        <v>0.2131053978060375</v>
       </c>
       <c r="E14">
-        <v>17.4693432727724</v>
+        <v>26.56433427529162</v>
       </c>
       <c r="F14">
-        <v>4.469172440199389</v>
+        <v>3.570725099355489</v>
       </c>
       <c r="G14">
-        <v>0.006761205928512891</v>
+        <v>0.0006056785558026258</v>
       </c>
       <c r="H14">
-        <v>0.0004877493696232702</v>
+        <v>0.0002679873026154834</v>
       </c>
       <c r="I14">
-        <v>4.028007997132227</v>
+        <v>0.1553199938155466</v>
       </c>
       <c r="J14">
-        <v>17.21567178710242</v>
+        <v>4.53183296745962</v>
       </c>
       <c r="K14">
-        <v>0.1093007506175604</v>
+        <v>0.3581076325098898</v>
       </c>
       <c r="L14">
-        <v>0.1981736482803541</v>
+        <v>-0.07797865812041473</v>
       </c>
       <c r="M14">
-        <v>0.2522931466492449</v>
+        <v>0.007267869220976249</v>
       </c>
       <c r="N14">
-        <v>3.887160982068521E-06</v>
+        <v>2.726001538629598E-06</v>
       </c>
       <c r="O14">
-        <v>0.04056656281655861</v>
+        <v>0.006002796188352214</v>
       </c>
       <c r="P14">
-        <v>0.05319574647625501</v>
+        <v>0.0121663317321474</v>
       </c>
       <c r="Q14">
-        <v>0.05450810977550197</v>
+        <v>0.01229157868419994</v>
       </c>
       <c r="R14">
-        <v>0.1170714401129063</v>
+        <v>0.1098420123764289</v>
       </c>
       <c r="S14">
-        <v>9.088479531959564E-08</v>
+        <v>2.336395435004208E-08</v>
       </c>
       <c r="T14">
-        <v>6.228169798886513E-05</v>
+        <v>1.184892740854E-05</v>
       </c>
       <c r="U14">
-        <v>0.8057023244184648</v>
+        <v>1.371581758992342</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.007834814378326907</v>
+        <v>0.006376674759669536</v>
       </c>
       <c r="B15">
-        <v>3.311340417899355</v>
+        <v>2.835967633759383</v>
       </c>
       <c r="C15">
-        <v>0.1868247532967705</v>
+        <v>0.06539456791350155</v>
       </c>
       <c r="D15">
-        <v>0.2435841899778902</v>
+        <v>0.08697010161089343</v>
       </c>
       <c r="E15">
-        <v>8.932729431487518</v>
+        <v>7.006761610119525</v>
       </c>
       <c r="F15">
-        <v>0.8123056344027652</v>
+        <v>1.798712860268742</v>
       </c>
       <c r="G15">
-        <v>0.001638525982901075</v>
+        <v>0.0006412244930937339</v>
       </c>
       <c r="H15">
-        <v>0.0002723741844799432</v>
+        <v>8.931098200701069E-05</v>
       </c>
       <c r="I15">
-        <v>0.1539561373588981</v>
+        <v>0.07490979898936781</v>
       </c>
       <c r="J15">
-        <v>3.772733989305804</v>
+        <v>1.503420465750524</v>
       </c>
       <c r="K15">
-        <v>0.2477194250520632</v>
+        <v>0.1273094533807192</v>
       </c>
       <c r="L15">
-        <v>0.3893599371713575</v>
+        <v>0.1121490850919326</v>
       </c>
       <c r="M15">
-        <v>0.007111512882687967</v>
+        <v>0.00302654621466975</v>
       </c>
       <c r="N15">
-        <v>8.136901097343636E-07</v>
+        <v>4.228469999024551E-07</v>
       </c>
       <c r="O15">
-        <v>0.004318540969377269</v>
+        <v>0.003314047568087522</v>
       </c>
       <c r="P15">
-        <v>0.004691227475986906</v>
+        <v>0.005944326699941544</v>
       </c>
       <c r="Q15">
-        <v>0.005041277533375116</v>
+        <v>0.006631010854412189</v>
       </c>
       <c r="R15">
-        <v>0.07972412606987471</v>
+        <v>0.04453940631102851</v>
       </c>
       <c r="S15">
-        <v>1.639221749723751E-08</v>
+        <v>1.170938746451423E-08</v>
       </c>
       <c r="T15">
-        <v>7.342156691723278E-06</v>
+        <v>5.411438720677444E-06</v>
       </c>
       <c r="U15">
-        <v>0.2296180234693693</v>
+        <v>0.6995528684858736</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.01272720797915326</v>
+        <v>-0.0003009920787043699</v>
       </c>
       <c r="B16">
-        <v>6.756719746398571</v>
+        <v>-2.398559767703625</v>
       </c>
       <c r="C16">
-        <v>0.1663298357429507</v>
+        <v>-0.1196209910725263</v>
       </c>
       <c r="D16">
-        <v>0.2131053978060375</v>
+        <v>-0.1592720009364397</v>
       </c>
       <c r="E16">
-        <v>26.56433427529162</v>
+        <v>-1.253169213290336</v>
       </c>
       <c r="F16">
-        <v>3.570725099355489</v>
+        <v>-0.01544141118035616</v>
       </c>
       <c r="G16">
-        <v>0.0006056785558026258</v>
+        <v>-1.152841486324326E-05</v>
       </c>
       <c r="H16">
-        <v>0.0002679873026154834</v>
+        <v>-2.169141974592834E-05</v>
       </c>
       <c r="I16">
-        <v>0.1553199938155466</v>
+        <v>-0.02133274639541349</v>
       </c>
       <c r="J16">
-        <v>4.53183296745962</v>
+        <v>-2.333581951003951</v>
       </c>
       <c r="K16">
-        <v>0.3581076325098898</v>
+        <v>0.0002297377328878802</v>
       </c>
       <c r="L16">
-        <v>-0.07797865812041473</v>
+        <v>-0.0003537230754826254</v>
       </c>
       <c r="M16">
-        <v>0.007267869220976249</v>
+        <v>-0.0002821146658195363</v>
       </c>
       <c r="N16">
-        <v>2.726001538629598E-06</v>
+        <v>-1.034697470694817E-06</v>
       </c>
       <c r="O16">
-        <v>0.006002796188352214</v>
+        <v>-0.0001109728184394396</v>
       </c>
       <c r="P16">
-        <v>0.0121663317321474</v>
+        <v>-0.0006372333927692487</v>
       </c>
       <c r="Q16">
-        <v>0.01229157868419994</v>
+        <v>-0.0006445037553850021</v>
       </c>
       <c r="R16">
-        <v>0.1098420123764289</v>
+        <v>-0.003509081715552513</v>
       </c>
       <c r="S16">
-        <v>2.336395435004208E-08</v>
+        <v>-6.98785449053818E-09</v>
       </c>
       <c r="T16">
-        <v>1.184892740854E-05</v>
+        <v>-2.90775261754767E-06</v>
       </c>
       <c r="U16">
-        <v>1.371581758992342</v>
+        <v>-0.005221392275715506</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>0.002659737824694182</v>
+        <v>0.004780964429492928</v>
       </c>
       <c r="B17">
-        <v>2.604272551001701</v>
+        <v>2.215027794056557</v>
       </c>
       <c r="C17">
-        <v>0.1108223959880653</v>
+        <v>0.03811096832839717</v>
       </c>
       <c r="D17">
-        <v>0.1350916962557695</v>
+        <v>0.05165170234065459</v>
       </c>
       <c r="E17">
-        <v>7.766851187288493</v>
+        <v>6.356138653554373</v>
       </c>
       <c r="F17">
-        <v>0.06950157301937065</v>
+        <v>1.625557050918211</v>
       </c>
       <c r="G17">
-        <v>5.531609900574251E-05</v>
+        <v>0.0002562462263329176</v>
       </c>
       <c r="H17">
-        <v>0.0001811265966104613</v>
+        <v>2.846230649914853E-05</v>
       </c>
       <c r="I17">
-        <v>0.03211676215036112</v>
+        <v>0.06626840097325677</v>
       </c>
       <c r="J17">
-        <v>0.9984957402580388</v>
+        <v>0.8811122842329958</v>
       </c>
       <c r="K17">
-        <v>0.001369544203719683</v>
+        <v>0.03940658046337755</v>
       </c>
       <c r="L17">
-        <v>1.119773469300559</v>
+        <v>0.02488070166128279</v>
       </c>
       <c r="M17">
-        <v>0.00308144059593619</v>
+        <v>0.001691993635801481</v>
       </c>
       <c r="N17">
-        <v>6.185581060611463E-07</v>
+        <v>3.273022413613419E-07</v>
       </c>
       <c r="O17">
-        <v>0.0009940752983490417</v>
+        <v>0.002113792909531739</v>
       </c>
       <c r="P17">
-        <v>0.002783704052596047</v>
+        <v>0.004469588982204222</v>
       </c>
       <c r="Q17">
-        <v>0.002846241555188645</v>
+        <v>0.004864475227857818</v>
       </c>
       <c r="R17">
-        <v>0.002923296350302</v>
+        <v>0.017929022291353</v>
       </c>
       <c r="S17">
-        <v>1.836915669035962E-08</v>
+        <v>8.34247010591644E-09</v>
       </c>
       <c r="T17">
-        <v>3.385349297184194E-06</v>
+        <v>3.84894262373726E-06</v>
       </c>
       <c r="U17">
-        <v>0.02054473035326662</v>
+        <v>0.6571808937456171</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.0002840855616598394</v>
+        <v>0.002225502091981714</v>
       </c>
       <c r="B18">
-        <v>0.1941857134194082</v>
+        <v>0.6633579241612421</v>
       </c>
       <c r="C18">
-        <v>0.005273320535160739</v>
+        <v>0.03776600760779485</v>
       </c>
       <c r="D18">
-        <v>0.008911897572881</v>
+        <v>0.04919996889354653</v>
       </c>
       <c r="E18">
-        <v>3.646842363083645</v>
+        <v>3.719783795232499</v>
       </c>
       <c r="F18">
-        <v>0.06090754587815944</v>
+        <v>0.1626205619292443</v>
       </c>
       <c r="G18">
-        <v>1.904772658899297E-05</v>
+        <v>0.0003095745868465643</v>
       </c>
       <c r="H18">
-        <v>5.182440330103579E-06</v>
+        <v>3.676146042581313E-05</v>
       </c>
       <c r="I18">
-        <v>0.002546036303886786</v>
+        <v>0.02505042703973329</v>
       </c>
       <c r="J18">
-        <v>0.1602094900078485</v>
+        <v>0.6841580642188271</v>
       </c>
       <c r="K18">
-        <v>0.0008264981592468508</v>
+        <v>0.06256018036954447</v>
       </c>
       <c r="L18">
-        <v>0.007829168631162708</v>
+        <v>0.03526745641596953</v>
       </c>
       <c r="M18">
-        <v>0.0008259585459760477</v>
+        <v>0.001041098870251405</v>
       </c>
       <c r="N18">
-        <v>8.549886559879302E-08</v>
+        <v>2.164227930519274E-07</v>
       </c>
       <c r="O18">
-        <v>0.0001606574439328356</v>
+        <v>0.001568722507781096</v>
       </c>
       <c r="P18">
-        <v>0.0003520111284929471</v>
+        <v>0.001954581797856193</v>
       </c>
       <c r="Q18">
-        <v>0.000393251490079838</v>
+        <v>0.002013852645324543</v>
       </c>
       <c r="R18">
-        <v>0.0002821605886802387</v>
+        <v>0.004526912662704346</v>
       </c>
       <c r="S18">
-        <v>7.832158155326932E-10</v>
+        <v>3.183342921786853E-09</v>
       </c>
       <c r="T18">
-        <v>3.271740127363995E-07</v>
+        <v>1.853389103132994E-06</v>
       </c>
       <c r="U18">
-        <v>0.02566646437630009</v>
+        <v>0.04205393711153678</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.007803120539247483</v>
+        <v>0.0002840855616598394</v>
       </c>
       <c r="B19">
-        <v>-0.717929778903264</v>
+        <v>0.1941857134194082</v>
       </c>
       <c r="C19">
-        <v>-0.2031457889963768</v>
+        <v>0.005273320535160739</v>
       </c>
       <c r="D19">
-        <v>-0.2795149360485089</v>
+        <v>0.008911897572881</v>
       </c>
       <c r="E19">
-        <v>-62.56950896594986</v>
+        <v>3.646842363083645</v>
       </c>
       <c r="F19">
-        <v>-0.1282994870649409</v>
+        <v>0.06090754587815944</v>
       </c>
       <c r="G19">
-        <v>-0.0003940424675755832</v>
+        <v>1.904772658899297E-05</v>
       </c>
       <c r="H19">
-        <v>-8.312370670571981E-06</v>
+        <v>5.182440330103579E-06</v>
       </c>
       <c r="I19">
-        <v>-0.06284751061117161</v>
+        <v>0.002546036303886786</v>
       </c>
       <c r="J19">
-        <v>-5.694933514936996</v>
+        <v>0.1602094900078485</v>
       </c>
       <c r="K19">
-        <v>-0.02473607662337229</v>
+        <v>0.0008264981592468508</v>
       </c>
       <c r="L19">
-        <v>-0.1370619522892795</v>
+        <v>0.007829168631162708</v>
       </c>
       <c r="M19">
-        <v>0.02446016585079356</v>
+        <v>0.0008259585459760477</v>
       </c>
       <c r="N19">
-        <v>-3.73206136592561E-07</v>
+        <v>8.549886559879302E-08</v>
       </c>
       <c r="O19">
-        <v>-0.002545297854125298</v>
+        <v>0.0001606574439328356</v>
       </c>
       <c r="P19">
-        <v>-0.002365694477241824</v>
+        <v>0.0003520111284929471</v>
       </c>
       <c r="Q19">
-        <v>-0.002460076972099478</v>
+        <v>0.000393251490079838</v>
       </c>
       <c r="R19">
-        <v>-0.001661619590793109</v>
+        <v>0.0002821605886802387</v>
       </c>
       <c r="S19">
-        <v>-6.346526667183411E-09</v>
+        <v>7.832158155326932E-10</v>
       </c>
       <c r="T19">
-        <v>-3.777136942066919E-06</v>
+        <v>3.271740127363995E-07</v>
       </c>
       <c r="U19">
-        <v>-0.02583370785059433</v>
+        <v>0.02566646437630009</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>0.08981716815680325</v>
+        <v>0.0003111919961497615</v>
       </c>
       <c r="B20">
-        <v>20.67623747600468</v>
+        <v>0.06338098458727322</v>
       </c>
       <c r="C20">
-        <v>0.4919298638728223</v>
+        <v>0.001256061425743024</v>
       </c>
       <c r="D20">
-        <v>0.688860092664269</v>
+        <v>0.001785519627430043</v>
       </c>
       <c r="E20">
-        <v>17.4693432727724</v>
+        <v>0.2284126538540599</v>
       </c>
       <c r="F20">
-        <v>4.469172440199389</v>
+        <v>0.01751781873063376</v>
       </c>
       <c r="G20">
-        <v>0.006761205928512891</v>
+        <v>7.111302556222774E-06</v>
       </c>
       <c r="H20">
-        <v>0.0004877493696232702</v>
+        <v>1.512078808214423E-06</v>
       </c>
       <c r="I20">
-        <v>4.028007997132227</v>
+        <v>0.00726953046575206</v>
       </c>
       <c r="J20">
-        <v>17.21567178710242</v>
+        <v>0.02462278264660207</v>
       </c>
       <c r="K20">
-        <v>0.1093007506175604</v>
+        <v>0.001004904558531991</v>
       </c>
       <c r="L20">
-        <v>0.1981736482803541</v>
+        <v>0.002203196399511323</v>
       </c>
       <c r="M20">
-        <v>0.2522931466492449</v>
+        <v>0.001078804860038357</v>
       </c>
       <c r="N20">
-        <v>3.887160982068521E-06</v>
+        <v>1.938158398598048E-08</v>
       </c>
       <c r="O20">
-        <v>0.04056656281655861</v>
+        <v>0.0001242060218188756</v>
       </c>
       <c r="P20">
-        <v>0.05319574647625501</v>
+        <v>0.0006545212109419823</v>
       </c>
       <c r="Q20">
-        <v>0.05450810977550197</v>
+        <v>0.0006688046468532213</v>
       </c>
       <c r="R20">
-        <v>0.1170714401129063</v>
+        <v>0.0001315162025420402</v>
       </c>
       <c r="S20">
-        <v>9.088479531959564E-08</v>
+        <v>3.577216147293989E-10</v>
       </c>
       <c r="T20">
-        <v>6.228169798886513E-05</v>
+        <v>1.675700211187159E-07</v>
       </c>
       <c r="U20">
-        <v>0.8057023244184648</v>
+        <v>0.007185428990547761</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>-0.0003009920787043699</v>
+        <v>0.003211433251915275</v>
       </c>
       <c r="B21">
-        <v>-2.398559767703625</v>
+        <v>2.182686027637393</v>
       </c>
       <c r="C21">
-        <v>-0.1196209910725263</v>
+        <v>0.04087487210664682</v>
       </c>
       <c r="D21">
-        <v>-0.1592720009364397</v>
+        <v>0.05159469984481234</v>
       </c>
       <c r="E21">
-        <v>-1.253169213290336</v>
+        <v>7.351983738297398</v>
       </c>
       <c r="F21">
-        <v>-0.01544141118035616</v>
+        <v>0.2589782437647937</v>
       </c>
       <c r="G21">
-        <v>-1.152841486324326E-05</v>
+        <v>0.0005037090559078802</v>
       </c>
       <c r="H21">
-        <v>-2.169141974592834E-05</v>
+        <v>-0.002462599941708993</v>
       </c>
       <c r="I21">
-        <v>-0.02133274639541349</v>
+        <v>0.02425252832053517</v>
       </c>
       <c r="J21">
-        <v>-2.333581951003951</v>
+        <v>2.397394009516906</v>
       </c>
       <c r="K21">
-        <v>0.0002297377328878802</v>
+        <v>0.05817103554624409</v>
       </c>
       <c r="L21">
-        <v>-0.0003537230754826254</v>
+        <v>2.002549866448839</v>
       </c>
       <c r="M21">
-        <v>-0.0002821146658195363</v>
+        <v>0.001342251397454445</v>
       </c>
       <c r="N21">
-        <v>-1.034697470694817E-06</v>
+        <v>3.000385312227038E-07</v>
       </c>
       <c r="O21">
-        <v>-0.0001109728184394396</v>
+        <v>0.002814345994314785</v>
       </c>
       <c r="P21">
-        <v>-0.0006372333927692487</v>
+        <v>0.004199702844566218</v>
       </c>
       <c r="Q21">
-        <v>-0.0006445037553850021</v>
+        <v>0.004308237711478336</v>
       </c>
       <c r="R21">
-        <v>-0.003509081715552513</v>
+        <v>0.06643524726671297</v>
       </c>
       <c r="S21">
-        <v>-6.98785449053818E-09</v>
+        <v>2.555756955868541E-08</v>
       </c>
       <c r="T21">
-        <v>-2.90775261754767E-06</v>
+        <v>4.57396973789693E-06</v>
       </c>
       <c r="U21">
-        <v>-0.005221392275715506</v>
+        <v>0.08608849814230052</v>
       </c>
     </row>
     <row r="22" spans="1:21">

--- a/Brighway/Results/Ananas - CONSQ_recipe_unq.xlsx
+++ b/Brighway/Results/Ananas - CONSQ_recipe_unq.xlsx
@@ -434,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,1237 +637,1302 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>-0.007803120539247483</v>
+        <v>-0.007803120540073037</v>
       </c>
       <c r="B4">
-        <v>-0.717929778903264</v>
+        <v>-0.667442551654442</v>
       </c>
       <c r="C4">
-        <v>-0.2031457889963768</v>
+        <v>-0.2031457890131019</v>
       </c>
       <c r="D4">
-        <v>-0.2795149360485089</v>
+        <v>-0.2795149360719562</v>
       </c>
       <c r="E4">
-        <v>-62.56950896594986</v>
+        <v>-62.56950897186328</v>
       </c>
       <c r="F4">
-        <v>-0.1282994870649409</v>
+        <v>-0.1282994870837438</v>
       </c>
       <c r="G4">
-        <v>-0.0003940424675755832</v>
+        <v>-0.0003940424676090285</v>
       </c>
       <c r="H4">
-        <v>-8.312370670571981E-06</v>
+        <v>-8.312370673123654E-06</v>
       </c>
       <c r="I4">
-        <v>-0.06284751061117161</v>
+        <v>-0.06284751061913493</v>
       </c>
       <c r="J4">
-        <v>-5.694933514936996</v>
+        <v>-5.694933515468476</v>
       </c>
       <c r="K4">
-        <v>-0.02473607662337229</v>
+        <v>-0.02473607662444559</v>
       </c>
       <c r="L4">
-        <v>-0.1370619522892795</v>
+        <v>-0.1370619523083692</v>
       </c>
       <c r="M4">
-        <v>0.02446016585079356</v>
+        <v>0.02446016585311413</v>
       </c>
       <c r="N4">
-        <v>-3.73206136592561E-07</v>
+        <v>-3.732061366235776E-07</v>
       </c>
       <c r="O4">
-        <v>-0.002545297854125298</v>
+        <v>-0.002545297854395287</v>
       </c>
       <c r="P4">
-        <v>-0.002365694477241824</v>
+        <v>-0.002365694477574821</v>
       </c>
       <c r="Q4">
-        <v>-0.002460076972099478</v>
+        <v>-0.002460076972448288</v>
       </c>
       <c r="R4">
-        <v>-0.001661619590793109</v>
+        <v>-0.001661619591017762</v>
       </c>
       <c r="S4">
-        <v>-6.346526667183411E-09</v>
+        <v>-6.205158574510774E-09</v>
       </c>
       <c r="T4">
-        <v>-3.777136942066919E-06</v>
+        <v>-3.730284794491225E-06</v>
       </c>
       <c r="U4">
-        <v>-0.02583370785059433</v>
+        <v>-0.0258337078560841</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.007834814378326907</v>
+        <v>0.007834814363991858</v>
       </c>
       <c r="B5">
-        <v>3.311340417899355</v>
+        <v>3.3113404162942</v>
       </c>
       <c r="C5">
-        <v>0.1868247532967705</v>
+        <v>0.1868247529386197</v>
       </c>
       <c r="D5">
-        <v>0.2435841899778902</v>
+        <v>0.2435841894888461</v>
       </c>
       <c r="E5">
-        <v>8.932729431487518</v>
+        <v>8.932729342991314</v>
       </c>
       <c r="F5">
-        <v>0.8123056344027652</v>
+        <v>0.8123056340267264</v>
       </c>
       <c r="G5">
-        <v>0.001638525982901075</v>
+        <v>0.001638525982090762</v>
       </c>
       <c r="H5">
-        <v>0.0002723741844799432</v>
+        <v>0.0002723741844269716</v>
       </c>
       <c r="I5">
-        <v>0.1539561373588981</v>
+        <v>0.1539561371648972</v>
       </c>
       <c r="J5">
-        <v>3.772733989305804</v>
+        <v>3.772733979920112</v>
       </c>
       <c r="K5">
-        <v>0.2477194250520632</v>
+        <v>0.2477194250544559</v>
       </c>
       <c r="L5">
-        <v>0.3893599371713575</v>
+        <v>0.3893599369269052</v>
       </c>
       <c r="M5">
-        <v>0.007111512882687967</v>
+        <v>0.007111512884132403</v>
       </c>
       <c r="N5">
-        <v>8.136901097343636E-07</v>
+        <v>8.136901091988729E-07</v>
       </c>
       <c r="O5">
-        <v>0.004318540969377269</v>
+        <v>0.004318540964328132</v>
       </c>
       <c r="P5">
-        <v>0.004691227475986906</v>
+        <v>0.00469122746999739</v>
       </c>
       <c r="Q5">
-        <v>0.005041277533375116</v>
+        <v>0.005041277527100946</v>
       </c>
       <c r="R5">
-        <v>0.07972412606987471</v>
+        <v>0.07972412606277311</v>
       </c>
       <c r="S5">
-        <v>1.639221749723751E-08</v>
+        <v>1.639221748487162E-08</v>
       </c>
       <c r="T5">
-        <v>7.342156691723278E-06</v>
+        <v>7.342156684257659E-06</v>
       </c>
       <c r="U5">
-        <v>0.2296180234693693</v>
+        <v>0.2296180233699801</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.08981716815680325</v>
+        <v>0.08981716818007165</v>
       </c>
       <c r="B6">
-        <v>20.67623747600468</v>
+        <v>20.67623747781835</v>
       </c>
       <c r="C6">
-        <v>0.4919298638728223</v>
+        <v>0.491929864461956</v>
       </c>
       <c r="D6">
-        <v>0.688860092664269</v>
+        <v>0.6888600934775068</v>
       </c>
       <c r="E6">
-        <v>17.4693432727724</v>
+        <v>17.46934345569751</v>
       </c>
       <c r="F6">
-        <v>4.469172440199389</v>
+        <v>4.469172440606628</v>
       </c>
       <c r="G6">
-        <v>0.006761205928512891</v>
+        <v>0.006761205929714056</v>
       </c>
       <c r="H6">
-        <v>0.0004877493696232702</v>
+        <v>0.0004877493696795942</v>
       </c>
       <c r="I6">
-        <v>4.028007997132227</v>
+        <v>4.028007997451557</v>
       </c>
       <c r="J6">
-        <v>17.21567178710242</v>
+        <v>17.21567180371862</v>
       </c>
       <c r="K6">
-        <v>0.1093007506175604</v>
+        <v>0.1093007506672858</v>
       </c>
       <c r="L6">
-        <v>0.1981736482803541</v>
+        <v>0.1981736486387005</v>
       </c>
       <c r="M6">
-        <v>0.2522931466492449</v>
+        <v>0.2522931465863583</v>
       </c>
       <c r="N6">
-        <v>3.887160982068521E-06</v>
+        <v>3.887160982898399E-06</v>
       </c>
       <c r="O6">
-        <v>0.04056656281655861</v>
+        <v>0.0405665628244675</v>
       </c>
       <c r="P6">
-        <v>0.05319574647625501</v>
+        <v>0.05319574648405823</v>
       </c>
       <c r="Q6">
-        <v>0.05450810977550197</v>
+        <v>0.05450810978357133</v>
       </c>
       <c r="R6">
-        <v>0.1170714401129063</v>
+        <v>0.1170714401200927</v>
       </c>
       <c r="S6">
-        <v>9.088479531959564E-08</v>
+        <v>9.088479533721491E-08</v>
       </c>
       <c r="T6">
-        <v>6.228169798886513E-05</v>
+        <v>6.228169800038466E-05</v>
       </c>
       <c r="U6">
-        <v>0.8057023244184648</v>
+        <v>0.8057023245039523</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.005547151661112807</v>
+        <v>0.005547151661112846</v>
       </c>
       <c r="B7">
-        <v>3.763432984904115</v>
+        <v>3.763432984904109</v>
       </c>
       <c r="C7">
-        <v>0.09740939190075772</v>
+        <v>0.09740939190074178</v>
       </c>
       <c r="D7">
-        <v>0.1104482400318485</v>
+        <v>0.1104482400318298</v>
       </c>
       <c r="E7">
-        <v>13.55125960691724</v>
+        <v>13.55125960691784</v>
       </c>
       <c r="F7">
-        <v>0.1415383711572793</v>
+        <v>0.1415383711572792</v>
       </c>
       <c r="G7">
-        <v>-0.0002757327490054239</v>
+        <v>-0.000275732749005424</v>
       </c>
       <c r="H7">
         <v>0.001594386446832166</v>
       </c>
       <c r="I7">
-        <v>0.0163754461456689</v>
+        <v>0.01637544614566878</v>
       </c>
       <c r="J7">
-        <v>0.3626607533531199</v>
+        <v>0.3626607533531527</v>
       </c>
       <c r="K7">
-        <v>0.01328024031270687</v>
+        <v>0.01328024031270713</v>
       </c>
       <c r="L7">
-        <v>2.019065205416295</v>
+        <v>2.019065205418008</v>
       </c>
       <c r="M7">
-        <v>0.008202196909945668</v>
+        <v>0.008202196909959582</v>
       </c>
       <c r="N7">
-        <v>-2.332935281980519E-06</v>
+        <v>-2.332935281980523E-06</v>
       </c>
       <c r="O7">
-        <v>0.002415047450646797</v>
+        <v>0.002415047450646817</v>
       </c>
       <c r="P7">
-        <v>0.004440844837516429</v>
+        <v>0.004440844837515875</v>
       </c>
       <c r="Q7">
-        <v>0.004531687334619061</v>
+        <v>0.004531687334618166</v>
       </c>
       <c r="R7">
-        <v>0.006604942880048236</v>
+        <v>0.006604942880047855</v>
       </c>
       <c r="S7">
-        <v>3.025359920817672E-08</v>
+        <v>3.025359920819179E-08</v>
       </c>
       <c r="T7">
-        <v>5.164659832368971E-06</v>
+        <v>5.164659832368983E-06</v>
       </c>
       <c r="U7">
-        <v>0.02342198376458633</v>
+        <v>0.02342198376458953</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.08981716815680325</v>
+        <v>0.08981716818007165</v>
       </c>
       <c r="B8">
-        <v>20.67623747600468</v>
+        <v>20.67623747781835</v>
       </c>
       <c r="C8">
-        <v>0.4919298638728223</v>
+        <v>0.491929864461956</v>
       </c>
       <c r="D8">
-        <v>0.688860092664269</v>
+        <v>0.6888600934775068</v>
       </c>
       <c r="E8">
-        <v>17.4693432727724</v>
+        <v>17.46934345569751</v>
       </c>
       <c r="F8">
-        <v>4.469172440199389</v>
+        <v>4.469172440606628</v>
       </c>
       <c r="G8">
-        <v>0.006761205928512891</v>
+        <v>0.006761205929714056</v>
       </c>
       <c r="H8">
-        <v>0.0004877493696232702</v>
+        <v>0.0004877493696795942</v>
       </c>
       <c r="I8">
-        <v>4.028007997132227</v>
+        <v>4.028007997451557</v>
       </c>
       <c r="J8">
-        <v>17.21567178710242</v>
+        <v>17.21567180371862</v>
       </c>
       <c r="K8">
-        <v>0.1093007506175604</v>
+        <v>0.1093007506672858</v>
       </c>
       <c r="L8">
-        <v>0.1981736482803541</v>
+        <v>0.1981736486387005</v>
       </c>
       <c r="M8">
-        <v>0.2522931466492449</v>
+        <v>0.2522931465863583</v>
       </c>
       <c r="N8">
-        <v>3.887160982068521E-06</v>
+        <v>3.887160982898399E-06</v>
       </c>
       <c r="O8">
-        <v>0.04056656281655861</v>
+        <v>0.0405665628244675</v>
       </c>
       <c r="P8">
-        <v>0.05319574647625501</v>
+        <v>0.05319574648405823</v>
       </c>
       <c r="Q8">
-        <v>0.05450810977550197</v>
+        <v>0.05450810978357133</v>
       </c>
       <c r="R8">
-        <v>0.1170714401129063</v>
+        <v>0.1170714401200927</v>
       </c>
       <c r="S8">
-        <v>9.088479531959564E-08</v>
+        <v>9.088479533721491E-08</v>
       </c>
       <c r="T8">
-        <v>6.228169798886513E-05</v>
+        <v>6.228169800038466E-05</v>
       </c>
       <c r="U8">
-        <v>0.8057023244184648</v>
+        <v>0.8057023245039523</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.002659737824694182</v>
+        <v>0.002659737824694092</v>
       </c>
       <c r="B9">
-        <v>2.604272551001701</v>
+        <v>2.604272551001702</v>
       </c>
       <c r="C9">
-        <v>0.1108223959880653</v>
+        <v>0.1108223959880667</v>
       </c>
       <c r="D9">
-        <v>0.1350916962557695</v>
+        <v>0.1350916962557714</v>
       </c>
       <c r="E9">
-        <v>7.766851187288493</v>
+        <v>7.766851187289582</v>
       </c>
       <c r="F9">
-        <v>0.06950157301937065</v>
+        <v>0.06950157301937068</v>
       </c>
       <c r="G9">
-        <v>5.531609900574251E-05</v>
+        <v>5.531609900574248E-05</v>
       </c>
       <c r="H9">
         <v>0.0001811265966104613</v>
       </c>
       <c r="I9">
-        <v>0.03211676215036112</v>
+        <v>0.03211676215036113</v>
       </c>
       <c r="J9">
-        <v>0.9984957402580388</v>
+        <v>0.9984957402580681</v>
       </c>
       <c r="K9">
-        <v>0.001369544203719683</v>
+        <v>0.0013695442037197</v>
       </c>
       <c r="L9">
-        <v>1.119773469300559</v>
+        <v>1.119773469300768</v>
       </c>
       <c r="M9">
-        <v>0.00308144059593619</v>
+        <v>0.00308144059593396</v>
       </c>
       <c r="N9">
-        <v>6.185581060611463E-07</v>
+        <v>6.185581060611393E-07</v>
       </c>
       <c r="O9">
-        <v>0.0009940752983490417</v>
+        <v>0.0009940752983490242</v>
       </c>
       <c r="P9">
-        <v>0.002783704052596047</v>
+        <v>0.002783704052595887</v>
       </c>
       <c r="Q9">
-        <v>0.002846241555188645</v>
+        <v>0.002846241555188386</v>
       </c>
       <c r="R9">
-        <v>0.002923296350302</v>
+        <v>0.002923296350302118</v>
       </c>
       <c r="S9">
-        <v>1.836915669035962E-08</v>
+        <v>1.836915669036144E-08</v>
       </c>
       <c r="T9">
-        <v>3.385349297184194E-06</v>
+        <v>3.385349297184192E-06</v>
       </c>
       <c r="U9">
-        <v>0.02054473035326662</v>
+        <v>0.02054473035326612</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.0003736670231602012</v>
+        <v>-0.0008140105667737872</v>
       </c>
       <c r="B10">
-        <v>0.4197414960552314</v>
+        <v>-0.9059478797134367</v>
       </c>
       <c r="C10">
-        <v>0.01735694911605258</v>
+        <v>-0.01177011589741017</v>
       </c>
       <c r="D10">
-        <v>0.02142888671358929</v>
+        <v>-0.01563033822883744</v>
       </c>
       <c r="E10">
-        <v>1.087724673730751</v>
+        <v>0.7243131859782147</v>
       </c>
       <c r="F10">
-        <v>0.008745847180082582</v>
+        <v>0.0170567528303007</v>
       </c>
       <c r="G10">
-        <v>1.429857804026905E-05</v>
+        <v>-2.052769162627538E-05</v>
       </c>
       <c r="H10">
-        <v>1.52760617656039E-06</v>
+        <v>-0.0002283819099301321</v>
       </c>
       <c r="I10">
-        <v>0.005329533745352403</v>
+        <v>-0.001320369908966877</v>
       </c>
       <c r="J10">
-        <v>0.1728108976696197</v>
+        <v>-0.2273224528384116</v>
       </c>
       <c r="K10">
-        <v>8.878999151902986E-05</v>
+        <v>0.001182082323325132</v>
       </c>
       <c r="L10">
-        <v>0.17486427082844</v>
+        <v>0.2007597093015801</v>
       </c>
       <c r="M10">
-        <v>0.0004609133823264467</v>
+        <v>-0.0004241615455990826</v>
       </c>
       <c r="N10">
-        <v>1.678931466963876E-07</v>
+        <v>-1.152204297737303E-05</v>
       </c>
       <c r="O10">
-        <v>0.0001317687004881112</v>
+        <v>-0.0002738400910089898</v>
       </c>
       <c r="P10">
-        <v>0.0004362982524317448</v>
+        <v>-0.002408449961296285</v>
       </c>
       <c r="Q10">
-        <v>0.0004458788720437829</v>
+        <v>-0.002350457192897817</v>
       </c>
       <c r="R10">
-        <v>0.0003881229381924918</v>
+        <v>-0.001859160794608752</v>
       </c>
       <c r="S10">
-        <v>2.898828723056617E-09</v>
+        <v>-1.247454630708745E-09</v>
       </c>
       <c r="T10">
-        <v>5.308252369992181E-07</v>
+        <v>-1.082113339298524E-06</v>
       </c>
       <c r="U10">
-        <v>0.002905565989393512</v>
+        <v>0.01161362674629451</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>7.224247781710064E-05</v>
+        <v>0.0003736670231590213</v>
       </c>
       <c r="B11">
-        <v>0.08765780760027571</v>
+        <v>0.03668209629068931</v>
       </c>
       <c r="C11">
-        <v>0.001952532045147212</v>
+        <v>0.01735694911602075</v>
       </c>
       <c r="D11">
-        <v>0.002502910752679732</v>
+        <v>0.02142888671354673</v>
       </c>
       <c r="E11">
-        <v>0.1964120788656271</v>
+        <v>1.087724673726994</v>
       </c>
       <c r="F11">
-        <v>0.01323766300881997</v>
+        <v>0.008745847180043464</v>
       </c>
       <c r="G11">
-        <v>7.602151222037464E-06</v>
+        <v>1.429857804019188E-05</v>
       </c>
       <c r="H11">
-        <v>6.696429407108627E-07</v>
+        <v>1.527606176550902E-06</v>
       </c>
       <c r="I11">
-        <v>0.0007412120545879728</v>
+        <v>0.005329533745339361</v>
       </c>
       <c r="J11">
-        <v>0.02944733985200263</v>
+        <v>0.1728108976689471</v>
       </c>
       <c r="K11">
-        <v>0.003003638279919019</v>
+        <v>8.878999152169023E-05</v>
       </c>
       <c r="L11">
-        <v>0.01437969985437207</v>
+        <v>0.1748642708287848</v>
       </c>
       <c r="M11">
-        <v>4.673569113795994E-05</v>
+        <v>0.0004609133823232034</v>
       </c>
       <c r="N11">
-        <v>2.328325716763073E-08</v>
+        <v>1.678931466963714E-07</v>
       </c>
       <c r="O11">
-        <v>4.418555646320203E-05</v>
+        <v>0.0001317687004876972</v>
       </c>
       <c r="P11">
-        <v>9.640463444990828E-05</v>
+        <v>0.0004362982524313201</v>
       </c>
       <c r="Q11">
-        <v>0.0001018812387659618</v>
+        <v>0.0004458788720433079</v>
       </c>
       <c r="R11">
-        <v>0.0001275625089226693</v>
+        <v>0.0003881229381915101</v>
       </c>
       <c r="S11">
-        <v>4.103873474079604E-10</v>
+        <v>1.826233140672326E-09</v>
       </c>
       <c r="T11">
-        <v>1.187097415312101E-07</v>
+        <v>1.753461063791952E-07</v>
       </c>
       <c r="U11">
-        <v>0.0045173398511638</v>
+        <v>0.002905565989383285</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.007186257284964585</v>
+        <v>7.22424778170959E-05</v>
       </c>
       <c r="B12">
-        <v>3.234668417038828</v>
+        <v>0.08765780760027571</v>
       </c>
       <c r="C12">
-        <v>0.05096823970493861</v>
+        <v>0.001952532045147183</v>
       </c>
       <c r="D12">
-        <v>0.07137129718938535</v>
+        <v>0.002502910752679697</v>
       </c>
       <c r="E12">
-        <v>5.283505652713961</v>
+        <v>0.1964120788656209</v>
       </c>
       <c r="F12">
-        <v>0.3596394431392941</v>
+        <v>0.01323766300881997</v>
       </c>
       <c r="G12">
-        <v>0.002487409892352019</v>
+        <v>7.602151222037464E-06</v>
       </c>
       <c r="H12">
-        <v>0.0001433961884237131</v>
+        <v>6.696429407108619E-07</v>
       </c>
       <c r="I12">
-        <v>0.09824940831951981</v>
+        <v>0.000741212054587973</v>
       </c>
       <c r="J12">
-        <v>1.817127126386454</v>
+        <v>0.02944733985200252</v>
       </c>
       <c r="K12">
-        <v>-0.03405245796134154</v>
+        <v>0.003003638279919012</v>
       </c>
       <c r="L12">
-        <v>1.822394366980684</v>
+        <v>0.01437969985444496</v>
       </c>
       <c r="M12">
-        <v>0.003797878088159211</v>
+        <v>4.673569113796661E-05</v>
       </c>
       <c r="N12">
-        <v>4.368704293329749E-07</v>
+        <v>2.328325716763073E-08</v>
       </c>
       <c r="O12">
-        <v>0.005826737334343939</v>
+        <v>4.418555646320077E-05</v>
       </c>
       <c r="P12">
-        <v>0.004006066603621137</v>
+        <v>9.640463444990577E-05</v>
       </c>
       <c r="Q12">
-        <v>0.004138473414844842</v>
+        <v>0.0001018812387659578</v>
       </c>
       <c r="R12">
-        <v>0.01358234299231974</v>
+        <v>0.0001275625089226689</v>
       </c>
       <c r="S12">
-        <v>2.904318387440842E-08</v>
+        <v>4.103873474086058E-10</v>
       </c>
       <c r="T12">
-        <v>7.438758906813784E-06</v>
+        <v>1.187097415312093E-07</v>
       </c>
       <c r="U12">
-        <v>0.07279753706716356</v>
+        <v>0.0045173398511638</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.004640164272069189</v>
+        <v>0.007186257284964585</v>
       </c>
       <c r="B13">
-        <v>2.172417644973059</v>
+        <v>3.234668417038828</v>
       </c>
       <c r="C13">
-        <v>0.03628000086309742</v>
+        <v>0.05096823970493861</v>
       </c>
       <c r="D13">
-        <v>0.04922742030092352</v>
+        <v>0.07137129718938535</v>
       </c>
       <c r="E13">
-        <v>5.981469756313518</v>
+        <v>5.283505652713961</v>
       </c>
       <c r="F13">
-        <v>1.6559487892016</v>
+        <v>0.3596394431392941</v>
       </c>
       <c r="G13">
-        <v>0.0002268687835551454</v>
+        <v>0.002487409892352019</v>
       </c>
       <c r="H13">
-        <v>2.66140965786759E-05</v>
+        <v>0.0001433961884237131</v>
       </c>
       <c r="I13">
-        <v>0.04953876713217139</v>
+        <v>0.09824940831951981</v>
       </c>
       <c r="J13">
-        <v>0.8264105084957725</v>
+        <v>1.817127126386454</v>
       </c>
       <c r="K13">
-        <v>0.03176549730016508</v>
+        <v>-0.03405245796134154</v>
       </c>
       <c r="L13">
-        <v>0.02394491623377468</v>
+        <v>1.822394366980684</v>
       </c>
       <c r="M13">
-        <v>0.002175076779259047</v>
+        <v>0.003797878088159211</v>
       </c>
       <c r="N13">
-        <v>1.604287268816233E-07</v>
+        <v>4.368704293329749E-07</v>
       </c>
       <c r="O13">
-        <v>0.00199563339922082</v>
+        <v>0.005826737334343939</v>
       </c>
       <c r="P13">
-        <v>0.004134859004471053</v>
+        <v>0.004006066603621137</v>
       </c>
       <c r="Q13">
-        <v>0.004473835897948507</v>
+        <v>0.004138473414844842</v>
       </c>
       <c r="R13">
-        <v>0.01576991024275375</v>
+        <v>0.01358234299231974</v>
       </c>
       <c r="S13">
-        <v>8.109281081766466E-09</v>
+        <v>2.904318387440842E-08</v>
       </c>
       <c r="T13">
-        <v>3.661826757378365E-06</v>
+        <v>7.438758906813784E-06</v>
       </c>
       <c r="U13">
-        <v>0.6748054538810958</v>
+        <v>0.07279753706716356</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.01272720797915326</v>
+        <v>0.004640164272069189</v>
       </c>
       <c r="B14">
-        <v>6.756719746398571</v>
+        <v>2.172417644973059</v>
       </c>
       <c r="C14">
-        <v>0.1663298357429507</v>
+        <v>0.03628000086309742</v>
       </c>
       <c r="D14">
-        <v>0.2131053978060375</v>
+        <v>0.04922742030092352</v>
       </c>
       <c r="E14">
-        <v>26.56433427529162</v>
+        <v>5.981469756313518</v>
       </c>
       <c r="F14">
-        <v>3.570725099355489</v>
+        <v>1.6559487892016</v>
       </c>
       <c r="G14">
-        <v>0.0006056785558026258</v>
+        <v>0.0002268687835551454</v>
       </c>
       <c r="H14">
-        <v>0.0002679873026154834</v>
+        <v>2.66140965786759E-05</v>
       </c>
       <c r="I14">
-        <v>0.1553199938155466</v>
+        <v>0.04953876713217139</v>
       </c>
       <c r="J14">
-        <v>4.53183296745962</v>
+        <v>0.8264105084957725</v>
       </c>
       <c r="K14">
-        <v>0.3581076325098898</v>
+        <v>0.03176549730016508</v>
       </c>
       <c r="L14">
-        <v>-0.07797865812041473</v>
+        <v>0.02394491623377468</v>
       </c>
       <c r="M14">
-        <v>0.007267869220976249</v>
+        <v>0.002175076779259047</v>
       </c>
       <c r="N14">
-        <v>2.726001538629598E-06</v>
+        <v>1.604287268816233E-07</v>
       </c>
       <c r="O14">
-        <v>0.006002796188352214</v>
+        <v>0.00199563339922082</v>
       </c>
       <c r="P14">
-        <v>0.0121663317321474</v>
+        <v>0.004134859004471053</v>
       </c>
       <c r="Q14">
-        <v>0.01229157868419994</v>
+        <v>0.004473835897948507</v>
       </c>
       <c r="R14">
-        <v>0.1098420123764289</v>
+        <v>0.01576991024275375</v>
       </c>
       <c r="S14">
-        <v>2.336395435004208E-08</v>
+        <v>8.109281081766466E-09</v>
       </c>
       <c r="T14">
-        <v>1.184892740854E-05</v>
+        <v>3.661826757378365E-06</v>
       </c>
       <c r="U14">
-        <v>1.371581758992342</v>
+        <v>0.6748054538810958</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.006376674759669536</v>
+        <v>0.01272720797915326</v>
       </c>
       <c r="B15">
-        <v>2.835967633759383</v>
+        <v>6.756719746398571</v>
       </c>
       <c r="C15">
-        <v>0.06539456791350155</v>
+        <v>0.1663298357429507</v>
       </c>
       <c r="D15">
-        <v>0.08697010161089343</v>
+        <v>0.2131053978060375</v>
       </c>
       <c r="E15">
-        <v>7.006761610119525</v>
+        <v>26.56433427529162</v>
       </c>
       <c r="F15">
-        <v>1.798712860268742</v>
+        <v>3.570725099355489</v>
       </c>
       <c r="G15">
-        <v>0.0006412244930937339</v>
+        <v>0.0006056785558026258</v>
       </c>
       <c r="H15">
-        <v>8.931098200701069E-05</v>
+        <v>0.0002679873026154834</v>
       </c>
       <c r="I15">
-        <v>0.07490979898936781</v>
+        <v>0.1553199938155466</v>
       </c>
       <c r="J15">
-        <v>1.503420465750524</v>
+        <v>4.53183296745962</v>
       </c>
       <c r="K15">
-        <v>0.1273094533807192</v>
+        <v>0.3581076325098898</v>
       </c>
       <c r="L15">
-        <v>0.1121490850919326</v>
+        <v>-0.07797865812041473</v>
       </c>
       <c r="M15">
-        <v>0.00302654621466975</v>
+        <v>0.007267869220976249</v>
       </c>
       <c r="N15">
-        <v>4.228469999024551E-07</v>
+        <v>2.726001538629598E-06</v>
       </c>
       <c r="O15">
-        <v>0.003314047568087522</v>
+        <v>0.006002796188352214</v>
       </c>
       <c r="P15">
-        <v>0.005944326699941544</v>
+        <v>0.0121663317321474</v>
       </c>
       <c r="Q15">
-        <v>0.006631010854412189</v>
+        <v>0.01229157868419994</v>
       </c>
       <c r="R15">
-        <v>0.04453940631102851</v>
+        <v>0.1098420123764289</v>
       </c>
       <c r="S15">
-        <v>1.170938746451423E-08</v>
+        <v>2.336395435004208E-08</v>
       </c>
       <c r="T15">
-        <v>5.411438720677444E-06</v>
+        <v>1.184892740854E-05</v>
       </c>
       <c r="U15">
-        <v>0.6995528684858736</v>
+        <v>1.371581758992342</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>-0.0003009920787043699</v>
+        <v>0.006376674759669536</v>
       </c>
       <c r="B16">
-        <v>-2.398559767703625</v>
+        <v>2.835967633759383</v>
       </c>
       <c r="C16">
-        <v>-0.1196209910725263</v>
+        <v>0.06539456791350155</v>
       </c>
       <c r="D16">
-        <v>-0.1592720009364397</v>
+        <v>0.08697010161089343</v>
       </c>
       <c r="E16">
-        <v>-1.253169213290336</v>
+        <v>7.006761610119525</v>
       </c>
       <c r="F16">
-        <v>-0.01544141118035616</v>
+        <v>1.798712860268742</v>
       </c>
       <c r="G16">
-        <v>-1.152841486324326E-05</v>
+        <v>0.0006412244930937339</v>
       </c>
       <c r="H16">
-        <v>-2.169141974592834E-05</v>
+        <v>8.931098200701069E-05</v>
       </c>
       <c r="I16">
-        <v>-0.02133274639541349</v>
+        <v>0.07490979898936781</v>
       </c>
       <c r="J16">
-        <v>-2.333581951003951</v>
+        <v>1.503420465750524</v>
       </c>
       <c r="K16">
-        <v>0.0002297377328878802</v>
+        <v>0.1273094533807192</v>
       </c>
       <c r="L16">
-        <v>-0.0003537230754826254</v>
+        <v>0.1121490850919326</v>
       </c>
       <c r="M16">
-        <v>-0.0002821146658195363</v>
+        <v>0.00302654621466975</v>
       </c>
       <c r="N16">
-        <v>-1.034697470694817E-06</v>
+        <v>4.228469999024551E-07</v>
       </c>
       <c r="O16">
-        <v>-0.0001109728184394396</v>
+        <v>0.003314047568087522</v>
       </c>
       <c r="P16">
-        <v>-0.0006372333927692487</v>
+        <v>0.005944326699941544</v>
       </c>
       <c r="Q16">
-        <v>-0.0006445037553850021</v>
+        <v>0.006631010854412189</v>
       </c>
       <c r="R16">
-        <v>-0.003509081715552513</v>
+        <v>0.04453940631102851</v>
       </c>
       <c r="S16">
-        <v>-6.98785449053818E-09</v>
+        <v>1.170938746451423E-08</v>
       </c>
       <c r="T16">
-        <v>-2.90775261754767E-06</v>
+        <v>5.411438720677444E-06</v>
       </c>
       <c r="U16">
-        <v>-0.005221392275715506</v>
+        <v>0.6995528684858736</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>0.004780964429492928</v>
+        <v>-0.0003009920795236056</v>
       </c>
       <c r="B17">
-        <v>2.215027794056557</v>
+        <v>-2.398559767789619</v>
       </c>
       <c r="C17">
-        <v>0.03811096832839717</v>
+        <v>-0.1196209910903292</v>
       </c>
       <c r="D17">
-        <v>0.05165170234065459</v>
+        <v>-0.1592720009610597</v>
       </c>
       <c r="E17">
-        <v>6.356138653554373</v>
+        <v>-1.253169218479956</v>
       </c>
       <c r="F17">
-        <v>1.625557050918211</v>
+        <v>-0.01544141120319956</v>
       </c>
       <c r="G17">
-        <v>0.0002562462263329176</v>
+        <v>-1.152841490280084E-05</v>
       </c>
       <c r="H17">
-        <v>2.846230649914853E-05</v>
+        <v>-2.169141975056817E-05</v>
       </c>
       <c r="I17">
-        <v>0.06626840097325677</v>
+        <v>-0.02133274640455269</v>
       </c>
       <c r="J17">
-        <v>0.8811122842329958</v>
+        <v>-2.333581951518776</v>
       </c>
       <c r="K17">
-        <v>0.03940658046337755</v>
+        <v>0.000229737731916489</v>
       </c>
       <c r="L17">
-        <v>0.02488070166128279</v>
+        <v>-0.0003537230923188818</v>
       </c>
       <c r="M17">
-        <v>0.001691993635801481</v>
+        <v>-0.0002821146651614474</v>
       </c>
       <c r="N17">
-        <v>3.273022413613419E-07</v>
+        <v>-1.034697470726069E-06</v>
       </c>
       <c r="O17">
-        <v>0.002113792909531739</v>
+        <v>-0.0001109728187240172</v>
       </c>
       <c r="P17">
-        <v>0.004469588982204222</v>
+        <v>-0.0006372333931390468</v>
       </c>
       <c r="Q17">
-        <v>0.004864475227857818</v>
+        <v>-0.0006445037557744726</v>
       </c>
       <c r="R17">
-        <v>0.017929022291353</v>
+        <v>-0.003509081715891561</v>
       </c>
       <c r="S17">
-        <v>8.34247010591644E-09</v>
+        <v>-6.987854491252999E-09</v>
       </c>
       <c r="T17">
-        <v>3.84894262373726E-06</v>
+        <v>-2.907752617954993E-06</v>
       </c>
       <c r="U17">
-        <v>0.6571808937456171</v>
+        <v>-0.005221392282581211</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.002225502091981714</v>
+        <v>0.004780964429492928</v>
       </c>
       <c r="B18">
-        <v>0.6633579241612421</v>
+        <v>2.215027794056557</v>
       </c>
       <c r="C18">
-        <v>0.03776600760779485</v>
+        <v>0.03811096832839717</v>
       </c>
       <c r="D18">
-        <v>0.04919996889354653</v>
+        <v>0.05165170234065459</v>
       </c>
       <c r="E18">
-        <v>3.719783795232499</v>
+        <v>6.356138653554373</v>
       </c>
       <c r="F18">
-        <v>0.1626205619292443</v>
+        <v>1.625557050918211</v>
       </c>
       <c r="G18">
-        <v>0.0003095745868465643</v>
+        <v>0.0002562462263329176</v>
       </c>
       <c r="H18">
-        <v>3.676146042581313E-05</v>
+        <v>2.846230649914853E-05</v>
       </c>
       <c r="I18">
-        <v>0.02505042703973329</v>
+        <v>0.06626840097325677</v>
       </c>
       <c r="J18">
-        <v>0.6841580642188271</v>
+        <v>0.8811122842329958</v>
       </c>
       <c r="K18">
-        <v>0.06256018036954447</v>
+        <v>0.03940658046337755</v>
       </c>
       <c r="L18">
-        <v>0.03526745641596953</v>
+        <v>0.02488070166128279</v>
       </c>
       <c r="M18">
-        <v>0.001041098870251405</v>
+        <v>0.001691993635801481</v>
       </c>
       <c r="N18">
-        <v>2.164227930519274E-07</v>
+        <v>3.273022413613419E-07</v>
       </c>
       <c r="O18">
-        <v>0.001568722507781096</v>
+        <v>0.002113792909531739</v>
       </c>
       <c r="P18">
-        <v>0.001954581797856193</v>
+        <v>0.004469588982204222</v>
       </c>
       <c r="Q18">
-        <v>0.002013852645324543</v>
+        <v>0.004864475227857818</v>
       </c>
       <c r="R18">
-        <v>0.004526912662704346</v>
+        <v>0.017929022291353</v>
       </c>
       <c r="S18">
-        <v>3.183342921786853E-09</v>
+        <v>8.34247010591644E-09</v>
       </c>
       <c r="T18">
-        <v>1.853389103132994E-06</v>
+        <v>3.84894262373726E-06</v>
       </c>
       <c r="U18">
-        <v>0.04205393711153678</v>
+        <v>0.6571808937456171</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>0.0002840855616598394</v>
+        <v>0.0002032859811906685</v>
       </c>
       <c r="B19">
-        <v>0.1941857134194082</v>
+        <v>0.005434024576688491</v>
       </c>
       <c r="C19">
-        <v>0.005273320535160739</v>
+        <v>-0.00150610712131786</v>
       </c>
       <c r="D19">
-        <v>0.008911897572881</v>
+        <v>-0.0002875759362433015</v>
       </c>
       <c r="E19">
-        <v>3.646842363083645</v>
+        <v>0.01380663863304512</v>
       </c>
       <c r="F19">
-        <v>0.06090754587815944</v>
+        <v>0.001161335949445189</v>
       </c>
       <c r="G19">
-        <v>1.904772658899297E-05</v>
+        <v>-2.792821996245288E-05</v>
       </c>
       <c r="H19">
-        <v>5.182440330103579E-06</v>
+        <v>6.353976267706739E-05</v>
       </c>
       <c r="I19">
-        <v>0.002546036303886786</v>
+        <v>0.0001872310509039212</v>
       </c>
       <c r="J19">
-        <v>0.1602094900078485</v>
+        <v>0.01503426027182376</v>
       </c>
       <c r="K19">
-        <v>0.0008264981592468508</v>
+        <v>0.0001661119386687741</v>
       </c>
       <c r="L19">
-        <v>0.007829168631162708</v>
+        <v>-0.005214652010346094</v>
       </c>
       <c r="M19">
-        <v>0.0008259585459760477</v>
+        <v>1.453485098145005E-05</v>
       </c>
       <c r="N19">
-        <v>8.549886559879302E-08</v>
+        <v>8.914259243095994E-08</v>
       </c>
       <c r="O19">
-        <v>0.0001606574439328356</v>
+        <v>2.433570383178462E-05</v>
       </c>
       <c r="P19">
-        <v>0.0003520111284929471</v>
+        <v>0.0003923237872874417</v>
       </c>
       <c r="Q19">
-        <v>0.000393251490079838</v>
+        <v>0.0006130408372486582</v>
       </c>
       <c r="R19">
-        <v>0.0002821605886802387</v>
+        <v>0.005419475575340746</v>
       </c>
       <c r="S19">
-        <v>7.832158155326932E-10</v>
+        <v>7.141348558893952E-11</v>
       </c>
       <c r="T19">
-        <v>3.271740127363995E-07</v>
+        <v>3.684226767615259E-08</v>
       </c>
       <c r="U19">
-        <v>0.02566646437630009</v>
+        <v>0.000336271503858337</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>0.0003111919961497615</v>
+        <v>0.002225502091981714</v>
       </c>
       <c r="B20">
-        <v>0.06338098458727322</v>
+        <v>0.6633579241612421</v>
       </c>
       <c r="C20">
-        <v>0.001256061425743024</v>
+        <v>0.03776600760779485</v>
       </c>
       <c r="D20">
-        <v>0.001785519627430043</v>
+        <v>0.04919996889354653</v>
       </c>
       <c r="E20">
-        <v>0.2284126538540599</v>
+        <v>3.719783795232499</v>
       </c>
       <c r="F20">
-        <v>0.01751781873063376</v>
+        <v>0.1626205619292443</v>
       </c>
       <c r="G20">
-        <v>7.111302556222774E-06</v>
+        <v>0.0003095745868465643</v>
       </c>
       <c r="H20">
-        <v>1.512078808214423E-06</v>
+        <v>3.676146042581313E-05</v>
       </c>
       <c r="I20">
-        <v>0.00726953046575206</v>
+        <v>0.02505042703973329</v>
       </c>
       <c r="J20">
-        <v>0.02462278264660207</v>
+        <v>0.6841580642188271</v>
       </c>
       <c r="K20">
-        <v>0.001004904558531991</v>
+        <v>0.06256018036954447</v>
       </c>
       <c r="L20">
-        <v>0.002203196399511323</v>
+        <v>0.03526745641596953</v>
       </c>
       <c r="M20">
-        <v>0.001078804860038357</v>
+        <v>0.001041098870251405</v>
       </c>
       <c r="N20">
-        <v>1.938158398598048E-08</v>
+        <v>2.164227930519274E-07</v>
       </c>
       <c r="O20">
-        <v>0.0001242060218188756</v>
+        <v>0.001568722507781096</v>
       </c>
       <c r="P20">
-        <v>0.0006545212109419823</v>
+        <v>0.001954581797856193</v>
       </c>
       <c r="Q20">
-        <v>0.0006688046468532213</v>
+        <v>0.002013852645324543</v>
       </c>
       <c r="R20">
-        <v>0.0001315162025420402</v>
+        <v>0.004526912662704346</v>
       </c>
       <c r="S20">
-        <v>3.577216147293989E-10</v>
+        <v>3.183342921786853E-09</v>
       </c>
       <c r="T20">
-        <v>1.675700211187159E-07</v>
+        <v>1.853389103132994E-06</v>
       </c>
       <c r="U20">
-        <v>0.007185428990547761</v>
+        <v>0.04205393711153678</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>0.003211433251915275</v>
+        <v>0.0002840855617257874</v>
       </c>
       <c r="B21">
-        <v>2.182686027637393</v>
+        <v>0.1941857134275276</v>
       </c>
       <c r="C21">
-        <v>0.04087487210664682</v>
+        <v>0.005273320536902527</v>
       </c>
       <c r="D21">
-        <v>0.05159469984481234</v>
+        <v>0.008911897575257753</v>
       </c>
       <c r="E21">
-        <v>7.351983738297398</v>
+        <v>3.646842363511078</v>
       </c>
       <c r="F21">
-        <v>0.2589782437647937</v>
+        <v>0.06090754587985063</v>
       </c>
       <c r="G21">
-        <v>0.0005037090559078802</v>
+        <v>1.904772659316411E-05</v>
       </c>
       <c r="H21">
-        <v>-0.002462599941708993</v>
+        <v>5.182440330422094E-06</v>
       </c>
       <c r="I21">
-        <v>0.02425252832053517</v>
+        <v>0.002546036304929783</v>
       </c>
       <c r="J21">
-        <v>2.397394009516906</v>
+        <v>0.1602094900535068</v>
       </c>
       <c r="K21">
-        <v>0.05817103554624409</v>
+        <v>0.0008264981593124942</v>
       </c>
       <c r="L21">
-        <v>2.002549866448839</v>
+        <v>0.007829168632066518</v>
       </c>
       <c r="M21">
-        <v>0.001342251397454445</v>
+        <v>0.0008259585459712746</v>
       </c>
       <c r="N21">
-        <v>3.000385312227038E-07</v>
+        <v>8.549886560145358E-08</v>
       </c>
       <c r="O21">
-        <v>0.002814345994314785</v>
+        <v>0.0001606574439569764</v>
       </c>
       <c r="P21">
-        <v>0.004199702844566218</v>
+        <v>0.0003520111285211395</v>
       </c>
       <c r="Q21">
-        <v>0.004308237711478336</v>
+        <v>0.0003932514901091209</v>
       </c>
       <c r="R21">
-        <v>0.06643524726671297</v>
+        <v>0.0002821605887160015</v>
       </c>
       <c r="S21">
-        <v>2.555756955868541E-08</v>
+        <v>7.832158155903398E-10</v>
       </c>
       <c r="T21">
-        <v>4.57396973789693E-06</v>
+        <v>3.271740127730737E-07</v>
       </c>
       <c r="U21">
-        <v>0.08608849814230052</v>
+        <v>0.02566646437671143</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22">
-        <v>0</v>
+        <v>0.0003111919961497615</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.06338098458727322</v>
       </c>
       <c r="C22">
-        <v>3.398999975751733E-07</v>
+        <v>0.001256061425743024</v>
       </c>
       <c r="D22">
-        <v>1.129599935331709E-06</v>
+        <v>0.001785519627430043</v>
       </c>
       <c r="E22">
-        <v>0.0002077599839442506</v>
+        <v>0.2284126538540599</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.01751781873063376</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>7.111302556222774E-06</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.512078808214423E-06</v>
       </c>
       <c r="I22">
-        <v>2.827999789014463E-05</v>
+        <v>0.00726953046575206</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02462278264660207</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.001004904558531991</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.002203196399511323</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.001078804860038357</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.938158398598048E-08</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.0001242060218188756</v>
       </c>
       <c r="P22">
-        <v>0.0003574599974417567</v>
+        <v>0.0006545212109419823</v>
       </c>
       <c r="Q22">
-        <v>0.0005781999816164141</v>
+        <v>0.0006688046468532213</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>0.0001315162025420402</v>
       </c>
       <c r="S22">
-        <v>7.44027197584704E-11</v>
+        <v>3.577216147293989E-10</v>
       </c>
       <c r="T22">
-        <v>4.189999694031545E-10</v>
+        <v>1.675700211187159E-07</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>0.007185428990547761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23">
+        <v>0.003211433251915275</v>
+      </c>
+      <c r="B23">
+        <v>2.182686027637393</v>
+      </c>
+      <c r="C23">
+        <v>0.04087487210664682</v>
+      </c>
+      <c r="D23">
+        <v>0.05159469984481234</v>
+      </c>
+      <c r="E23">
+        <v>7.351983738297398</v>
+      </c>
+      <c r="F23">
+        <v>0.2589782437647937</v>
+      </c>
+      <c r="G23">
+        <v>0.0005037090559078802</v>
+      </c>
+      <c r="H23">
+        <v>-0.002462599941708993</v>
+      </c>
+      <c r="I23">
+        <v>0.02425252832053517</v>
+      </c>
+      <c r="J23">
+        <v>2.397394009516906</v>
+      </c>
+      <c r="K23">
+        <v>0.05817103554624409</v>
+      </c>
+      <c r="L23">
+        <v>2.002549866448839</v>
+      </c>
+      <c r="M23">
+        <v>0.001342251397454445</v>
+      </c>
+      <c r="N23">
+        <v>3.000385312227038E-07</v>
+      </c>
+      <c r="O23">
+        <v>0.002814345994314785</v>
+      </c>
+      <c r="P23">
+        <v>0.004199702844566218</v>
+      </c>
+      <c r="Q23">
+        <v>0.004308237711478336</v>
+      </c>
+      <c r="R23">
+        <v>0.06643524726671297</v>
+      </c>
+      <c r="S23">
+        <v>2.555756955868541E-08</v>
+      </c>
+      <c r="T23">
+        <v>4.57396973789693E-06</v>
+      </c>
+      <c r="U23">
+        <v>0.08608849814230052</v>
       </c>
     </row>
   </sheetData>

--- a/Brighway/Results/Ananas - CONSQ_recipe_unq.xlsx
+++ b/Brighway/Results/Ananas - CONSQ_recipe_unq.xlsx
@@ -507,67 +507,67 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>-0.0002036580944324816</v>
+        <v>0.0003736670231590213</v>
       </c>
       <c r="B2">
-        <v>-3.03860379158778</v>
+        <v>0.03668209629068931</v>
       </c>
       <c r="C2">
-        <v>-0.158562862399611</v>
+        <v>0.01735694911602075</v>
       </c>
       <c r="D2">
-        <v>-0.2295784818484649</v>
+        <v>0.02142888671354673</v>
       </c>
       <c r="E2">
-        <v>-8.828092784836333</v>
+        <v>1.087724673726994</v>
       </c>
       <c r="F2">
-        <v>-0.01102871272359567</v>
+        <v>0.008745847180043464</v>
       </c>
       <c r="G2">
-        <v>-4.700623400836381E-06</v>
+        <v>1.429857804019188E-05</v>
       </c>
       <c r="H2">
-        <v>-4.725445040508107E-06</v>
+        <v>1.527606176550902E-06</v>
       </c>
       <c r="I2">
-        <v>-0.007043862153231701</v>
+        <v>0.005329533745339361</v>
       </c>
       <c r="J2">
-        <v>-1.913075139828851</v>
+        <v>0.1728108976689471</v>
       </c>
       <c r="K2">
-        <v>-2.863318232608441E-05</v>
+        <v>8.878999152169023E-05</v>
       </c>
       <c r="L2">
-        <v>0.000692648549182994</v>
+        <v>0.1748642708287848</v>
       </c>
       <c r="M2">
-        <v>-0.0002833098994483963</v>
+        <v>0.0004609133823232034</v>
       </c>
       <c r="N2">
-        <v>-2.358692474438168E-07</v>
+        <v>1.678931466963714E-07</v>
       </c>
       <c r="O2">
-        <v>-7.002033470975084E-05</v>
+        <v>0.0001317687004876972</v>
       </c>
       <c r="P2">
-        <v>-0.0004926923049738186</v>
+        <v>0.0004362982524313201</v>
       </c>
       <c r="Q2">
-        <v>-0.0004978085136901718</v>
+        <v>0.0004458788720433079</v>
       </c>
       <c r="R2">
-        <v>-0.001299525934825169</v>
+        <v>0.0003881229381915101</v>
       </c>
       <c r="S2">
-        <v>-8.847708585665492E-09</v>
+        <v>1.826233140672326E-09</v>
       </c>
       <c r="T2">
-        <v>-3.327072149998979E-06</v>
+        <v>1.753461063791952E-07</v>
       </c>
       <c r="U2">
-        <v>-0.003800327442201475</v>
+        <v>0.002905565989383285</v>
       </c>
     </row>
     <row r="3" spans="1:21">

--- a/Brighway/Results/Ananas - CONSQ_recipe_unq.xlsx
+++ b/Brighway/Results/Ananas - CONSQ_recipe_unq.xlsx
@@ -507,67 +507,67 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0003736670231590213</v>
+        <v>-0.0002036580944324816</v>
       </c>
       <c r="B2">
-        <v>0.03668209629068931</v>
+        <v>-3.03860379158778</v>
       </c>
       <c r="C2">
-        <v>0.01735694911602075</v>
+        <v>-0.158562862399611</v>
       </c>
       <c r="D2">
-        <v>0.02142888671354673</v>
+        <v>-0.2295784818484649</v>
       </c>
       <c r="E2">
-        <v>1.087724673726994</v>
+        <v>-8.828092784836333</v>
       </c>
       <c r="F2">
-        <v>0.008745847180043464</v>
+        <v>-0.01102871272359567</v>
       </c>
       <c r="G2">
-        <v>1.429857804019188E-05</v>
+        <v>-4.700623400836381E-06</v>
       </c>
       <c r="H2">
-        <v>1.527606176550902E-06</v>
+        <v>-4.725445040508107E-06</v>
       </c>
       <c r="I2">
-        <v>0.005329533745339361</v>
+        <v>-0.007043862153231701</v>
       </c>
       <c r="J2">
-        <v>0.1728108976689471</v>
+        <v>-1.913075139828851</v>
       </c>
       <c r="K2">
-        <v>8.878999152169023E-05</v>
+        <v>-2.863318232608441E-05</v>
       </c>
       <c r="L2">
-        <v>0.1748642708287848</v>
+        <v>0.000692648549182994</v>
       </c>
       <c r="M2">
-        <v>0.0004609133823232034</v>
+        <v>-0.0002833098994483963</v>
       </c>
       <c r="N2">
-        <v>1.678931466963714E-07</v>
+        <v>-2.358692474438168E-07</v>
       </c>
       <c r="O2">
-        <v>0.0001317687004876972</v>
+        <v>-7.002033470975084E-05</v>
       </c>
       <c r="P2">
-        <v>0.0004362982524313201</v>
+        <v>-0.0004926923049738186</v>
       </c>
       <c r="Q2">
-        <v>0.0004458788720433079</v>
+        <v>-0.0004978085136901718</v>
       </c>
       <c r="R2">
-        <v>0.0003881229381915101</v>
+        <v>-0.001299525934825169</v>
       </c>
       <c r="S2">
-        <v>1.826233140672326E-09</v>
+        <v>-8.847708585665492E-09</v>
       </c>
       <c r="T2">
-        <v>1.753461063791952E-07</v>
+        <v>-3.327072149998979E-06</v>
       </c>
       <c r="U2">
-        <v>0.002905565989383285</v>
+        <v>-0.003800327442201475</v>
       </c>
     </row>
     <row r="3" spans="1:21">

--- a/Brighway/Results/Ananas - CONSQ_recipe_unq.xlsx
+++ b/Brighway/Results/Ananas - CONSQ_recipe_unq.xlsx
@@ -637,457 +637,457 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>-0.007803120540073037</v>
+        <v>-0.007803120539022497</v>
       </c>
       <c r="B4">
-        <v>-0.667442551654442</v>
+        <v>-0.6674425515556814</v>
       </c>
       <c r="C4">
-        <v>-0.2031457890131019</v>
+        <v>-0.2031457889916423</v>
       </c>
       <c r="D4">
-        <v>-0.2795149360719562</v>
+        <v>-0.2795149360420275</v>
       </c>
       <c r="E4">
-        <v>-62.56950897186328</v>
+        <v>-62.56950896486324</v>
       </c>
       <c r="F4">
-        <v>-0.1282994870837438</v>
+        <v>-0.1282994870572037</v>
       </c>
       <c r="G4">
-        <v>-0.0003940424676090285</v>
+        <v>-0.0003940424675642468</v>
       </c>
       <c r="H4">
-        <v>-8.312370673123654E-06</v>
+        <v>-8.312370669069797E-06</v>
       </c>
       <c r="I4">
-        <v>-0.06284751061913493</v>
+        <v>-0.06284751060886164</v>
       </c>
       <c r="J4">
-        <v>-5.694933515468476</v>
+        <v>-5.694933514808644</v>
       </c>
       <c r="K4">
-        <v>-0.02473607662444559</v>
+        <v>-0.02473607662287651</v>
       </c>
       <c r="L4">
-        <v>-0.1370619523083692</v>
+        <v>-0.1370619522835636</v>
       </c>
       <c r="M4">
-        <v>0.02446016585311413</v>
+        <v>0.02446016585038492</v>
       </c>
       <c r="N4">
-        <v>-3.732061366235776E-07</v>
+        <v>-3.732061365843118E-07</v>
       </c>
       <c r="O4">
-        <v>-0.002545297854395287</v>
+        <v>-0.002545297854045598</v>
       </c>
       <c r="P4">
-        <v>-0.002365694477574821</v>
+        <v>-0.002365694477125062</v>
       </c>
       <c r="Q4">
-        <v>-0.002460076972448288</v>
+        <v>-0.002460076971975715</v>
       </c>
       <c r="R4">
-        <v>-0.001661619591017762</v>
+        <v>-0.00166161959066584</v>
       </c>
       <c r="S4">
-        <v>-6.205158574510774E-09</v>
+        <v>-6.20515857360244E-09</v>
       </c>
       <c r="T4">
-        <v>-3.730284794491225E-06</v>
+        <v>-3.730284793994274E-06</v>
       </c>
       <c r="U4">
-        <v>-0.0258337078560841</v>
+        <v>-0.02583370784830177</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.007834814363991858</v>
+        <v>0.007834814378425944</v>
       </c>
       <c r="B5">
-        <v>3.3113404162942</v>
+        <v>3.311340417763174</v>
       </c>
       <c r="C5">
-        <v>0.1868247529386197</v>
+        <v>0.186824753309369</v>
       </c>
       <c r="D5">
-        <v>0.2435841894888461</v>
+        <v>0.2435841899960184</v>
       </c>
       <c r="E5">
-        <v>8.932729342991314</v>
+        <v>8.932729440021165</v>
       </c>
       <c r="F5">
-        <v>0.8123056340267264</v>
+        <v>0.81230563436208</v>
       </c>
       <c r="G5">
-        <v>0.001638525982090762</v>
+        <v>0.001638525982909486</v>
       </c>
       <c r="H5">
-        <v>0.0002723741844269716</v>
+        <v>0.0002723741844660015</v>
       </c>
       <c r="I5">
-        <v>0.1539561371648972</v>
+        <v>0.1539561373684054</v>
       </c>
       <c r="J5">
-        <v>3.772733979920112</v>
+        <v>3.772733989736269</v>
       </c>
       <c r="K5">
-        <v>0.2477194250544559</v>
+        <v>0.2477194250693516</v>
       </c>
       <c r="L5">
-        <v>0.3893599369269052</v>
+        <v>0.3893599371880613</v>
       </c>
       <c r="M5">
-        <v>0.007111512884132403</v>
+        <v>0.007111512879448924</v>
       </c>
       <c r="N5">
-        <v>8.136901091988729E-07</v>
+        <v>8.136901097059004E-07</v>
       </c>
       <c r="O5">
-        <v>0.004318540964328132</v>
+        <v>0.004318540969377149</v>
       </c>
       <c r="P5">
-        <v>0.00469122746999739</v>
+        <v>0.004691227475588501</v>
       </c>
       <c r="Q5">
-        <v>0.005041277527100946</v>
+        <v>0.005041277532932409</v>
       </c>
       <c r="R5">
-        <v>0.07972412606277311</v>
+        <v>0.0797241260692409</v>
       </c>
       <c r="S5">
-        <v>1.639221748487162E-08</v>
+        <v>1.63922174970819E-08</v>
       </c>
       <c r="T5">
-        <v>7.342156684257659E-06</v>
+        <v>7.342156691724438E-06</v>
       </c>
       <c r="U5">
-        <v>0.2296180233699801</v>
+        <v>0.2296180234536949</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.08981716818007165</v>
+        <v>0.08981716815685087</v>
       </c>
       <c r="B6">
-        <v>20.67623747781835</v>
+        <v>20.67623747602101</v>
       </c>
       <c r="C6">
-        <v>0.491929864461956</v>
+        <v>0.4919298638739831</v>
       </c>
       <c r="D6">
-        <v>0.6888600934775068</v>
+        <v>0.6888600926657997</v>
       </c>
       <c r="E6">
-        <v>17.46934345569751</v>
+        <v>17.46934327258911</v>
       </c>
       <c r="F6">
-        <v>4.469172440606628</v>
+        <v>4.469172440204207</v>
       </c>
       <c r="G6">
-        <v>0.006761205929714056</v>
+        <v>0.006761205928517595</v>
       </c>
       <c r="H6">
-        <v>0.0004877493696795942</v>
+        <v>0.0004877493696262755</v>
       </c>
       <c r="I6">
-        <v>4.028007997451557</v>
+        <v>4.028007997132164</v>
       </c>
       <c r="J6">
-        <v>17.21567180371862</v>
+        <v>17.21567178713087</v>
       </c>
       <c r="K6">
-        <v>0.1093007506672858</v>
+        <v>0.1093007506349852</v>
       </c>
       <c r="L6">
-        <v>0.1981736486387005</v>
+        <v>0.1981736483066036</v>
       </c>
       <c r="M6">
-        <v>0.2522931465863583</v>
+        <v>0.2522931466395931</v>
       </c>
       <c r="N6">
-        <v>3.887160982898399E-06</v>
+        <v>3.887160982071901E-06</v>
       </c>
       <c r="O6">
-        <v>0.0405665628244675</v>
+        <v>0.04056656281657471</v>
       </c>
       <c r="P6">
-        <v>0.05319574648405823</v>
+        <v>0.05319574647628068</v>
       </c>
       <c r="Q6">
-        <v>0.05450810978357133</v>
+        <v>0.05450810977553145</v>
       </c>
       <c r="R6">
-        <v>0.1170714401200927</v>
+        <v>0.1170714401130134</v>
       </c>
       <c r="S6">
-        <v>9.088479533721491E-08</v>
+        <v>9.088479531989031E-08</v>
       </c>
       <c r="T6">
-        <v>6.228169800038466E-05</v>
+        <v>6.228169798889712E-05</v>
       </c>
       <c r="U6">
-        <v>0.8057023245039523</v>
+        <v>0.8057023244176776</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.005547151661112846</v>
+        <v>0.00554715166111263</v>
       </c>
       <c r="B7">
-        <v>3.763432984904109</v>
+        <v>3.763432984904078</v>
       </c>
       <c r="C7">
-        <v>0.09740939190074178</v>
+        <v>0.09740939190069642</v>
       </c>
       <c r="D7">
-        <v>0.1104482400318298</v>
+        <v>0.1104482400317786</v>
       </c>
       <c r="E7">
-        <v>13.55125960691784</v>
+        <v>13.55125960693445</v>
       </c>
       <c r="F7">
-        <v>0.1415383711572792</v>
+        <v>0.141538371157277</v>
       </c>
       <c r="G7">
-        <v>-0.000275732749005424</v>
+        <v>-0.0002757327490054263</v>
       </c>
       <c r="H7">
-        <v>0.001594386446832166</v>
+        <v>0.001594386446832169</v>
       </c>
       <c r="I7">
-        <v>0.01637544614566878</v>
+        <v>0.01637544614566682</v>
       </c>
       <c r="J7">
-        <v>0.3626607533531527</v>
+        <v>0.3626607533534709</v>
       </c>
       <c r="K7">
-        <v>0.01328024031270713</v>
+        <v>0.01328024031276482</v>
       </c>
       <c r="L7">
-        <v>2.019065205418008</v>
+        <v>2.019065205414861</v>
       </c>
       <c r="M7">
-        <v>0.008202196909959582</v>
+        <v>0.008202196909929337</v>
       </c>
       <c r="N7">
-        <v>-2.332935281980523E-06</v>
+        <v>-2.332935281981216E-06</v>
       </c>
       <c r="O7">
-        <v>0.002415047450646817</v>
+        <v>0.002415047450646801</v>
       </c>
       <c r="P7">
-        <v>0.004440844837515875</v>
+        <v>0.004440844837515913</v>
       </c>
       <c r="Q7">
-        <v>0.004531687334618166</v>
+        <v>0.004531687334618247</v>
       </c>
       <c r="R7">
-        <v>0.006604942880047855</v>
+        <v>0.006604942880048347</v>
       </c>
       <c r="S7">
-        <v>3.025359920819179E-08</v>
+        <v>3.025359920816389E-08</v>
       </c>
       <c r="T7">
-        <v>5.164659832368983E-06</v>
+        <v>5.164659832369011E-06</v>
       </c>
       <c r="U7">
-        <v>0.02342198376458953</v>
+        <v>0.02342198376458202</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.08981716818007165</v>
+        <v>0.08981716815685087</v>
       </c>
       <c r="B8">
-        <v>20.67623747781835</v>
+        <v>20.67623747602101</v>
       </c>
       <c r="C8">
-        <v>0.491929864461956</v>
+        <v>0.4919298638739831</v>
       </c>
       <c r="D8">
-        <v>0.6888600934775068</v>
+        <v>0.6888600926657997</v>
       </c>
       <c r="E8">
-        <v>17.46934345569751</v>
+        <v>17.46934327258911</v>
       </c>
       <c r="F8">
-        <v>4.469172440606628</v>
+        <v>4.469172440204207</v>
       </c>
       <c r="G8">
-        <v>0.006761205929714056</v>
+        <v>0.006761205928517595</v>
       </c>
       <c r="H8">
-        <v>0.0004877493696795942</v>
+        <v>0.0004877493696262755</v>
       </c>
       <c r="I8">
-        <v>4.028007997451557</v>
+        <v>4.028007997132164</v>
       </c>
       <c r="J8">
-        <v>17.21567180371862</v>
+        <v>17.21567178713087</v>
       </c>
       <c r="K8">
-        <v>0.1093007506672858</v>
+        <v>0.1093007506349852</v>
       </c>
       <c r="L8">
-        <v>0.1981736486387005</v>
+        <v>0.1981736483066036</v>
       </c>
       <c r="M8">
-        <v>0.2522931465863583</v>
+        <v>0.2522931466395931</v>
       </c>
       <c r="N8">
-        <v>3.887160982898399E-06</v>
+        <v>3.887160982071901E-06</v>
       </c>
       <c r="O8">
-        <v>0.0405665628244675</v>
+        <v>0.04056656281657471</v>
       </c>
       <c r="P8">
-        <v>0.05319574648405823</v>
+        <v>0.05319574647628068</v>
       </c>
       <c r="Q8">
-        <v>0.05450810978357133</v>
+        <v>0.05450810977553145</v>
       </c>
       <c r="R8">
-        <v>0.1170714401200927</v>
+        <v>0.1170714401130134</v>
       </c>
       <c r="S8">
-        <v>9.088479533721491E-08</v>
+        <v>9.088479531989031E-08</v>
       </c>
       <c r="T8">
-        <v>6.228169800038466E-05</v>
+        <v>6.228169798889712E-05</v>
       </c>
       <c r="U8">
-        <v>0.8057023245039523</v>
+        <v>0.8057023244176776</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.002659737824694092</v>
+        <v>0.002659737824694098</v>
       </c>
       <c r="B9">
-        <v>2.604272551001702</v>
+        <v>2.604272551001709</v>
       </c>
       <c r="C9">
-        <v>0.1108223959880667</v>
+        <v>0.110822395988063</v>
       </c>
       <c r="D9">
-        <v>0.1350916962557714</v>
+        <v>0.1350916962557665</v>
       </c>
       <c r="E9">
-        <v>7.766851187289582</v>
+        <v>7.766851187286672</v>
       </c>
       <c r="F9">
-        <v>0.06950157301937068</v>
+        <v>0.06950157301937135</v>
       </c>
       <c r="G9">
-        <v>5.531609900574248E-05</v>
+        <v>5.53160990057432E-05</v>
       </c>
       <c r="H9">
-        <v>0.0001811265966104613</v>
+        <v>0.0001811265966104616</v>
       </c>
       <c r="I9">
-        <v>0.03211676215036113</v>
+        <v>0.03211676215036172</v>
       </c>
       <c r="J9">
-        <v>0.9984957402580681</v>
+        <v>0.9984957402580362</v>
       </c>
       <c r="K9">
-        <v>0.0013695442037197</v>
+        <v>0.001369544203734213</v>
       </c>
       <c r="L9">
-        <v>1.119773469300768</v>
+        <v>1.119773469300637</v>
       </c>
       <c r="M9">
-        <v>0.00308144059593396</v>
+        <v>0.003081440595949351</v>
       </c>
       <c r="N9">
-        <v>6.185581060611393E-07</v>
+        <v>6.185581060611675E-07</v>
       </c>
       <c r="O9">
-        <v>0.0009940752983490242</v>
+        <v>0.0009940752983490099</v>
       </c>
       <c r="P9">
-        <v>0.002783704052595887</v>
+        <v>0.002783704052595574</v>
       </c>
       <c r="Q9">
-        <v>0.002846241555188386</v>
+        <v>0.00284624155518787</v>
       </c>
       <c r="R9">
-        <v>0.002923296350302118</v>
+        <v>0.002923296350301879</v>
       </c>
       <c r="S9">
-        <v>1.836915669036144E-08</v>
+        <v>1.83691566903602E-08</v>
       </c>
       <c r="T9">
-        <v>3.385349297184192E-06</v>
+        <v>3.385349297184184E-06</v>
       </c>
       <c r="U9">
-        <v>0.02054473035326612</v>
+        <v>0.02054473035326988</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>-0.0008140105667737872</v>
+        <v>-0.0008140105667905474</v>
       </c>
       <c r="B10">
-        <v>-0.9059478797134367</v>
+        <v>-0.9059478797170286</v>
       </c>
       <c r="C10">
-        <v>-0.01177011589741017</v>
+        <v>-0.01177011589788795</v>
       </c>
       <c r="D10">
-        <v>-0.01563033822883744</v>
+        <v>-0.01563033822948084</v>
       </c>
       <c r="E10">
-        <v>0.7243131859782147</v>
+        <v>0.7243131858922275</v>
       </c>
       <c r="F10">
-        <v>0.0170567528303007</v>
+        <v>0.01705675282948702</v>
       </c>
       <c r="G10">
-        <v>-2.052769162627538E-05</v>
+        <v>-2.052769162769128E-05</v>
       </c>
       <c r="H10">
-        <v>-0.0002283819099301321</v>
+        <v>-0.0002283819099302574</v>
       </c>
       <c r="I10">
-        <v>-0.001320369908966877</v>
+        <v>-0.001320369909246025</v>
       </c>
       <c r="J10">
-        <v>-0.2273224528384116</v>
+        <v>-0.2273224528497621</v>
       </c>
       <c r="K10">
-        <v>0.001182082323325132</v>
+        <v>0.001182082323298213</v>
       </c>
       <c r="L10">
-        <v>0.2007597093015801</v>
+        <v>0.200759709300968</v>
       </c>
       <c r="M10">
-        <v>-0.0004241615455990826</v>
+        <v>-0.0004241615453964274</v>
       </c>
       <c r="N10">
-        <v>-1.152204297737303E-05</v>
+        <v>-1.152204297737415E-05</v>
       </c>
       <c r="O10">
-        <v>-0.0002738400910089898</v>
+        <v>-0.000273840091016446</v>
       </c>
       <c r="P10">
-        <v>-0.002408449961296285</v>
+        <v>-0.00240844996130848</v>
       </c>
       <c r="Q10">
-        <v>-0.002350457192897817</v>
+        <v>-0.002350457192910666</v>
       </c>
       <c r="R10">
-        <v>-0.001859160794608752</v>
+        <v>-0.001859160794622968</v>
       </c>
       <c r="S10">
-        <v>-1.247454630708745E-09</v>
+        <v>-1.247454630731776E-09</v>
       </c>
       <c r="T10">
-        <v>-1.082113339298524E-06</v>
+        <v>-1.082113339310101E-06</v>
       </c>
       <c r="U10">
-        <v>0.01161362674629451</v>
+        <v>0.01161362674611368</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1482,67 +1482,67 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0003009920795236056</v>
+        <v>-0.0003009920786992869</v>
       </c>
       <c r="B17">
-        <v>-2.398559767789619</v>
+        <v>-2.398559767702189</v>
       </c>
       <c r="C17">
-        <v>-0.1196209910903292</v>
+        <v>-0.1196209910725712</v>
       </c>
       <c r="D17">
-        <v>-0.1592720009610597</v>
+        <v>-0.1592720009364987</v>
       </c>
       <c r="E17">
-        <v>-1.253169218479956</v>
+        <v>-1.253169213322469</v>
       </c>
       <c r="F17">
-        <v>-0.01544141120319956</v>
+        <v>-0.01544141117979849</v>
       </c>
       <c r="G17">
-        <v>-1.152841490280084E-05</v>
+        <v>-1.152841486319926E-05</v>
       </c>
       <c r="H17">
-        <v>-2.169141975056817E-05</v>
+        <v>-2.169141974580355E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02133274640455269</v>
+        <v>-0.02133274639539683</v>
       </c>
       <c r="J17">
-        <v>-2.333581951518776</v>
+        <v>-2.333581951004467</v>
       </c>
       <c r="K17">
-        <v>0.000229737731916489</v>
+        <v>0.0002297377329102417</v>
       </c>
       <c r="L17">
-        <v>-0.0003537230923188818</v>
+        <v>-0.0003537230749374378</v>
       </c>
       <c r="M17">
-        <v>-0.0002821146651614474</v>
+        <v>-0.0002821146657858426</v>
       </c>
       <c r="N17">
-        <v>-1.034697470726069E-06</v>
+        <v>-1.034697470694628E-06</v>
       </c>
       <c r="O17">
-        <v>-0.0001109728187240172</v>
+        <v>-0.0001109728184374474</v>
       </c>
       <c r="P17">
-        <v>-0.0006372333931390468</v>
+        <v>-0.0006372333927617484</v>
       </c>
       <c r="Q17">
-        <v>-0.0006445037557744726</v>
+        <v>-0.0006445037553767781</v>
       </c>
       <c r="R17">
-        <v>-0.003509081715891561</v>
+        <v>-0.0035090817155464</v>
       </c>
       <c r="S17">
-        <v>-6.987854491252999E-09</v>
+        <v>-6.987854490527552E-09</v>
       </c>
       <c r="T17">
-        <v>-2.907752617954993E-06</v>
+        <v>-2.907752617545124E-06</v>
       </c>
       <c r="U17">
-        <v>-0.005221392282581211</v>
+        <v>-0.005221392275475909</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1612,67 +1612,67 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>0.0002032859811906685</v>
+        <v>0.0002379240779714307</v>
       </c>
       <c r="B19">
-        <v>0.005434024576688491</v>
+        <v>0.02083900053192397</v>
       </c>
       <c r="C19">
-        <v>-0.00150610712131786</v>
+        <v>-0.001150883833506877</v>
       </c>
       <c r="D19">
-        <v>-0.0002875759362433015</v>
+        <v>0.0001848456489383427</v>
       </c>
       <c r="E19">
-        <v>0.01380663863304512</v>
+        <v>0.05186736718844792</v>
       </c>
       <c r="F19">
-        <v>0.001161335949445189</v>
+        <v>0.01093194405924466</v>
       </c>
       <c r="G19">
-        <v>-2.792821996245288E-05</v>
+        <v>-2.444508856788043E-05</v>
       </c>
       <c r="H19">
-        <v>6.353976267706739E-05</v>
+        <v>6.40248999240226E-05</v>
       </c>
       <c r="I19">
-        <v>0.0001872310509039212</v>
+        <v>0.000594141073002534</v>
       </c>
       <c r="J19">
-        <v>0.01503426027182376</v>
+        <v>0.02320084012499424</v>
       </c>
       <c r="K19">
-        <v>0.0001661119386687741</v>
+        <v>0.0008576568790078584</v>
       </c>
       <c r="L19">
-        <v>-0.005214652010346094</v>
+        <v>-0.004605458188901557</v>
       </c>
       <c r="M19">
-        <v>1.453485098145005E-05</v>
+        <v>3.097504977008043E-05</v>
       </c>
       <c r="N19">
-        <v>8.914259243095994E-08</v>
+        <v>9.143949730010141E-08</v>
       </c>
       <c r="O19">
-        <v>2.433570383178462E-05</v>
+        <v>4.233760995338753E-05</v>
       </c>
       <c r="P19">
-        <v>0.0003923237872874417</v>
+        <v>0.0004246133694374642</v>
       </c>
       <c r="Q19">
-        <v>0.0006130408372486582</v>
+        <v>0.0006490604876696063</v>
       </c>
       <c r="R19">
-        <v>0.005419475575340746</v>
+        <v>0.0056614136267779</v>
       </c>
       <c r="S19">
-        <v>7.141348558893952E-11</v>
+        <v>1.350188773469107E-10</v>
       </c>
       <c r="T19">
-        <v>3.684226767615259E-08</v>
+        <v>6.623720236838776E-08</v>
       </c>
       <c r="U19">
-        <v>0.000336271503858337</v>
+        <v>0.004136242628190226</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1742,67 +1742,67 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>0.0002840855617257874</v>
+        <v>0.0002840855616661545</v>
       </c>
       <c r="B21">
-        <v>0.1941857134275276</v>
+        <v>0.1941857134217075</v>
       </c>
       <c r="C21">
-        <v>0.005273320536902527</v>
+        <v>0.005273320535389569</v>
       </c>
       <c r="D21">
-        <v>0.008911897575257753</v>
+        <v>0.008911897573183121</v>
       </c>
       <c r="E21">
-        <v>3.646842363511078</v>
+        <v>3.646842363099287</v>
       </c>
       <c r="F21">
-        <v>0.06090754587985063</v>
+        <v>0.06090754587856342</v>
       </c>
       <c r="G21">
-        <v>1.904772659316411E-05</v>
+        <v>1.904772658985722E-05</v>
       </c>
       <c r="H21">
-        <v>5.182440330422094E-06</v>
+        <v>5.182440330230239E-06</v>
       </c>
       <c r="I21">
-        <v>0.002546036304929783</v>
+        <v>0.002546036304112285</v>
       </c>
       <c r="J21">
-        <v>0.1602094900535068</v>
+        <v>0.1602094900127077</v>
       </c>
       <c r="K21">
-        <v>0.0008264981593124942</v>
+        <v>0.0008264981592534458</v>
       </c>
       <c r="L21">
-        <v>0.007829168632066518</v>
+        <v>0.007829168631914159</v>
       </c>
       <c r="M21">
-        <v>0.0008259585459712746</v>
+        <v>0.0008259585460840336</v>
       </c>
       <c r="N21">
-        <v>8.549886560145358E-08</v>
+        <v>8.549886559930361E-08</v>
       </c>
       <c r="O21">
-        <v>0.0001606574439569764</v>
+        <v>0.0001606574439362055</v>
       </c>
       <c r="P21">
-        <v>0.0003520111285211395</v>
+        <v>0.00035201112849899</v>
       </c>
       <c r="Q21">
-        <v>0.0003932514901091209</v>
+        <v>0.0003932514900861051</v>
       </c>
       <c r="R21">
-        <v>0.0002821605887160015</v>
+        <v>0.0002821605886914427</v>
       </c>
       <c r="S21">
-        <v>7.832158155903398E-10</v>
+        <v>7.832158155488968E-10</v>
       </c>
       <c r="T21">
-        <v>3.271740127730737E-07</v>
+        <v>3.271740127425401E-07</v>
       </c>
       <c r="U21">
-        <v>0.02566646437671143</v>
+        <v>0.02566646437642211</v>
       </c>
     </row>
     <row r="22" spans="1:21">

--- a/Brighway/Results/Ananas - CONSQ_recipe_unq.xlsx
+++ b/Brighway/Results/Ananas - CONSQ_recipe_unq.xlsx
@@ -507,67 +507,67 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>-0.0002036580944324816</v>
+        <v>0.0003736670231590213</v>
       </c>
       <c r="B2">
-        <v>-3.03860379158778</v>
+        <v>0.4197414960550948</v>
       </c>
       <c r="C2">
-        <v>-0.158562862399611</v>
+        <v>0.01735694911602075</v>
       </c>
       <c r="D2">
-        <v>-0.2295784818484649</v>
+        <v>0.02142888671354673</v>
       </c>
       <c r="E2">
-        <v>-8.828092784836333</v>
+        <v>1.087724673726994</v>
       </c>
       <c r="F2">
-        <v>-0.01102871272359567</v>
+        <v>0.008745847180043464</v>
       </c>
       <c r="G2">
-        <v>-4.700623400836381E-06</v>
+        <v>1.429857804019188E-05</v>
       </c>
       <c r="H2">
-        <v>-4.725445040508107E-06</v>
+        <v>1.527606176550902E-06</v>
       </c>
       <c r="I2">
-        <v>-0.007043862153231701</v>
+        <v>0.005329533745339361</v>
       </c>
       <c r="J2">
-        <v>-1.913075139828851</v>
+        <v>0.1728108976689471</v>
       </c>
       <c r="K2">
-        <v>-2.863318232608441E-05</v>
+        <v>8.878999152169023E-05</v>
       </c>
       <c r="L2">
-        <v>0.000692648549182994</v>
+        <v>0.1748642708287848</v>
       </c>
       <c r="M2">
-        <v>-0.0002833098994483963</v>
+        <v>0.0004609133823232034</v>
       </c>
       <c r="N2">
-        <v>-2.358692474438168E-07</v>
+        <v>1.678931466963714E-07</v>
       </c>
       <c r="O2">
-        <v>-7.002033470975084E-05</v>
+        <v>0.0001317687004876972</v>
       </c>
       <c r="P2">
-        <v>-0.0004926923049738186</v>
+        <v>0.0004362982524313201</v>
       </c>
       <c r="Q2">
-        <v>-0.0004978085136901718</v>
+        <v>0.0004458788720433079</v>
       </c>
       <c r="R2">
-        <v>-0.001299525934825169</v>
+        <v>0.0003881229381915101</v>
       </c>
       <c r="S2">
-        <v>-8.847708585665492E-09</v>
+        <v>2.898828723058864E-09</v>
       </c>
       <c r="T2">
-        <v>-3.327072149998979E-06</v>
+        <v>5.308252369986321E-07</v>
       </c>
       <c r="U2">
-        <v>-0.003800327442201475</v>
+        <v>0.002905565989383285</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1807,67 +1807,67 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22">
-        <v>0.0003111919961497615</v>
+        <v>0.0001987390714038411</v>
       </c>
       <c r="B22">
-        <v>0.06338098458727322</v>
+        <v>0.01647290085403625</v>
       </c>
       <c r="C22">
-        <v>0.001256061425743024</v>
+        <v>0.000237266737870855</v>
       </c>
       <c r="D22">
-        <v>0.001785519627430043</v>
+        <v>0.000372930629251724</v>
       </c>
       <c r="E22">
-        <v>0.2284126538540599</v>
+        <v>0.1010706005748854</v>
       </c>
       <c r="F22">
-        <v>0.01751781873063376</v>
+        <v>0.004679762090560555</v>
       </c>
       <c r="G22">
-        <v>7.111302556222774E-06</v>
+        <v>9.647173062369085E-07</v>
       </c>
       <c r="H22">
-        <v>1.512078808214423E-06</v>
+        <v>3.712469018505826E-07</v>
       </c>
       <c r="I22">
-        <v>0.00726953046575206</v>
+        <v>0.0009929662108154891</v>
       </c>
       <c r="J22">
-        <v>0.02462278264660207</v>
+        <v>0.005452343924482315</v>
       </c>
       <c r="K22">
-        <v>0.001004904558531991</v>
+        <v>0.0001450796238951138</v>
       </c>
       <c r="L22">
-        <v>0.002203196399511323</v>
+        <v>0.0002847321094696718</v>
       </c>
       <c r="M22">
-        <v>0.001078804860038357</v>
+        <v>0.0001673101742400157</v>
       </c>
       <c r="N22">
-        <v>1.938158398598048E-08</v>
+        <v>7.18925514940507E-09</v>
       </c>
       <c r="O22">
-        <v>0.0001242060218188756</v>
+        <v>6.630469968202905E-05</v>
       </c>
       <c r="P22">
-        <v>0.0006545212109419823</v>
+        <v>0.0002234007527847648</v>
       </c>
       <c r="Q22">
-        <v>0.0006688046468532213</v>
+        <v>0.0002271348884061887</v>
       </c>
       <c r="R22">
-        <v>0.0001315162025420402</v>
+        <v>2.011050217271342E-05</v>
       </c>
       <c r="S22">
-        <v>3.577216147293989E-10</v>
+        <v>1.220923295214276E-10</v>
       </c>
       <c r="T22">
-        <v>1.675700211187159E-07</v>
+        <v>6.173915591139755E-08</v>
       </c>
       <c r="U22">
-        <v>0.007185428990547761</v>
+        <v>0.00202418807566826</v>
       </c>
     </row>
     <row r="23" spans="1:21">

--- a/Brighway/Results/Ananas - CONSQ_recipe_unq.xlsx
+++ b/Brighway/Results/Ananas - CONSQ_recipe_unq.xlsx
@@ -16,67 +16,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'climate change', 'global warming potential (GWP1000)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'land use', 'agricultural land occupation (LOP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'water use', 'water consumption potential (WCP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: ecosystem quality', 'ecosystem quality')</t>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: human health', 'human health')</t>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: natural resources', 'natural resources')</t>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,1432 +507,1562 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0003736670231590213</v>
+        <v>0.0002036580936319892</v>
       </c>
       <c r="B2">
-        <v>0.4197414960550948</v>
+        <v>3.040814378042793</v>
       </c>
       <c r="C2">
-        <v>0.01735694911602075</v>
+        <v>0.1585628623862998</v>
       </c>
       <c r="D2">
-        <v>0.02142888671354673</v>
+        <v>0.2295784818296631</v>
       </c>
       <c r="E2">
-        <v>1.087724673726994</v>
+        <v>8.828092780111797</v>
       </c>
       <c r="F2">
-        <v>0.008745847180043464</v>
+        <v>0.01102871268123898</v>
       </c>
       <c r="G2">
-        <v>1.429857804019188E-05</v>
+        <v>4.700623375751376E-06</v>
       </c>
       <c r="H2">
-        <v>1.527606176550902E-06</v>
+        <v>4.725445036495818E-06</v>
       </c>
       <c r="I2">
-        <v>0.005329533745339361</v>
+        <v>0.00704386212243063</v>
       </c>
       <c r="J2">
-        <v>0.1728108976689471</v>
+        <v>1.913075139368878</v>
       </c>
       <c r="K2">
-        <v>8.878999152169023E-05</v>
+        <v>2.863317874877046E-05</v>
       </c>
       <c r="L2">
-        <v>0.1748642708287848</v>
+        <v>-0.0006926486111392838</v>
       </c>
       <c r="M2">
-        <v>0.0004609133823232034</v>
+        <v>0.0002833098986290551</v>
       </c>
       <c r="N2">
-        <v>1.678931466963714E-07</v>
+        <v>2.358692473651932E-07</v>
       </c>
       <c r="O2">
-        <v>0.0001317687004876972</v>
+        <v>7.002033425613262E-05</v>
       </c>
       <c r="P2">
-        <v>0.0004362982524313201</v>
+        <v>0.0004926923034393271</v>
       </c>
       <c r="Q2">
-        <v>0.0004458788720433079</v>
+        <v>0.0004978085121214044</v>
       </c>
       <c r="R2">
-        <v>0.0003881229381915101</v>
+        <v>0.001299525934939273</v>
       </c>
       <c r="S2">
-        <v>2.898828723058864E-09</v>
+        <v>8.8538983956067E-09</v>
       </c>
       <c r="T2">
-        <v>5.308252369986321E-07</v>
+        <v>3.329123548756306E-06</v>
       </c>
       <c r="U2">
-        <v>0.002905565989383285</v>
+        <v>0.003800327424985389</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>-0.00017345619172165</v>
+        <v>-0.0001734561910566592</v>
       </c>
       <c r="B3">
-        <v>-2.566525456676903</v>
+        <v>-2.568417787419234</v>
       </c>
       <c r="C3">
-        <v>-0.1339776005579687</v>
+        <v>-0.1339776005520901</v>
       </c>
       <c r="D3">
-        <v>-0.193967747615938</v>
+        <v>-0.1939677476075223</v>
       </c>
       <c r="E3">
-        <v>-7.457176032859258</v>
+        <v>-7.457176031468695</v>
       </c>
       <c r="F3">
-        <v>-0.009495873069086922</v>
+        <v>-0.009495873028869154</v>
       </c>
       <c r="G3">
-        <v>-4.302703609208053E-06</v>
+        <v>-4.302703579929848E-06</v>
       </c>
       <c r="H3">
-        <v>-4.005811048863398E-06</v>
+        <v>-4.005811044069143E-06</v>
       </c>
       <c r="I3">
-        <v>-0.005936573380294151</v>
+        <v>-0.00593657336933335</v>
       </c>
       <c r="J3">
-        <v>-1.616352149061313</v>
+        <v>-1.616352148864626</v>
       </c>
       <c r="K3">
-        <v>-1.813077981673655E-05</v>
+        <v>-1.813077782470869E-05</v>
       </c>
       <c r="L3">
-        <v>0.0005789276230788815</v>
+        <v>0.0005789277397657297</v>
       </c>
       <c r="M3">
-        <v>-0.0002663365792062879</v>
+        <v>-0.0002663365767750081</v>
       </c>
       <c r="N3">
-        <v>-1.992672712489317E-07</v>
+        <v>-1.99267271181673E-07</v>
       </c>
       <c r="O3">
-        <v>-6.111853799082551E-05</v>
+        <v>-6.111853759659282E-05</v>
       </c>
       <c r="P3">
-        <v>-0.000417806955047129</v>
+        <v>-0.0004178069535909674</v>
       </c>
       <c r="Q3">
-        <v>-0.000422341629654537</v>
+        <v>-0.0004223416281654395</v>
       </c>
       <c r="R3">
-        <v>-0.001257067179862633</v>
+        <v>-0.001257067179833927</v>
       </c>
       <c r="S3">
-        <v>-7.473997153501338E-09</v>
+        <v>-7.479295822729524E-09</v>
       </c>
       <c r="T3">
-        <v>-2.811845025891895E-06</v>
+        <v>-2.81360108719637E-06</v>
       </c>
       <c r="U3">
-        <v>-0.003260262429498836</v>
+        <v>-0.003260262413925337</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>-0.007803120539022497</v>
+        <v>-0.007803120543492219</v>
       </c>
       <c r="B4">
-        <v>-0.6674425515556814</v>
+        <v>-0.4747132908876602</v>
       </c>
       <c r="C4">
-        <v>-0.2031457889916423</v>
+        <v>-0.2031457904818532</v>
       </c>
       <c r="D4">
-        <v>-0.2795149360420275</v>
+        <v>-0.2795149379853892</v>
       </c>
       <c r="E4">
-        <v>-62.56950896486324</v>
+        <v>-62.56950922931315</v>
       </c>
       <c r="F4">
-        <v>-0.1282994870572037</v>
+        <v>-0.1282994854675889</v>
       </c>
       <c r="G4">
-        <v>-0.0003940424675642468</v>
+        <v>-0.0003940424690611912</v>
       </c>
       <c r="H4">
-        <v>-8.312370669069797E-06</v>
+        <v>-8.312370507302477E-06</v>
       </c>
       <c r="I4">
-        <v>-0.06284751060886164</v>
+        <v>-0.06284751171341732</v>
       </c>
       <c r="J4">
-        <v>-5.694933514808644</v>
+        <v>-5.694933541728213</v>
       </c>
       <c r="K4">
-        <v>-0.02473607662287651</v>
+        <v>-0.02473607659994495</v>
       </c>
       <c r="L4">
-        <v>-0.1370619522835636</v>
+        <v>-0.1370619741723914</v>
       </c>
       <c r="M4">
-        <v>0.02446016585038492</v>
+        <v>0.02446016589210522</v>
       </c>
       <c r="N4">
-        <v>-3.732061365843118E-07</v>
+        <v>-3.732061364503772E-07</v>
       </c>
       <c r="O4">
-        <v>-0.002545297854045598</v>
+        <v>-0.002545297849929858</v>
       </c>
       <c r="P4">
-        <v>-0.002365694477125062</v>
+        <v>-0.002365694432260184</v>
       </c>
       <c r="Q4">
-        <v>-0.002460076971975715</v>
+        <v>-0.002460076924962887</v>
       </c>
       <c r="R4">
-        <v>-0.00166161959066584</v>
+        <v>-0.001661619612798502</v>
       </c>
       <c r="S4">
-        <v>-6.20515857360244E-09</v>
+        <v>-5.665502114527476E-09</v>
       </c>
       <c r="T4">
-        <v>-3.730284793994274E-06</v>
+        <v>-3.551426233361721E-06</v>
       </c>
       <c r="U4">
-        <v>-0.02583370784830177</v>
+        <v>-0.02583370712519218</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.007834814378425944</v>
+        <v>0.007834814189941464</v>
       </c>
       <c r="B5">
-        <v>3.311340417763174</v>
+        <v>2.681058122140963</v>
       </c>
       <c r="C5">
-        <v>0.186824753309369</v>
+        <v>0.1868247485758157</v>
       </c>
       <c r="D5">
-        <v>0.2435841899960184</v>
+        <v>0.2435841836156049</v>
       </c>
       <c r="E5">
-        <v>8.932729440021165</v>
+        <v>8.932728653052946</v>
       </c>
       <c r="F5">
-        <v>0.81230563436208</v>
+        <v>0.8123056269769295</v>
       </c>
       <c r="G5">
-        <v>0.001638525982909486</v>
+        <v>0.001638525972497617</v>
       </c>
       <c r="H5">
-        <v>0.0002723741844660015</v>
+        <v>0.0002723741829164241</v>
       </c>
       <c r="I5">
-        <v>0.1539561373684054</v>
+        <v>0.1539561343406666</v>
       </c>
       <c r="J5">
-        <v>3.772733989736269</v>
+        <v>3.772733877837033</v>
       </c>
       <c r="K5">
-        <v>0.2477194250693516</v>
+        <v>0.2477194250138731</v>
       </c>
       <c r="L5">
-        <v>0.3893599371880613</v>
+        <v>0.3893594993299965</v>
       </c>
       <c r="M5">
-        <v>0.007111512879448924</v>
+        <v>0.007111512057102264</v>
       </c>
       <c r="N5">
-        <v>8.136901097059004E-07</v>
+        <v>8.136901026874337E-07</v>
       </c>
       <c r="O5">
-        <v>0.004318540969377149</v>
+        <v>0.004318540903621835</v>
       </c>
       <c r="P5">
-        <v>0.004691227475588501</v>
+        <v>0.004691227377541487</v>
       </c>
       <c r="Q5">
-        <v>0.005041277532932409</v>
+        <v>0.005041277427593496</v>
       </c>
       <c r="R5">
-        <v>0.0797241260692409</v>
+        <v>0.07972412593278691</v>
       </c>
       <c r="S5">
-        <v>1.63922174970819E-08</v>
+        <v>1.462737495269625E-08</v>
       </c>
       <c r="T5">
-        <v>7.342156691724438E-06</v>
+        <v>6.757167002246185E-06</v>
       </c>
       <c r="U5">
-        <v>0.2296180234536949</v>
+        <v>0.2296180210975412</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.08981716815685087</v>
+        <v>0.08981716768607161</v>
       </c>
       <c r="B6">
-        <v>20.67623747602101</v>
+        <v>20.59195216642062</v>
       </c>
       <c r="C6">
-        <v>0.4919298638739831</v>
+        <v>0.491929853987307</v>
       </c>
       <c r="D6">
-        <v>0.6888600926657997</v>
+        <v>0.6888600791726349</v>
       </c>
       <c r="E6">
-        <v>17.46934327258911</v>
+        <v>17.46934197084807</v>
       </c>
       <c r="F6">
-        <v>4.469172440204207</v>
+        <v>4.469172417779445</v>
       </c>
       <c r="G6">
-        <v>0.006761205928517595</v>
+        <v>0.006761205896825606</v>
       </c>
       <c r="H6">
-        <v>0.0004877493696262755</v>
+        <v>0.000487749364547905</v>
       </c>
       <c r="I6">
-        <v>4.028007997132164</v>
+        <v>4.028007989975019</v>
       </c>
       <c r="J6">
-        <v>17.21567178713087</v>
+        <v>17.21567153287704</v>
       </c>
       <c r="K6">
-        <v>0.1093007506349852</v>
+        <v>0.1093007498546544</v>
       </c>
       <c r="L6">
-        <v>0.1981736483066036</v>
+        <v>0.198173613360028</v>
       </c>
       <c r="M6">
-        <v>0.2522931466395931</v>
+        <v>0.2522931444589868</v>
       </c>
       <c r="N6">
-        <v>3.887160982071901E-06</v>
+        <v>3.887160964845662E-06</v>
       </c>
       <c r="O6">
-        <v>0.04056656281657471</v>
+        <v>0.04056656263099533</v>
       </c>
       <c r="P6">
-        <v>0.05319574647628068</v>
+        <v>0.05319574621555929</v>
       </c>
       <c r="Q6">
-        <v>0.05450810977553145</v>
+        <v>0.05450810949569417</v>
       </c>
       <c r="R6">
-        <v>0.1170714401130134</v>
+        <v>0.1170714397143872</v>
       </c>
       <c r="S6">
-        <v>9.088479531989031E-08</v>
+        <v>9.06487895203828E-08</v>
       </c>
       <c r="T6">
-        <v>6.228169798889712E-05</v>
+        <v>6.220344121222314E-05</v>
       </c>
       <c r="U6">
-        <v>0.8057023244176776</v>
+        <v>0.8057023176056095</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.00554715166111263</v>
+        <v>0.006959575378545871</v>
       </c>
       <c r="B7">
-        <v>3.763432984904078</v>
+        <v>0.6155804175518629</v>
       </c>
       <c r="C7">
-        <v>0.09740939190069642</v>
+        <v>0.2690751128851323</v>
       </c>
       <c r="D7">
-        <v>0.1104482400317786</v>
+        <v>0.3180249135112839</v>
       </c>
       <c r="E7">
-        <v>13.55125960693445</v>
+        <v>24.63806529332489</v>
       </c>
       <c r="F7">
-        <v>0.141538371157277</v>
+        <v>0.1593620639345465</v>
       </c>
       <c r="G7">
-        <v>-0.0002757327490054263</v>
+        <v>-0.0002195002473650866</v>
       </c>
       <c r="H7">
-        <v>0.001594386446832169</v>
+        <v>0.001596620083227975</v>
       </c>
       <c r="I7">
-        <v>0.01637544614566682</v>
+        <v>0.03259465594158376</v>
       </c>
       <c r="J7">
-        <v>0.3626607533534709</v>
+        <v>1.37942191553422</v>
       </c>
       <c r="K7">
-        <v>0.01328024031276482</v>
+        <v>0.01479104022877417</v>
       </c>
       <c r="L7">
-        <v>2.019065205414861</v>
+        <v>2.12327866264916</v>
       </c>
       <c r="M7">
-        <v>0.008202196909929337</v>
+        <v>0.003915591847826677</v>
       </c>
       <c r="N7">
-        <v>-2.332935281981216E-06</v>
+        <v>-2.205771317775329E-06</v>
       </c>
       <c r="O7">
-        <v>0.002415047450646801</v>
+        <v>0.002887217964893703</v>
       </c>
       <c r="P7">
-        <v>0.004440844837515913</v>
+        <v>0.004960198753201517</v>
       </c>
       <c r="Q7">
-        <v>0.004531687334618247</v>
+        <v>0.005064426686987399</v>
       </c>
       <c r="R7">
-        <v>0.006604942880048347</v>
+        <v>0.006986423824833532</v>
       </c>
       <c r="S7">
-        <v>3.025359920816389E-08</v>
+        <v>2.303650121443515E-08</v>
       </c>
       <c r="T7">
-        <v>5.164659832369011E-06</v>
+        <v>2.82695418153674E-06</v>
       </c>
       <c r="U7">
-        <v>0.02342198376458202</v>
+        <v>0.02732441811817164</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.08981716815685087</v>
+        <v>0.08981716768607161</v>
       </c>
       <c r="B8">
-        <v>20.67623747602101</v>
+        <v>20.59195216642062</v>
       </c>
       <c r="C8">
-        <v>0.4919298638739831</v>
+        <v>0.491929853987307</v>
       </c>
       <c r="D8">
-        <v>0.6888600926657997</v>
+        <v>0.6888600791726349</v>
       </c>
       <c r="E8">
-        <v>17.46934327258911</v>
+        <v>17.46934197084807</v>
       </c>
       <c r="F8">
-        <v>4.469172440204207</v>
+        <v>4.469172417779445</v>
       </c>
       <c r="G8">
-        <v>0.006761205928517595</v>
+        <v>0.006761205896825606</v>
       </c>
       <c r="H8">
-        <v>0.0004877493696262755</v>
+        <v>0.000487749364547905</v>
       </c>
       <c r="I8">
-        <v>4.028007997132164</v>
+        <v>4.028007989975019</v>
       </c>
       <c r="J8">
-        <v>17.21567178713087</v>
+        <v>17.21567153287704</v>
       </c>
       <c r="K8">
-        <v>0.1093007506349852</v>
+        <v>0.1093007498546544</v>
       </c>
       <c r="L8">
-        <v>0.1981736483066036</v>
+        <v>0.198173613360028</v>
       </c>
       <c r="M8">
-        <v>0.2522931466395931</v>
+        <v>0.2522931444589868</v>
       </c>
       <c r="N8">
-        <v>3.887160982071901E-06</v>
+        <v>3.887160964845662E-06</v>
       </c>
       <c r="O8">
-        <v>0.04056656281657471</v>
+        <v>0.04056656263099533</v>
       </c>
       <c r="P8">
-        <v>0.05319574647628068</v>
+        <v>0.05319574621555929</v>
       </c>
       <c r="Q8">
-        <v>0.05450810977553145</v>
+        <v>0.05450810949569417</v>
       </c>
       <c r="R8">
-        <v>0.1170714401130134</v>
+        <v>0.1170714397143872</v>
       </c>
       <c r="S8">
-        <v>9.088479531989031E-08</v>
+        <v>9.06487895203828E-08</v>
       </c>
       <c r="T8">
-        <v>6.228169798889712E-05</v>
+        <v>6.220344121222314E-05</v>
       </c>
       <c r="U8">
-        <v>0.8057023244176776</v>
+        <v>0.8057023176056095</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.002659737824694098</v>
+        <v>0.003473704528419616</v>
       </c>
       <c r="B9">
-        <v>2.604272551001709</v>
+        <v>0.3191780480590146</v>
       </c>
       <c r="C9">
-        <v>0.110822395988063</v>
+        <v>0.2097517925772821</v>
       </c>
       <c r="D9">
-        <v>0.1350916962557665</v>
+        <v>0.254716247866616</v>
       </c>
       <c r="E9">
-        <v>7.766851187286672</v>
+        <v>14.15607456032291</v>
       </c>
       <c r="F9">
-        <v>0.06950157301937135</v>
+        <v>0.07977320627304327</v>
       </c>
       <c r="G9">
-        <v>5.53160990057432E-05</v>
+        <v>8.772238287046771E-05</v>
       </c>
       <c r="H9">
-        <v>0.0001811265966104616</v>
+        <v>0.0001824138208188834</v>
       </c>
       <c r="I9">
-        <v>0.03211676215036172</v>
+        <v>0.04146374374649314</v>
       </c>
       <c r="J9">
-        <v>0.9984957402580362</v>
+        <v>1.584445823017781</v>
       </c>
       <c r="K9">
-        <v>0.001369544203734213</v>
+        <v>0.00224020363871562</v>
       </c>
       <c r="L9">
-        <v>1.119773469300637</v>
+        <v>1.179830812897153</v>
       </c>
       <c r="M9">
-        <v>0.003081440595949351</v>
+        <v>0.0006111122725838808</v>
       </c>
       <c r="N9">
-        <v>6.185581060611675E-07</v>
+        <v>6.918415367345104E-07</v>
       </c>
       <c r="O9">
-        <v>0.0009940752983490099</v>
+        <v>0.001266182820076872</v>
       </c>
       <c r="P9">
-        <v>0.002783704052595574</v>
+        <v>0.003083002926054097</v>
       </c>
       <c r="Q9">
-        <v>0.00284624155518787</v>
+        <v>0.003153254337782902</v>
       </c>
       <c r="R9">
-        <v>0.002923296350301879</v>
+        <v>0.00314314049353904</v>
       </c>
       <c r="S9">
-        <v>1.83691566903602E-08</v>
+        <v>1.289112941681282E-08</v>
       </c>
       <c r="T9">
-        <v>3.385349297184184E-06</v>
+        <v>1.60102220469449E-06</v>
       </c>
       <c r="U9">
-        <v>0.02054473035326988</v>
+        <v>0.02279366836549996</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>-0.0008140105667905474</v>
+        <v>0.0008140105547688922</v>
       </c>
       <c r="B10">
-        <v>-0.9059478797170286</v>
+        <v>0.6017902119477355</v>
       </c>
       <c r="C10">
-        <v>-0.01177011589788795</v>
+        <v>0.01177011555579783</v>
       </c>
       <c r="D10">
-        <v>-0.01563033822948084</v>
+        <v>0.01563033776808186</v>
       </c>
       <c r="E10">
-        <v>0.7243131858922275</v>
+        <v>-0.7243132572088845</v>
       </c>
       <c r="F10">
-        <v>0.01705675282948702</v>
+        <v>-0.01705675317961222</v>
       </c>
       <c r="G10">
-        <v>-2.052769162769128E-05</v>
+        <v>2.052769082563604E-05</v>
       </c>
       <c r="H10">
-        <v>-0.0002283819099302574</v>
+        <v>0.0002283819098666163</v>
       </c>
       <c r="I10">
-        <v>-0.001320369909246025</v>
+        <v>0.001320369673596554</v>
       </c>
       <c r="J10">
-        <v>-0.2273224528497621</v>
+        <v>0.2273224446677266</v>
       </c>
       <c r="K10">
-        <v>0.001182082323298213</v>
+        <v>-0.001182082319351233</v>
       </c>
       <c r="L10">
-        <v>0.200759709300968</v>
+        <v>-0.2007597371139224</v>
       </c>
       <c r="M10">
-        <v>-0.0004241615453964274</v>
+        <v>0.0004241615133692738</v>
       </c>
       <c r="N10">
-        <v>-1.152204297737415E-05</v>
+        <v>1.152204297689602E-05</v>
       </c>
       <c r="O10">
-        <v>-0.000273840091016446</v>
+        <v>0.0002738400865192555</v>
       </c>
       <c r="P10">
-        <v>-0.00240844996130848</v>
+        <v>0.002408449956386623</v>
       </c>
       <c r="Q10">
-        <v>-0.002350457192910666</v>
+        <v>0.002350457187733663</v>
       </c>
       <c r="R10">
-        <v>-0.001859160794622968</v>
+        <v>0.001859160786283672</v>
       </c>
       <c r="S10">
-        <v>-1.247454630731776E-09</v>
+        <v>3.957896736619051E-10</v>
       </c>
       <c r="T10">
-        <v>-1.082113339310101E-06</v>
+        <v>7.998542162490166E-07</v>
       </c>
       <c r="U10">
-        <v>0.01161362674611368</v>
+        <v>-0.01161362683719673</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0003736670231590213</v>
+        <v>0.0003736670238228274</v>
       </c>
       <c r="B11">
-        <v>0.03668209629068931</v>
+        <v>0.03547839142341914</v>
       </c>
       <c r="C11">
-        <v>0.01735694911602075</v>
+        <v>0.0173569491496115</v>
       </c>
       <c r="D11">
-        <v>0.02142888671354673</v>
+        <v>0.02142888675575787</v>
       </c>
       <c r="E11">
-        <v>1.087724673726994</v>
+        <v>1.087724672887489</v>
       </c>
       <c r="F11">
-        <v>0.008745847180043464</v>
+        <v>0.008745847242174042</v>
       </c>
       <c r="G11">
-        <v>1.429857804019188E-05</v>
+        <v>1.42985782187687E-05</v>
       </c>
       <c r="H11">
-        <v>1.527606176550902E-06</v>
+        <v>1.527606188565366E-06</v>
       </c>
       <c r="I11">
-        <v>0.005329533745339361</v>
+        <v>0.005329533750183715</v>
       </c>
       <c r="J11">
-        <v>0.1728108976689471</v>
+        <v>0.1728108978870868</v>
       </c>
       <c r="K11">
-        <v>8.878999152169023E-05</v>
+        <v>8.878999266268044E-05</v>
       </c>
       <c r="L11">
-        <v>0.1748642708287848</v>
+        <v>0.174864270628018</v>
       </c>
       <c r="M11">
-        <v>0.0004609133823232034</v>
+        <v>0.0004609133939827903</v>
       </c>
       <c r="N11">
-        <v>1.678931466963714E-07</v>
+        <v>1.678931467951069E-07</v>
       </c>
       <c r="O11">
-        <v>0.0001317687004876972</v>
+        <v>0.0001317687012107774</v>
       </c>
       <c r="P11">
-        <v>0.0004362982524313201</v>
+        <v>0.0004362982532939332</v>
       </c>
       <c r="Q11">
-        <v>0.0004458788720433079</v>
+        <v>0.0004458788729394613</v>
       </c>
       <c r="R11">
-        <v>0.0003881229381915101</v>
+        <v>0.0003881229400762854</v>
       </c>
       <c r="S11">
-        <v>1.826233140672326E-09</v>
+        <v>1.822862673676202E-09</v>
       </c>
       <c r="T11">
-        <v>1.753461063791952E-07</v>
+        <v>1.742287664941293E-07</v>
       </c>
       <c r="U11">
-        <v>0.002905565989383285</v>
+        <v>0.002905566003898842</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>7.22424778170959E-05</v>
+        <v>7.224246061484948E-05</v>
       </c>
       <c r="B12">
-        <v>0.08765780760027571</v>
+        <v>0.0434067903395076</v>
       </c>
       <c r="C12">
-        <v>0.001952532045147183</v>
+        <v>0.001952532633419059</v>
       </c>
       <c r="D12">
-        <v>0.002502910752679697</v>
+        <v>0.002502911493564837</v>
       </c>
       <c r="E12">
-        <v>0.1964120788656209</v>
+        <v>0.1964121663426213</v>
       </c>
       <c r="F12">
-        <v>0.01323766300881997</v>
+        <v>0.01323766235359092</v>
       </c>
       <c r="G12">
-        <v>7.602151222037464E-06</v>
+        <v>7.602151749986527E-06</v>
       </c>
       <c r="H12">
-        <v>6.696429407108619E-07</v>
+        <v>6.69642557074038E-07</v>
       </c>
       <c r="I12">
-        <v>0.000741212054587973</v>
+        <v>0.0007412125076485484</v>
       </c>
       <c r="J12">
-        <v>0.02944733985200252</v>
+        <v>0.02944734299077568</v>
       </c>
       <c r="K12">
-        <v>0.003003638279919012</v>
+        <v>0.003003638234599272</v>
       </c>
       <c r="L12">
-        <v>0.01437969985444496</v>
+        <v>0.01437969972489161</v>
       </c>
       <c r="M12">
-        <v>4.673569113796661E-05</v>
+        <v>4.673564297404575E-05</v>
       </c>
       <c r="N12">
-        <v>2.328325716763073E-08</v>
+        <v>2.32832567735125E-08</v>
       </c>
       <c r="O12">
-        <v>4.418555646320077E-05</v>
+        <v>4.418555167376233E-05</v>
       </c>
       <c r="P12">
-        <v>9.640463444990577E-05</v>
+        <v>9.640462160117531E-05</v>
       </c>
       <c r="Q12">
-        <v>0.0001018812387659578</v>
+        <v>0.0001018812255569344</v>
       </c>
       <c r="R12">
-        <v>0.0001275625089226689</v>
+        <v>0.0001275625096858413</v>
       </c>
       <c r="S12">
-        <v>4.103873474086058E-10</v>
+        <v>2.86481113943553E-10</v>
       </c>
       <c r="T12">
-        <v>1.187097415312093E-07</v>
+        <v>7.764474050217239E-08</v>
       </c>
       <c r="U12">
-        <v>0.0045173398511638</v>
+        <v>0.00451733958671718</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.007186257284964585</v>
+        <v>0.00718625757603248</v>
       </c>
       <c r="B13">
-        <v>3.234668417038828</v>
+        <v>1.423816197750541</v>
       </c>
       <c r="C13">
-        <v>0.05096823970493861</v>
+        <v>0.05096824717753701</v>
       </c>
       <c r="D13">
-        <v>0.07137129718938535</v>
+        <v>0.0713713073649333</v>
       </c>
       <c r="E13">
-        <v>5.283505652713961</v>
+        <v>5.283507435673251</v>
       </c>
       <c r="F13">
-        <v>0.3596394431392941</v>
+        <v>0.3596394506003135</v>
       </c>
       <c r="G13">
-        <v>0.002487409892352019</v>
+        <v>0.002487409910864613</v>
       </c>
       <c r="H13">
-        <v>0.0001433961884237131</v>
+        <v>0.0001433961897730622</v>
       </c>
       <c r="I13">
-        <v>0.09824940831951981</v>
+        <v>0.09824941393367094</v>
       </c>
       <c r="J13">
-        <v>1.817127126386454</v>
+        <v>1.817127316647269</v>
       </c>
       <c r="K13">
-        <v>-0.03405245796134154</v>
+        <v>-0.03405245768606831</v>
       </c>
       <c r="L13">
-        <v>1.822394366980684</v>
+        <v>1.822394516231582</v>
       </c>
       <c r="M13">
-        <v>0.003797878088159211</v>
+        <v>0.00379787835923214</v>
       </c>
       <c r="N13">
-        <v>4.368704293329749E-07</v>
+        <v>4.368704413125029E-07</v>
       </c>
       <c r="O13">
-        <v>0.005826737334343939</v>
+        <v>0.005826737444238975</v>
       </c>
       <c r="P13">
-        <v>0.004006066603621137</v>
+        <v>0.004006066727998496</v>
       </c>
       <c r="Q13">
-        <v>0.004138473414844842</v>
+        <v>0.00413847354357519</v>
       </c>
       <c r="R13">
-        <v>0.01358234299231974</v>
+        <v>0.01358234315490545</v>
       </c>
       <c r="S13">
-        <v>2.904318387440842E-08</v>
+        <v>2.397266076983201E-08</v>
       </c>
       <c r="T13">
-        <v>7.438758906813784E-06</v>
+        <v>5.758331884297074E-06</v>
       </c>
       <c r="U13">
-        <v>0.07279753706716356</v>
+        <v>0.07279753888994901</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.004640164272069189</v>
+        <v>0.004640164270446966</v>
       </c>
       <c r="B14">
-        <v>2.172417644973059</v>
+        <v>2.136862510226906</v>
       </c>
       <c r="C14">
-        <v>0.03628000086309742</v>
+        <v>0.0362800011156491</v>
       </c>
       <c r="D14">
-        <v>0.04922742030092352</v>
+        <v>0.04922742043473843</v>
       </c>
       <c r="E14">
-        <v>5.981469756313518</v>
+        <v>5.981469122482578</v>
       </c>
       <c r="F14">
-        <v>1.6559487892016</v>
+        <v>1.655948793142079</v>
       </c>
       <c r="G14">
-        <v>0.0002268687835551454</v>
+        <v>0.0002268687896466409</v>
       </c>
       <c r="H14">
-        <v>2.66140965786759E-05</v>
+        <v>2.66140977216712E-05</v>
       </c>
       <c r="I14">
-        <v>0.04953876713217139</v>
+        <v>0.04953876664445887</v>
       </c>
       <c r="J14">
-        <v>0.8264105084957725</v>
+        <v>0.8264104832046449</v>
       </c>
       <c r="K14">
-        <v>0.03176549730016508</v>
+        <v>0.03176549737525449</v>
       </c>
       <c r="L14">
-        <v>0.02394491623377468</v>
+        <v>0.02394492335136734</v>
       </c>
       <c r="M14">
-        <v>0.002175076779259047</v>
+        <v>0.002175077439337221</v>
       </c>
       <c r="N14">
-        <v>1.604287268816233E-07</v>
+        <v>1.604287279455545E-07</v>
       </c>
       <c r="O14">
-        <v>0.00199563339922082</v>
+        <v>0.001995633411156215</v>
       </c>
       <c r="P14">
-        <v>0.004134859004471053</v>
+        <v>0.004134859060837671</v>
       </c>
       <c r="Q14">
-        <v>0.004473835897948507</v>
+        <v>0.004473835958450838</v>
       </c>
       <c r="R14">
-        <v>0.01576991024275375</v>
+        <v>0.01576991031947352</v>
       </c>
       <c r="S14">
-        <v>8.109281081766466E-09</v>
+        <v>8.009724055612615E-09</v>
       </c>
       <c r="T14">
-        <v>3.661826757378365E-06</v>
+        <v>3.628826880635157E-06</v>
       </c>
       <c r="U14">
-        <v>0.6748054538810958</v>
+        <v>0.6748054550203263</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.01272720797915326</v>
+        <v>0.01272720797619977</v>
       </c>
       <c r="B15">
-        <v>6.756719746398571</v>
+        <v>7.032576261707963</v>
       </c>
       <c r="C15">
-        <v>0.1663298357429507</v>
+        <v>0.1663298374686025</v>
       </c>
       <c r="D15">
-        <v>0.2131053978060375</v>
+        <v>0.213105399830592</v>
       </c>
       <c r="E15">
-        <v>26.56433427529162</v>
+        <v>26.56433399316073</v>
       </c>
       <c r="F15">
-        <v>3.570725099355489</v>
+        <v>3.57072510282161</v>
       </c>
       <c r="G15">
-        <v>0.0006056785558026258</v>
+        <v>0.0006056785661284576</v>
       </c>
       <c r="H15">
-        <v>0.0002679873026154834</v>
+        <v>0.000267987303159198</v>
       </c>
       <c r="I15">
-        <v>0.1553199938155466</v>
+        <v>0.1553199939283869</v>
       </c>
       <c r="J15">
-        <v>4.53183296745962</v>
+        <v>4.531832962326899</v>
       </c>
       <c r="K15">
-        <v>0.3581076325098898</v>
+        <v>0.358107632259403</v>
       </c>
       <c r="L15">
-        <v>-0.07797865812041473</v>
+        <v>-0.07797875173181412</v>
       </c>
       <c r="M15">
-        <v>0.007267869220976249</v>
+        <v>0.007267870142006077</v>
       </c>
       <c r="N15">
-        <v>2.726001538629598E-06</v>
+        <v>2.726001542417113E-06</v>
       </c>
       <c r="O15">
-        <v>0.006002796188352214</v>
+        <v>0.00600279621640676</v>
       </c>
       <c r="P15">
-        <v>0.0121663317321474</v>
+        <v>0.01216633175137937</v>
       </c>
       <c r="Q15">
-        <v>0.01229157868419994</v>
+        <v>0.01229157870461212</v>
       </c>
       <c r="R15">
-        <v>0.1098420123764289</v>
+        <v>0.109842012485561</v>
       </c>
       <c r="S15">
-        <v>2.336395435004208E-08</v>
+        <v>2.413637284262138E-08</v>
       </c>
       <c r="T15">
-        <v>1.184892740854E-05</v>
+        <v>1.210492307601309E-05</v>
       </c>
       <c r="U15">
-        <v>1.371581758992342</v>
+        <v>1.371581759775179</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.006376674759669536</v>
+        <v>0.006376674718661596</v>
       </c>
       <c r="B16">
-        <v>2.835967633759383</v>
+        <v>2.716596966260076</v>
       </c>
       <c r="C16">
-        <v>0.06539456791350155</v>
+        <v>0.06539456674716287</v>
       </c>
       <c r="D16">
-        <v>0.08697010161089343</v>
+        <v>0.08697010001624958</v>
       </c>
       <c r="E16">
-        <v>7.006761610119525</v>
+        <v>7.006761344370148</v>
       </c>
       <c r="F16">
-        <v>1.798712860268742</v>
+        <v>1.798712859140302</v>
       </c>
       <c r="G16">
-        <v>0.0006412244930937339</v>
+        <v>0.000641224491797704</v>
       </c>
       <c r="H16">
-        <v>8.931098200701069E-05</v>
+        <v>8.931098180122362E-05</v>
       </c>
       <c r="I16">
-        <v>0.07490979898936781</v>
+        <v>0.07490979807912673</v>
       </c>
       <c r="J16">
-        <v>1.503420465750524</v>
+        <v>1.503420434628672</v>
       </c>
       <c r="K16">
-        <v>0.1273094533807192</v>
+        <v>0.1273094534804341</v>
       </c>
       <c r="L16">
-        <v>0.1121490850919326</v>
+        <v>0.1121490723185504</v>
       </c>
       <c r="M16">
-        <v>0.00302654621466975</v>
+        <v>0.003026546153190109</v>
       </c>
       <c r="N16">
-        <v>4.228469999024551E-07</v>
+        <v>4.228469992993564E-07</v>
       </c>
       <c r="O16">
-        <v>0.003314047568087522</v>
+        <v>0.003314047558984793</v>
       </c>
       <c r="P16">
-        <v>0.005944326699941544</v>
+        <v>0.005944326686873407</v>
       </c>
       <c r="Q16">
-        <v>0.006631010854412189</v>
+        <v>0.006631010840016647</v>
       </c>
       <c r="R16">
-        <v>0.04453940631102851</v>
+        <v>0.0445394062895293</v>
       </c>
       <c r="S16">
-        <v>1.170938746451423E-08</v>
+        <v>1.137514034713228E-08</v>
       </c>
       <c r="T16">
-        <v>5.411438720677444E-06</v>
+        <v>5.300656863324238E-06</v>
       </c>
       <c r="U16">
-        <v>0.6995528684858736</v>
+        <v>0.6995528681172229</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0003009920786992869</v>
+        <v>-0.0003009920806680487</v>
       </c>
       <c r="B17">
-        <v>-2.398559767702189</v>
+        <v>-2.398654596930313</v>
       </c>
       <c r="C17">
-        <v>-0.1196209910725712</v>
+        <v>-0.1196209911171806</v>
       </c>
       <c r="D17">
-        <v>-0.1592720009364987</v>
+        <v>-0.1592720009994231</v>
       </c>
       <c r="E17">
-        <v>-1.253169213322469</v>
+        <v>-1.253169231654547</v>
       </c>
       <c r="F17">
-        <v>-0.01544141117979849</v>
+        <v>-0.01544141117239911</v>
       </c>
       <c r="G17">
-        <v>-1.152841486319926E-05</v>
+        <v>-1.152841498066703E-05</v>
       </c>
       <c r="H17">
-        <v>-2.169141974580355E-05</v>
+        <v>-2.169141974612981E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02133274639539683</v>
+        <v>-0.02133274641386552</v>
       </c>
       <c r="J17">
-        <v>-2.333581951004467</v>
+        <v>-2.33358195245208</v>
       </c>
       <c r="K17">
-        <v>0.0002297377329102417</v>
+        <v>0.0002297377287659514</v>
       </c>
       <c r="L17">
-        <v>-0.0003537230749374378</v>
+        <v>-0.000353719899621558</v>
       </c>
       <c r="M17">
-        <v>-0.0002821146657858426</v>
+        <v>-0.000282114655903389</v>
       </c>
       <c r="N17">
-        <v>-1.034697470694628E-06</v>
+        <v>-1.034697470755801E-06</v>
       </c>
       <c r="O17">
-        <v>-0.0001109728184374474</v>
+        <v>-0.0001109728191362853</v>
       </c>
       <c r="P17">
-        <v>-0.0006372333927617484</v>
+        <v>-0.0006372333931325931</v>
       </c>
       <c r="Q17">
-        <v>-0.0006445037553767781</v>
+        <v>-0.0006445037557049229</v>
       </c>
       <c r="R17">
-        <v>-0.0035090817155464</v>
+        <v>-0.003509081715610788</v>
       </c>
       <c r="S17">
-        <v>-6.987854490527552E-09</v>
+        <v>-6.988119992199579E-09</v>
       </c>
       <c r="T17">
-        <v>-2.907752617545124E-06</v>
+        <v>-2.907840504806486E-06</v>
       </c>
       <c r="U17">
-        <v>-0.005221392275475909</v>
+        <v>-0.005221392264457179</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.004780964429492928</v>
+        <v>0.004780964443843565</v>
       </c>
       <c r="B18">
-        <v>2.215027794056557</v>
+        <v>2.178995776651933</v>
       </c>
       <c r="C18">
-        <v>0.03811096832839717</v>
+        <v>0.03811096905474584</v>
       </c>
       <c r="D18">
-        <v>0.05165170234065459</v>
+        <v>0.05165170326944204</v>
       </c>
       <c r="E18">
-        <v>6.356138653554373</v>
+        <v>6.356138676239997</v>
       </c>
       <c r="F18">
-        <v>1.625557050918211</v>
+        <v>1.625557052156438</v>
       </c>
       <c r="G18">
-        <v>0.0002562462263329176</v>
+        <v>0.0002562462296328746</v>
       </c>
       <c r="H18">
-        <v>2.846230649914853E-05</v>
+        <v>2.84623066844174E-05</v>
       </c>
       <c r="I18">
-        <v>0.06626840097325677</v>
+        <v>0.06626840122539053</v>
       </c>
       <c r="J18">
-        <v>0.8811122842329958</v>
+        <v>0.8811122916026262</v>
       </c>
       <c r="K18">
-        <v>0.03940658046337755</v>
+        <v>0.0394065804472301</v>
       </c>
       <c r="L18">
-        <v>0.02488070166128279</v>
+        <v>0.02488070676199675</v>
       </c>
       <c r="M18">
-        <v>0.001691993635801481</v>
+        <v>0.001691993816489763</v>
       </c>
       <c r="N18">
-        <v>3.273022413613419E-07</v>
+        <v>3.273022430755949E-07</v>
       </c>
       <c r="O18">
-        <v>0.002113792909531739</v>
+        <v>0.002113792922920501</v>
       </c>
       <c r="P18">
-        <v>0.004469588982204222</v>
+        <v>0.004469588998748933</v>
       </c>
       <c r="Q18">
-        <v>0.004864475227857818</v>
+        <v>0.004864475245192135</v>
       </c>
       <c r="R18">
-        <v>0.017929022291353</v>
+        <v>0.01792902232530027</v>
       </c>
       <c r="S18">
-        <v>8.34247010591644E-09</v>
+        <v>8.241577757831057E-09</v>
       </c>
       <c r="T18">
-        <v>3.84894262373726E-06</v>
+        <v>3.815500285489703E-06</v>
       </c>
       <c r="U18">
-        <v>0.6571808937456171</v>
+        <v>0.6571808940464998</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>0.0002379240779714307</v>
+        <v>0.0002379240788575321</v>
       </c>
       <c r="B19">
-        <v>0.02083900053192397</v>
+        <v>-0.004152896375607014</v>
       </c>
       <c r="C19">
-        <v>-0.001150883833506877</v>
+        <v>-0.001150883819094437</v>
       </c>
       <c r="D19">
-        <v>0.0001848456489383427</v>
+        <v>0.0001848456707030059</v>
       </c>
       <c r="E19">
-        <v>0.05186736718844792</v>
+        <v>0.05186737387679342</v>
       </c>
       <c r="F19">
-        <v>0.01093194405924466</v>
+        <v>0.01093194409096968</v>
       </c>
       <c r="G19">
-        <v>-2.444508856788043E-05</v>
+        <v>-2.444508854409815E-05</v>
       </c>
       <c r="H19">
-        <v>6.40248999240226E-05</v>
+        <v>6.402489992740549E-05</v>
       </c>
       <c r="I19">
-        <v>0.000594141073002534</v>
+        <v>0.0005941411064780564</v>
       </c>
       <c r="J19">
-        <v>0.02320084012499424</v>
+        <v>0.02320084065492493</v>
       </c>
       <c r="K19">
-        <v>0.0008576568790078584</v>
+        <v>0.0008576568900160369</v>
       </c>
       <c r="L19">
-        <v>-0.004605458188901557</v>
+        <v>-0.004605457972764822</v>
       </c>
       <c r="M19">
-        <v>3.097504977008043E-05</v>
+        <v>3.097504742889762E-05</v>
       </c>
       <c r="N19">
-        <v>9.143949730010141E-08</v>
+        <v>9.143949736164743E-08</v>
       </c>
       <c r="O19">
-        <v>4.233760995338753E-05</v>
+        <v>4.233761033256603E-05</v>
       </c>
       <c r="P19">
-        <v>0.0004246133694374642</v>
+        <v>0.0004246133699916869</v>
       </c>
       <c r="Q19">
-        <v>0.0006490604876696063</v>
+        <v>0.0006490604882442929</v>
       </c>
       <c r="R19">
-        <v>0.0056614136267779</v>
+        <v>0.005661413626980275</v>
       </c>
       <c r="S19">
-        <v>1.350188773469107E-10</v>
+        <v>6.50396591041183E-11</v>
       </c>
       <c r="T19">
-        <v>6.623720236838776E-08</v>
+        <v>4.304494062913422E-08</v>
       </c>
       <c r="U19">
-        <v>0.004136242628190226</v>
+        <v>0.004136242638513382</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>0.002225502091981714</v>
+        <v>-0.0003588602375237482</v>
       </c>
       <c r="B20">
-        <v>0.6633579241612421</v>
+        <v>-0.1647369004062832</v>
       </c>
       <c r="C20">
-        <v>0.03776600760779485</v>
+        <v>-0.03997487611765219</v>
       </c>
       <c r="D20">
-        <v>0.04919996889354653</v>
+        <v>-0.05149221962433305</v>
       </c>
       <c r="E20">
-        <v>3.719783795232499</v>
+        <v>-1.249387300148525</v>
       </c>
       <c r="F20">
-        <v>0.1626205619292443</v>
+        <v>-0.04853409456123065</v>
       </c>
       <c r="G20">
-        <v>0.0003095745868465643</v>
+        <v>-5.554678247595919E-05</v>
       </c>
       <c r="H20">
-        <v>3.676146042581313E-05</v>
+        <v>-3.397164145033431E-05</v>
       </c>
       <c r="I20">
-        <v>0.02505042703973329</v>
+        <v>-0.009524399541830784</v>
       </c>
       <c r="J20">
-        <v>0.6841580642188271</v>
+        <v>-0.6402985244204104</v>
       </c>
       <c r="K20">
-        <v>0.06256018036954447</v>
+        <v>-0.03219664020759827</v>
       </c>
       <c r="L20">
-        <v>0.03526745641596953</v>
+        <v>-0.009609947364944308</v>
       </c>
       <c r="M20">
-        <v>0.001041098870251405</v>
+        <v>-0.0002753877988260522</v>
       </c>
       <c r="N20">
-        <v>2.164227930519274E-07</v>
+        <v>-9.526177402396517E-08</v>
       </c>
       <c r="O20">
-        <v>0.001568722507781096</v>
+        <v>-0.0002486555604819148</v>
       </c>
       <c r="P20">
-        <v>0.001954581797856193</v>
+        <v>-0.0002489437896239025</v>
       </c>
       <c r="Q20">
-        <v>0.002013852645324543</v>
+        <v>-0.0002687332777511765</v>
       </c>
       <c r="R20">
-        <v>0.004526912662704346</v>
+        <v>-0.0009053003176032626</v>
       </c>
       <c r="S20">
-        <v>3.183342921786853E-09</v>
+        <v>-7.419529642182456E-10</v>
       </c>
       <c r="T20">
-        <v>1.853389103132994E-06</v>
+        <v>-4.893985689627032E-07</v>
       </c>
       <c r="U20">
-        <v>0.04205393711153678</v>
+        <v>-0.01596443564805763</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>0.0002840855616661545</v>
+        <v>-0.0006754251389245959</v>
       </c>
       <c r="B21">
-        <v>0.1941857134217075</v>
+        <v>-0.6003455688321846</v>
       </c>
       <c r="C21">
-        <v>0.005273320535389569</v>
+        <v>-0.07474441459015708</v>
       </c>
       <c r="D21">
-        <v>0.008911897573183121</v>
+        <v>-0.0979227017380179</v>
       </c>
       <c r="E21">
-        <v>3.646842363099287</v>
+        <v>-1.483742842613583</v>
       </c>
       <c r="F21">
-        <v>0.06090754587856342</v>
+        <v>-0.2011402797089892</v>
       </c>
       <c r="G21">
-        <v>1.904772658985722E-05</v>
+        <v>-0.0001090717260024105</v>
       </c>
       <c r="H21">
-        <v>5.182440330230239E-06</v>
+        <v>-8.143851269347226E-05</v>
       </c>
       <c r="I21">
-        <v>0.002546036304112285</v>
+        <v>-0.01684666584776962</v>
       </c>
       <c r="J21">
-        <v>0.1602094900127077</v>
+        <v>-1.468389034075517</v>
       </c>
       <c r="K21">
-        <v>0.0008264981592534458</v>
+        <v>-0.0241407860546567</v>
       </c>
       <c r="L21">
-        <v>0.007829168631914159</v>
+        <v>0.04254329976121924</v>
       </c>
       <c r="M21">
-        <v>0.0008259585460840336</v>
+        <v>-0.0001798798669889861</v>
       </c>
       <c r="N21">
-        <v>8.549886559930361E-08</v>
+        <v>-1.291790949938278E-07</v>
       </c>
       <c r="O21">
-        <v>0.0001606574439362055</v>
+        <v>-0.0004922859763866415</v>
       </c>
       <c r="P21">
-        <v>0.00035201112849899</v>
+        <v>-0.000586722752137479</v>
       </c>
       <c r="Q21">
-        <v>0.0003932514900861051</v>
+        <v>-0.0006631586420545958</v>
       </c>
       <c r="R21">
-        <v>0.0002821605886914427</v>
+        <v>-0.002564824170177433</v>
       </c>
       <c r="S21">
-        <v>7.832158155488968E-10</v>
+        <v>-1.68509945574523E-09</v>
       </c>
       <c r="T21">
-        <v>3.271740127425401E-07</v>
+        <v>-1.263970473372453E-06</v>
       </c>
       <c r="U21">
-        <v>0.02566646437642211</v>
+        <v>-0.06971537002871374</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22">
-        <v>0.0001987390714038411</v>
+        <v>0.002225502222335813</v>
       </c>
       <c r="B22">
-        <v>0.01647290085403625</v>
+        <v>0.6030907573632506</v>
       </c>
       <c r="C22">
-        <v>0.000237266737870855</v>
+        <v>0.03776601077239312</v>
       </c>
       <c r="D22">
-        <v>0.000372930629251724</v>
+        <v>0.04919997324730895</v>
       </c>
       <c r="E22">
-        <v>0.1010706005748854</v>
+        <v>3.71978470083782</v>
       </c>
       <c r="F22">
-        <v>0.004679762090560555</v>
+        <v>0.1626205650024049</v>
       </c>
       <c r="G22">
-        <v>9.647173062369085E-07</v>
+        <v>0.0003095745931233484</v>
       </c>
       <c r="H22">
-        <v>3.712469018505826E-07</v>
+        <v>3.676146067606518E-05</v>
       </c>
       <c r="I22">
-        <v>0.0009929662108154891</v>
+        <v>0.0250504289211721</v>
       </c>
       <c r="J22">
-        <v>0.005452343924482315</v>
+        <v>0.6841581507551933</v>
       </c>
       <c r="K22">
-        <v>0.0001450796238951138</v>
+        <v>0.06256018056853507</v>
       </c>
       <c r="L22">
-        <v>0.0002847321094696718</v>
+        <v>0.03526746488159644</v>
       </c>
       <c r="M22">
-        <v>0.0001673101742400157</v>
+        <v>0.001041098756992384</v>
       </c>
       <c r="N22">
-        <v>7.18925514940507E-09</v>
+        <v>2.164227983110349E-07</v>
       </c>
       <c r="O22">
-        <v>6.630469968202905E-05</v>
+        <v>0.001568722556135162</v>
       </c>
       <c r="P22">
-        <v>0.0002234007527847648</v>
+        <v>0.001954581847099818</v>
       </c>
       <c r="Q22">
-        <v>0.0002271348884061887</v>
+        <v>0.00201385269667276</v>
       </c>
       <c r="R22">
-        <v>2.011050217271342E-05</v>
+        <v>0.004526912715236662</v>
       </c>
       <c r="S22">
-        <v>1.220923295214276E-10</v>
+        <v>3.014590377169295E-09</v>
       </c>
       <c r="T22">
-        <v>6.173915591139755E-08</v>
+        <v>1.797458819428594E-06</v>
       </c>
       <c r="U22">
-        <v>0.00202418807566826</v>
+        <v>0.04205393795054348</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23">
-        <v>0.003211433251915275</v>
+        <v>0.0002840855621507699</v>
       </c>
       <c r="B23">
-        <v>2.182686027637393</v>
+        <v>0.1916309146753268</v>
       </c>
       <c r="C23">
-        <v>0.04087487210664682</v>
+        <v>0.005273320558215482</v>
       </c>
       <c r="D23">
-        <v>0.05159469984481234</v>
+        <v>0.008911897602103917</v>
       </c>
       <c r="E23">
-        <v>7.351983738297398</v>
+        <v>3.646842363120246</v>
       </c>
       <c r="F23">
-        <v>0.2589782437647937</v>
+        <v>0.06090754591135848</v>
       </c>
       <c r="G23">
-        <v>0.0005037090559078802</v>
+        <v>1.904772672191057E-05</v>
       </c>
       <c r="H23">
-        <v>-0.002462599941708993</v>
+        <v>5.182440337851744E-06</v>
       </c>
       <c r="I23">
-        <v>0.02425252832053517</v>
+        <v>0.002546036305516853</v>
       </c>
       <c r="J23">
-        <v>2.397394009516906</v>
+        <v>0.1602094902349668</v>
       </c>
       <c r="K23">
-        <v>0.05817103554624409</v>
+        <v>0.0008264981591628813</v>
       </c>
       <c r="L23">
-        <v>2.002549866448839</v>
+        <v>0.007829168250626692</v>
       </c>
       <c r="M23">
-        <v>0.001342251397454445</v>
+        <v>0.0008259585540483903</v>
       </c>
       <c r="N23">
-        <v>3.000385312227038E-07</v>
+        <v>8.549886565588189E-08</v>
       </c>
       <c r="O23">
-        <v>0.002814345994314785</v>
+        <v>0.0001606574444257839</v>
       </c>
       <c r="P23">
-        <v>0.004199702844566218</v>
+        <v>0.0003520111289852221</v>
       </c>
       <c r="Q23">
-        <v>0.004308237711478336</v>
+        <v>0.0003932514905786163</v>
       </c>
       <c r="R23">
-        <v>0.06643524726671297</v>
+        <v>0.000282160589941118</v>
       </c>
       <c r="S23">
-        <v>2.555756955868541E-08</v>
+        <v>7.760621807759346E-10</v>
       </c>
       <c r="T23">
-        <v>4.57396973789693E-06</v>
+        <v>3.248031164003761E-07</v>
       </c>
       <c r="U23">
-        <v>0.08608849814230052</v>
+        <v>0.02566646438172726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24">
+        <v>0.0001987390800618283</v>
+      </c>
+      <c r="B24">
+        <v>0.01638159154276921</v>
+      </c>
+      <c r="C24">
+        <v>0.0002372668404943172</v>
+      </c>
+      <c r="D24">
+        <v>0.0003729307726568619</v>
+      </c>
+      <c r="E24">
+        <v>0.1010706147477301</v>
+      </c>
+      <c r="F24">
+        <v>0.004679762679549605</v>
+      </c>
+      <c r="G24">
+        <v>9.647179543140249E-07</v>
+      </c>
+      <c r="H24">
+        <v>3.712469863982734E-07</v>
+      </c>
+      <c r="I24">
+        <v>0.0009929670954826537</v>
+      </c>
+      <c r="J24">
+        <v>0.005452346068435757</v>
+      </c>
+      <c r="K24">
+        <v>0.0001450797003053898</v>
+      </c>
+      <c r="L24">
+        <v>0.0002847327011833563</v>
+      </c>
+      <c r="M24">
+        <v>0.0001673102752720797</v>
+      </c>
+      <c r="N24">
+        <v>7.189256067907245E-09</v>
+      </c>
+      <c r="O24">
+        <v>6.630470494400158E-05</v>
+      </c>
+      <c r="P24">
+        <v>0.000223400762944632</v>
+      </c>
+      <c r="Q24">
+        <v>0.0002271348988839288</v>
+      </c>
+      <c r="R24">
+        <v>2.011051380546784E-05</v>
+      </c>
+      <c r="S24">
+        <v>1.218366655965425E-10</v>
+      </c>
+      <c r="T24">
+        <v>6.165441952721933E-08</v>
+      </c>
+      <c r="U24">
+        <v>0.002024188263845268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25">
+        <v>0.003211433318829077</v>
+      </c>
+      <c r="B25">
+        <v>1.192351088948884</v>
+      </c>
+      <c r="C25">
+        <v>0.04087487502997618</v>
+      </c>
+      <c r="D25">
+        <v>0.05159470362606289</v>
+      </c>
+      <c r="E25">
+        <v>7.351983840438118</v>
+      </c>
+      <c r="F25">
+        <v>0.2589782478484955</v>
+      </c>
+      <c r="G25">
+        <v>0.0005037090660727986</v>
+      </c>
+      <c r="H25">
+        <v>-0.002462599940712604</v>
+      </c>
+      <c r="I25">
+        <v>0.02425253009949946</v>
+      </c>
+      <c r="J25">
+        <v>2.397394047779668</v>
+      </c>
+      <c r="K25">
+        <v>0.05817103551493474</v>
+      </c>
+      <c r="L25">
+        <v>2.002549886069042</v>
+      </c>
+      <c r="M25">
+        <v>0.001342252263165771</v>
+      </c>
+      <c r="N25">
+        <v>3.00038536515226E-07</v>
+      </c>
+      <c r="O25">
+        <v>0.002814346038037487</v>
+      </c>
+      <c r="P25">
+        <v>0.004199702901603065</v>
+      </c>
+      <c r="Q25">
+        <v>0.004308237771198953</v>
+      </c>
+      <c r="R25">
+        <v>0.06643524738567096</v>
+      </c>
+      <c r="S25">
+        <v>2.278455634450217E-08</v>
+      </c>
+      <c r="T25">
+        <v>3.655687378395393E-06</v>
+      </c>
+      <c r="U25">
+        <v>0.08608849922284238</v>
       </c>
     </row>
   </sheetData>

--- a/Brighway/Results/Ananas - CONSQ_recipe_unq.xlsx
+++ b/Brighway/Results/Ananas - CONSQ_recipe_unq.xlsx
@@ -507,1562 +507,1562 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0002036580936319892</v>
+        <v>-0.0002036580966285459</v>
       </c>
       <c r="B2">
-        <v>3.040814378042793</v>
+        <v>-3.040814378889459</v>
       </c>
       <c r="C2">
-        <v>0.1585628623862998</v>
+        <v>-0.1585628625830671</v>
       </c>
       <c r="D2">
-        <v>0.2295784818296631</v>
+        <v>-0.2295784820953532</v>
       </c>
       <c r="E2">
-        <v>8.828092780111797</v>
+        <v>-8.828092816461515</v>
       </c>
       <c r="F2">
-        <v>0.01102871268123898</v>
+        <v>-0.01102871287619913</v>
       </c>
       <c r="G2">
-        <v>4.700623375751376E-06</v>
+        <v>-4.700623993244005E-06</v>
       </c>
       <c r="H2">
-        <v>4.725445036495818E-06</v>
+        <v>-4.725445068188796E-06</v>
       </c>
       <c r="I2">
-        <v>0.00704386212243063</v>
+        <v>-0.007043862223280465</v>
       </c>
       <c r="J2">
-        <v>1.913075139368878</v>
+        <v>-1.913075143986843</v>
       </c>
       <c r="K2">
-        <v>2.863317874877046E-05</v>
+        <v>-2.863316960334997E-05</v>
       </c>
       <c r="L2">
-        <v>-0.0006926486111392838</v>
+        <v>0.0006926506949528094</v>
       </c>
       <c r="M2">
-        <v>0.0002833098986290551</v>
+        <v>-0.0002833099196866927</v>
       </c>
       <c r="N2">
-        <v>2.358692473651932E-07</v>
+        <v>-2.358692476813177E-07</v>
       </c>
       <c r="O2">
-        <v>7.002033425613262E-05</v>
+        <v>-7.00203360482164E-05</v>
       </c>
       <c r="P2">
-        <v>0.0004926923034393271</v>
+        <v>-0.0004926923070561197</v>
       </c>
       <c r="Q2">
-        <v>0.0004978085121214044</v>
+        <v>-0.0004978085157969323</v>
       </c>
       <c r="R2">
-        <v>0.001299525934939273</v>
+        <v>-0.001299525939126981</v>
       </c>
       <c r="S2">
-        <v>8.8538983956067E-09</v>
+        <v>-8.853898381582136E-09</v>
       </c>
       <c r="T2">
-        <v>3.329123548756306E-06</v>
+        <v>-3.329123552068945E-06</v>
       </c>
       <c r="U2">
-        <v>0.003800327424985389</v>
+        <v>-0.003800327468926238</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>-0.0001734561910566592</v>
+        <v>-0.0001734561907810335</v>
       </c>
       <c r="B3">
-        <v>-2.568417787419234</v>
+        <v>-2.568417787628642</v>
       </c>
       <c r="C3">
-        <v>-0.1339776005520901</v>
+        <v>-0.1339776005785544</v>
       </c>
       <c r="D3">
-        <v>-0.1939677476075223</v>
+        <v>-0.1939677476434</v>
       </c>
       <c r="E3">
-        <v>-7.457176031468695</v>
+        <v>-7.457176034472616</v>
       </c>
       <c r="F3">
-        <v>-0.009495873028869154</v>
+        <v>-0.009495873074365602</v>
       </c>
       <c r="G3">
-        <v>-4.302703579929848E-06</v>
+        <v>-4.302703685399556E-06</v>
       </c>
       <c r="H3">
-        <v>-4.005811044069143E-06</v>
+        <v>-4.005811050634827E-06</v>
       </c>
       <c r="I3">
-        <v>-0.00593657336933335</v>
+        <v>-0.005936573371124584</v>
       </c>
       <c r="J3">
-        <v>-1.616352148864626</v>
+        <v>-1.616352149382829</v>
       </c>
       <c r="K3">
-        <v>-1.813077782470869E-05</v>
+        <v>-1.813076159435216E-05</v>
       </c>
       <c r="L3">
-        <v>0.0005789277397657297</v>
+        <v>0.0005789286475857598</v>
       </c>
       <c r="M3">
-        <v>-0.0002663365767750081</v>
+        <v>-0.0002663365872497465</v>
       </c>
       <c r="N3">
-        <v>-1.99267271181673E-07</v>
+        <v>-1.992672712260439E-07</v>
       </c>
       <c r="O3">
-        <v>-6.111853759659282E-05</v>
+        <v>-6.111853763274379E-05</v>
       </c>
       <c r="P3">
-        <v>-0.0004178069535909674</v>
+        <v>-0.0004178069543148666</v>
       </c>
       <c r="Q3">
-        <v>-0.0004223416281654395</v>
+        <v>-0.0004223416288910224</v>
       </c>
       <c r="R3">
-        <v>-0.001257067179833927</v>
+        <v>-0.001257067180092673</v>
       </c>
       <c r="S3">
-        <v>-7.479295822729524E-09</v>
+        <v>-7.479295815419595E-09</v>
       </c>
       <c r="T3">
-        <v>-2.81360108719637E-06</v>
+        <v>-2.813601087538992E-06</v>
       </c>
       <c r="U3">
-        <v>-0.003260262413925337</v>
+        <v>-0.003260262426320546</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>-0.007803120543492219</v>
+        <v>-0.007803120494143394</v>
       </c>
       <c r="B4">
-        <v>-0.4747132908876602</v>
+        <v>-0.4747132852573903</v>
       </c>
       <c r="C4">
-        <v>-0.2031457904818532</v>
+        <v>-0.2031457866040446</v>
       </c>
       <c r="D4">
-        <v>-0.2795149379853892</v>
+        <v>-0.2795149329001573</v>
       </c>
       <c r="E4">
-        <v>-62.56950922931315</v>
+        <v>-62.56950859928442</v>
       </c>
       <c r="F4">
-        <v>-0.1282994854675889</v>
+        <v>-0.1282994844384162</v>
       </c>
       <c r="G4">
-        <v>-0.0003940424690611912</v>
+        <v>-0.0003940424620934642</v>
       </c>
       <c r="H4">
-        <v>-8.312370507302477E-06</v>
+        <v>-8.312370400050642E-06</v>
       </c>
       <c r="I4">
-        <v>-0.06284751171341732</v>
+        <v>-0.06284750916866219</v>
       </c>
       <c r="J4">
-        <v>-5.694933541728213</v>
+        <v>-5.694933472915693</v>
       </c>
       <c r="K4">
-        <v>-0.02473607659994495</v>
+        <v>-0.02473607685892991</v>
       </c>
       <c r="L4">
-        <v>-0.1370619741723914</v>
+        <v>-0.1370619253524819</v>
       </c>
       <c r="M4">
-        <v>0.02446016589210522</v>
+        <v>0.02446016629237929</v>
       </c>
       <c r="N4">
-        <v>-3.732061364503772E-07</v>
+        <v>-3.732061350761436E-07</v>
       </c>
       <c r="O4">
-        <v>-0.002545297849929858</v>
+        <v>-0.002545297832231628</v>
       </c>
       <c r="P4">
-        <v>-0.002365694432260184</v>
+        <v>-0.002365694447580995</v>
       </c>
       <c r="Q4">
-        <v>-0.002460076924962887</v>
+        <v>-0.002460076939805851</v>
       </c>
       <c r="R4">
-        <v>-0.001661619612798502</v>
+        <v>-0.001661619524997601</v>
       </c>
       <c r="S4">
-        <v>-5.665502114527476E-09</v>
+        <v>-5.665501641772953E-09</v>
       </c>
       <c r="T4">
-        <v>-3.551426233361721E-06</v>
+        <v>-3.551426192718204E-06</v>
       </c>
       <c r="U4">
-        <v>-0.02583370712519218</v>
+        <v>-0.0258337071211908</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.007834814189941464</v>
+        <v>0.007834814675783362</v>
       </c>
       <c r="B5">
-        <v>2.681058122140963</v>
+        <v>2.681058195769693</v>
       </c>
       <c r="C5">
-        <v>0.1868247485758157</v>
+        <v>0.1868247580756187</v>
       </c>
       <c r="D5">
-        <v>0.2435841836156049</v>
+        <v>0.2435841963547107</v>
       </c>
       <c r="E5">
-        <v>8.932728653052946</v>
+        <v>8.932729898634284</v>
       </c>
       <c r="F5">
-        <v>0.8123056269769295</v>
+        <v>0.8123056448195248</v>
       </c>
       <c r="G5">
-        <v>0.001638525972497617</v>
+        <v>0.001638525998047916</v>
       </c>
       <c r="H5">
-        <v>0.0002723741829164241</v>
+        <v>0.0002723741867240064</v>
       </c>
       <c r="I5">
-        <v>0.1539561343406666</v>
+        <v>0.1539561389699443</v>
       </c>
       <c r="J5">
-        <v>3.772733877837033</v>
+        <v>3.772734095346798</v>
       </c>
       <c r="K5">
-        <v>0.2477194250138731</v>
+        <v>0.2477194246734391</v>
       </c>
       <c r="L5">
-        <v>0.3893594993299965</v>
+        <v>0.3893595517342845</v>
       </c>
       <c r="M5">
-        <v>0.007111512057102264</v>
+        <v>0.007111514084007245</v>
       </c>
       <c r="N5">
-        <v>8.136901026874337E-07</v>
+        <v>8.136901286455147E-07</v>
       </c>
       <c r="O5">
-        <v>0.004318540903621835</v>
+        <v>0.004318541109140151</v>
       </c>
       <c r="P5">
-        <v>0.004691227377541487</v>
+        <v>0.004691227841823163</v>
       </c>
       <c r="Q5">
-        <v>0.005041277427593496</v>
+        <v>0.005041277904165034</v>
       </c>
       <c r="R5">
-        <v>0.07972412593278691</v>
+        <v>0.07972412624208348</v>
       </c>
       <c r="S5">
-        <v>1.462737495269625E-08</v>
+        <v>1.462737582779309E-08</v>
       </c>
       <c r="T5">
-        <v>6.757167002246185E-06</v>
+        <v>6.757167265844964E-06</v>
       </c>
       <c r="U5">
-        <v>0.2296180210975412</v>
+        <v>0.2296180270039291</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.08981716768607161</v>
+        <v>0.08981716934178677</v>
       </c>
       <c r="B6">
-        <v>20.59195216642062</v>
+        <v>20.591952468653</v>
       </c>
       <c r="C6">
-        <v>0.491929853987307</v>
+        <v>0.4919298961349696</v>
       </c>
       <c r="D6">
-        <v>0.6888600791726349</v>
+        <v>0.6888601352066981</v>
       </c>
       <c r="E6">
-        <v>17.46934197084807</v>
+        <v>17.46934797885379</v>
       </c>
       <c r="F6">
-        <v>4.469172417779445</v>
+        <v>4.469172498113838</v>
       </c>
       <c r="G6">
-        <v>0.006761205896825606</v>
+        <v>0.006761206012412407</v>
       </c>
       <c r="H6">
-        <v>0.000487749364547905</v>
+        <v>0.0004877493749134351</v>
       </c>
       <c r="I6">
-        <v>4.028007989975019</v>
+        <v>4.028008010378334</v>
       </c>
       <c r="J6">
-        <v>17.21567153287704</v>
+        <v>17.21567239125913</v>
       </c>
       <c r="K6">
-        <v>0.1093007498546544</v>
+        <v>0.1093007478900883</v>
       </c>
       <c r="L6">
-        <v>0.198173613360028</v>
+        <v>0.1981733647468313</v>
       </c>
       <c r="M6">
-        <v>0.2522931444589868</v>
+        <v>0.2522931517179389</v>
       </c>
       <c r="N6">
-        <v>3.887160964845662E-06</v>
+        <v>3.887161044979286E-06</v>
       </c>
       <c r="O6">
-        <v>0.04056656263099533</v>
+        <v>0.04056656339946599</v>
       </c>
       <c r="P6">
-        <v>0.05319574621555929</v>
+        <v>0.05319574762679877</v>
       </c>
       <c r="Q6">
-        <v>0.05450810949569417</v>
+        <v>0.05450811098133638</v>
       </c>
       <c r="R6">
-        <v>0.1170714397143872</v>
+        <v>0.1170714411017011</v>
       </c>
       <c r="S6">
-        <v>9.06487895203828E-08</v>
+        <v>9.06487888837099E-08</v>
       </c>
       <c r="T6">
-        <v>6.220344121222314E-05</v>
+        <v>6.220344224352454E-05</v>
       </c>
       <c r="U6">
-        <v>0.8057023176056095</v>
+        <v>0.8057023430809437</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.006959575378545871</v>
+        <v>0.006959575051402328</v>
       </c>
       <c r="B7">
-        <v>0.6155804175518629</v>
+        <v>0.6155804476222169</v>
       </c>
       <c r="C7">
-        <v>0.2690751128851323</v>
+        <v>0.2690751183791971</v>
       </c>
       <c r="D7">
-        <v>0.3180249135112839</v>
+        <v>0.3180249198974042</v>
       </c>
       <c r="E7">
-        <v>24.63806529332489</v>
+        <v>24.63806356725662</v>
       </c>
       <c r="F7">
-        <v>0.1593620639345465</v>
+        <v>0.1593620710909105</v>
       </c>
       <c r="G7">
-        <v>-0.0002195002473650866</v>
+        <v>-0.0002195002198294327</v>
       </c>
       <c r="H7">
-        <v>0.001596620083227975</v>
+        <v>0.001596620083686129</v>
       </c>
       <c r="I7">
-        <v>0.03259465594158376</v>
+        <v>0.03259465563701705</v>
       </c>
       <c r="J7">
-        <v>1.37942191553422</v>
+        <v>1.379421881182855</v>
       </c>
       <c r="K7">
-        <v>0.01479104022877417</v>
+        <v>0.01479103872162333</v>
       </c>
       <c r="L7">
-        <v>2.12327866264916</v>
+        <v>2.123275299253385</v>
       </c>
       <c r="M7">
-        <v>0.003915591847826677</v>
+        <v>0.003915595844989215</v>
       </c>
       <c r="N7">
-        <v>-2.205771317775329E-06</v>
+        <v>-2.205771332186316E-06</v>
       </c>
       <c r="O7">
-        <v>0.002887217964893703</v>
+        <v>0.002887217882352926</v>
       </c>
       <c r="P7">
-        <v>0.004960198753201517</v>
+        <v>0.004960198484704499</v>
       </c>
       <c r="Q7">
-        <v>0.005064426686987399</v>
+        <v>0.005064426422894154</v>
       </c>
       <c r="R7">
-        <v>0.006986423824833532</v>
+        <v>0.006986424210441418</v>
       </c>
       <c r="S7">
-        <v>2.303650121443515E-08</v>
+        <v>2.303647134257211E-08</v>
       </c>
       <c r="T7">
-        <v>2.82695418153674E-06</v>
+        <v>2.82695414940781E-06</v>
       </c>
       <c r="U7">
-        <v>0.02732441811817164</v>
+        <v>0.02732441904913925</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.08981716768607161</v>
+        <v>0.08981716934178677</v>
       </c>
       <c r="B8">
-        <v>20.59195216642062</v>
+        <v>20.591952468653</v>
       </c>
       <c r="C8">
-        <v>0.491929853987307</v>
+        <v>0.4919298961349696</v>
       </c>
       <c r="D8">
-        <v>0.6888600791726349</v>
+        <v>0.6888601352066981</v>
       </c>
       <c r="E8">
-        <v>17.46934197084807</v>
+        <v>17.46934797885379</v>
       </c>
       <c r="F8">
-        <v>4.469172417779445</v>
+        <v>4.469172498113838</v>
       </c>
       <c r="G8">
-        <v>0.006761205896825606</v>
+        <v>0.006761206012412407</v>
       </c>
       <c r="H8">
-        <v>0.000487749364547905</v>
+        <v>0.0004877493749134351</v>
       </c>
       <c r="I8">
-        <v>4.028007989975019</v>
+        <v>4.028008010378334</v>
       </c>
       <c r="J8">
-        <v>17.21567153287704</v>
+        <v>17.21567239125913</v>
       </c>
       <c r="K8">
-        <v>0.1093007498546544</v>
+        <v>0.1093007478900883</v>
       </c>
       <c r="L8">
-        <v>0.198173613360028</v>
+        <v>0.1981733647468313</v>
       </c>
       <c r="M8">
-        <v>0.2522931444589868</v>
+        <v>0.2522931517179389</v>
       </c>
       <c r="N8">
-        <v>3.887160964845662E-06</v>
+        <v>3.887161044979286E-06</v>
       </c>
       <c r="O8">
-        <v>0.04056656263099533</v>
+        <v>0.04056656339946599</v>
       </c>
       <c r="P8">
-        <v>0.05319574621555929</v>
+        <v>0.05319574762679877</v>
       </c>
       <c r="Q8">
-        <v>0.05450810949569417</v>
+        <v>0.05450811098133638</v>
       </c>
       <c r="R8">
-        <v>0.1170714397143872</v>
+        <v>0.1170714411017011</v>
       </c>
       <c r="S8">
-        <v>9.06487895203828E-08</v>
+        <v>9.06487888837099E-08</v>
       </c>
       <c r="T8">
-        <v>6.220344121222314E-05</v>
+        <v>6.220344224352454E-05</v>
       </c>
       <c r="U8">
-        <v>0.8057023176056095</v>
+        <v>0.8057023430809437</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.003473704528419616</v>
+        <v>0.00347370460305889</v>
       </c>
       <c r="B9">
-        <v>0.3191780480590146</v>
+        <v>0.3191780596747921</v>
       </c>
       <c r="C9">
-        <v>0.2097517925772821</v>
+        <v>0.2097517960167253</v>
       </c>
       <c r="D9">
-        <v>0.254716247866616</v>
+        <v>0.2547162526450052</v>
       </c>
       <c r="E9">
-        <v>14.15607456032291</v>
+        <v>14.15607558647093</v>
       </c>
       <c r="F9">
-        <v>0.07977320627304327</v>
+        <v>0.07977320884583022</v>
       </c>
       <c r="G9">
-        <v>8.772238287046771E-05</v>
+        <v>8.772239204669204E-05</v>
       </c>
       <c r="H9">
-        <v>0.0001824138208188834</v>
+        <v>0.0001824138211062354</v>
       </c>
       <c r="I9">
-        <v>0.04146374374649314</v>
+        <v>0.04146374497765802</v>
       </c>
       <c r="J9">
-        <v>1.584445823017781</v>
+        <v>1.584445934004342</v>
       </c>
       <c r="K9">
-        <v>0.00224020363871562</v>
+        <v>0.002240203496959837</v>
       </c>
       <c r="L9">
-        <v>1.179830812897153</v>
+        <v>1.179831783186739</v>
       </c>
       <c r="M9">
-        <v>0.0006111122725838808</v>
+        <v>0.0006111112044362808</v>
       </c>
       <c r="N9">
-        <v>6.918415367345104E-07</v>
+        <v>6.918415359313373E-07</v>
       </c>
       <c r="O9">
-        <v>0.001266182820076872</v>
+        <v>0.001266182826997895</v>
       </c>
       <c r="P9">
-        <v>0.003083002926054097</v>
+        <v>0.003083002841993076</v>
       </c>
       <c r="Q9">
-        <v>0.003153254337782902</v>
+        <v>0.003153254253021133</v>
       </c>
       <c r="R9">
-        <v>0.00314314049353904</v>
+        <v>0.003143140553778826</v>
       </c>
       <c r="S9">
-        <v>1.289112941681282E-08</v>
+        <v>1.28911380879605E-08</v>
       </c>
       <c r="T9">
-        <v>1.60102220469449E-06</v>
+        <v>1.601022249233593E-06</v>
       </c>
       <c r="U9">
-        <v>0.02279366836549996</v>
+        <v>0.02279366831363937</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.0008140105547688922</v>
+        <v>0.0008140106192208095</v>
       </c>
       <c r="B10">
-        <v>0.6017902119477355</v>
+        <v>0.6017902304097476</v>
       </c>
       <c r="C10">
-        <v>0.01177011555579783</v>
+        <v>0.01177011708847209</v>
       </c>
       <c r="D10">
-        <v>0.01563033776808186</v>
+        <v>0.01563033981293463</v>
       </c>
       <c r="E10">
-        <v>-0.7243132572088845</v>
+        <v>-0.7243130415579297</v>
       </c>
       <c r="F10">
-        <v>-0.01705675317961222</v>
+        <v>-0.01705674762458062</v>
       </c>
       <c r="G10">
-        <v>2.052769082563604E-05</v>
+        <v>2.052769105874739E-05</v>
       </c>
       <c r="H10">
-        <v>0.0002283819098666163</v>
+        <v>0.0002283819097976094</v>
       </c>
       <c r="I10">
-        <v>0.001320369673596554</v>
+        <v>0.0013203717075904</v>
       </c>
       <c r="J10">
-        <v>0.2273224446677266</v>
+        <v>0.2273224777375699</v>
       </c>
       <c r="K10">
-        <v>-0.001182082319351233</v>
+        <v>-0.001182083479277844</v>
       </c>
       <c r="L10">
-        <v>-0.2007597371139224</v>
+        <v>-0.2007597679206145</v>
       </c>
       <c r="M10">
-        <v>0.0004241615133692738</v>
+        <v>0.0004241620606856507</v>
       </c>
       <c r="N10">
-        <v>1.152204297689602E-05</v>
+        <v>1.152204298176525E-05</v>
       </c>
       <c r="O10">
-        <v>0.0002738400865192555</v>
+        <v>0.0002738401029712323</v>
       </c>
       <c r="P10">
-        <v>0.002408449956386623</v>
+        <v>0.002408450024254711</v>
       </c>
       <c r="Q10">
-        <v>0.002350457187733663</v>
+        <v>0.002350457260075771</v>
       </c>
       <c r="R10">
-        <v>0.001859160786283672</v>
+        <v>0.001859160819782468</v>
       </c>
       <c r="S10">
-        <v>3.957896736619051E-10</v>
+        <v>3.957894788065193E-10</v>
       </c>
       <c r="T10">
-        <v>7.998542162490166E-07</v>
+        <v>7.998542581463702E-07</v>
       </c>
       <c r="U10">
-        <v>-0.01161362683719673</v>
+        <v>-0.01161362456354782</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0003736670238228274</v>
+        <v>0.0003736670371676966</v>
       </c>
       <c r="B11">
-        <v>0.03547839142341914</v>
+        <v>0.0354783926863918</v>
       </c>
       <c r="C11">
-        <v>0.0173569491496115</v>
+        <v>0.01735694949371852</v>
       </c>
       <c r="D11">
-        <v>0.02142888675575787</v>
+        <v>0.02142888723631241</v>
       </c>
       <c r="E11">
-        <v>1.087724672887489</v>
+        <v>1.087724786482683</v>
       </c>
       <c r="F11">
-        <v>0.008745847242174042</v>
+        <v>0.008745847558515962</v>
       </c>
       <c r="G11">
-        <v>1.42985782187687E-05</v>
+        <v>1.429857891140079E-05</v>
       </c>
       <c r="H11">
-        <v>1.527606188565366E-06</v>
+        <v>1.52760621311955E-06</v>
       </c>
       <c r="I11">
-        <v>0.005329533750183715</v>
+        <v>0.005329534009794146</v>
       </c>
       <c r="J11">
-        <v>0.1728108978870868</v>
+        <v>0.1728109084711263</v>
       </c>
       <c r="K11">
-        <v>8.878999266268044E-05</v>
+        <v>8.879001596322587E-05</v>
       </c>
       <c r="L11">
-        <v>0.174864270628018</v>
+        <v>0.1748643427237198</v>
       </c>
       <c r="M11">
-        <v>0.0004609133939827903</v>
+        <v>0.0004609133522451688</v>
       </c>
       <c r="N11">
-        <v>1.678931467951069E-07</v>
+        <v>1.678931473825799E-07</v>
       </c>
       <c r="O11">
-        <v>0.0001317687012107774</v>
+        <v>0.0001317687057959164</v>
       </c>
       <c r="P11">
-        <v>0.0004362982532939332</v>
+        <v>0.0004362982595630385</v>
       </c>
       <c r="Q11">
-        <v>0.0004458788729394613</v>
+        <v>0.0004458788793946231</v>
       </c>
       <c r="R11">
-        <v>0.0003881229400762854</v>
+        <v>0.0003881229434532469</v>
       </c>
       <c r="S11">
-        <v>1.822862673676202E-09</v>
+        <v>1.822863322896821E-09</v>
       </c>
       <c r="T11">
-        <v>1.742287664941293E-07</v>
+        <v>1.742287738334524E-07</v>
       </c>
       <c r="U11">
-        <v>0.002905566003898842</v>
+        <v>0.002905566086611445</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>7.224246061484948E-05</v>
+        <v>7.224244669528934E-05</v>
       </c>
       <c r="B12">
-        <v>0.0434067903395076</v>
+        <v>0.04340678575879661</v>
       </c>
       <c r="C12">
-        <v>0.001952532633419059</v>
+        <v>0.001952530801790152</v>
       </c>
       <c r="D12">
-        <v>0.002502911493564837</v>
+        <v>0.002502909106250146</v>
       </c>
       <c r="E12">
-        <v>0.1964121663426213</v>
+        <v>0.1964118886395152</v>
       </c>
       <c r="F12">
-        <v>0.01323766235359092</v>
+        <v>0.01323766113035076</v>
       </c>
       <c r="G12">
-        <v>7.602151749986527E-06</v>
+        <v>7.602146609583781E-06</v>
       </c>
       <c r="H12">
-        <v>6.69642557074038E-07</v>
+        <v>6.696427431333005E-07</v>
       </c>
       <c r="I12">
-        <v>0.0007412125076485484</v>
+        <v>0.0007412108449039078</v>
       </c>
       <c r="J12">
-        <v>0.02944734299077568</v>
+        <v>0.02944731758647938</v>
       </c>
       <c r="K12">
-        <v>0.003003638234599272</v>
+        <v>0.003003638166935295</v>
       </c>
       <c r="L12">
-        <v>0.01437969972489161</v>
+        <v>0.01437969838698382</v>
       </c>
       <c r="M12">
-        <v>4.673564297404575E-05</v>
+        <v>4.673546050616547E-05</v>
       </c>
       <c r="N12">
-        <v>2.32832567735125E-08</v>
+        <v>2.328325557464544E-08</v>
       </c>
       <c r="O12">
-        <v>4.418555167376233E-05</v>
+        <v>4.418553688257365E-05</v>
       </c>
       <c r="P12">
-        <v>9.640462160117531E-05</v>
+        <v>9.640461525019266E-05</v>
       </c>
       <c r="Q12">
-        <v>0.0001018812255569344</v>
+        <v>0.0001018812182625995</v>
       </c>
       <c r="R12">
-        <v>0.0001275625096858413</v>
+        <v>0.0001275624650102593</v>
       </c>
       <c r="S12">
-        <v>2.86481113943553E-10</v>
+        <v>2.864810772155984E-10</v>
       </c>
       <c r="T12">
-        <v>7.764474050217239E-08</v>
+        <v>7.764471554357072E-08</v>
       </c>
       <c r="U12">
-        <v>0.00451733958671718</v>
+        <v>0.004517339399227624</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.00718625757603248</v>
+        <v>0.007186257364994059</v>
       </c>
       <c r="B13">
-        <v>1.423816197750541</v>
+        <v>1.423816161663465</v>
       </c>
       <c r="C13">
-        <v>0.05096824717753701</v>
+        <v>0.05096823770377302</v>
       </c>
       <c r="D13">
-        <v>0.0713713073649333</v>
+        <v>0.07137129467475442</v>
       </c>
       <c r="E13">
-        <v>5.283507435673251</v>
+        <v>5.283505721350006</v>
       </c>
       <c r="F13">
-        <v>0.3596394506003135</v>
+        <v>0.3596394419668119</v>
       </c>
       <c r="G13">
-        <v>0.002487409910864613</v>
+        <v>0.002487409884438316</v>
       </c>
       <c r="H13">
-        <v>0.0001433961897730622</v>
+        <v>0.0001433961881186577</v>
       </c>
       <c r="I13">
-        <v>0.09824941393367094</v>
+        <v>0.09824940661014181</v>
       </c>
       <c r="J13">
-        <v>1.817127316647269</v>
+        <v>1.817127109472867</v>
       </c>
       <c r="K13">
-        <v>-0.03405245768606831</v>
+        <v>-0.03405245813487016</v>
       </c>
       <c r="L13">
-        <v>1.822394516231582</v>
+        <v>1.822394431205447</v>
       </c>
       <c r="M13">
-        <v>0.00379787835923214</v>
+        <v>0.003797877341416046</v>
       </c>
       <c r="N13">
-        <v>4.368704413125029E-07</v>
+        <v>4.368704351214391E-07</v>
       </c>
       <c r="O13">
-        <v>0.005826737444238975</v>
+        <v>0.005826737360932213</v>
       </c>
       <c r="P13">
-        <v>0.004006066727998496</v>
+        <v>0.004006066738471385</v>
       </c>
       <c r="Q13">
-        <v>0.00413847354357519</v>
+        <v>0.004138473547022546</v>
       </c>
       <c r="R13">
-        <v>0.01358234315490545</v>
+        <v>0.01358234290085376</v>
       </c>
       <c r="S13">
-        <v>2.397266076983201E-08</v>
+        <v>2.397265982456279E-08</v>
       </c>
       <c r="T13">
-        <v>5.758331884297074E-06</v>
+        <v>5.758331726389699E-06</v>
       </c>
       <c r="U13">
-        <v>0.07279753888994901</v>
+        <v>0.07279753720385349</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.004640164270446966</v>
+        <v>0.004640164427341003</v>
       </c>
       <c r="B14">
-        <v>2.136862510226906</v>
+        <v>2.136862507363351</v>
       </c>
       <c r="C14">
-        <v>0.0362800011156491</v>
+        <v>0.03628000350503813</v>
       </c>
       <c r="D14">
-        <v>0.04922742043473843</v>
+        <v>0.04922742392835524</v>
       </c>
       <c r="E14">
-        <v>5.981469122482578</v>
+        <v>5.981470460364058</v>
       </c>
       <c r="F14">
-        <v>1.655948793142079</v>
+        <v>1.655948792264143</v>
       </c>
       <c r="G14">
-        <v>0.0002268687896466409</v>
+        <v>0.0002268687920870245</v>
       </c>
       <c r="H14">
-        <v>2.66140977216712E-05</v>
+        <v>2.661409700128846E-05</v>
       </c>
       <c r="I14">
-        <v>0.04953876664445887</v>
+        <v>0.04953876830130368</v>
       </c>
       <c r="J14">
-        <v>0.8264104832046449</v>
+        <v>0.8264105795435541</v>
       </c>
       <c r="K14">
-        <v>0.03176549737525449</v>
+        <v>0.03176549718711916</v>
       </c>
       <c r="L14">
-        <v>0.02394492335136734</v>
+        <v>0.02394581774354101</v>
       </c>
       <c r="M14">
-        <v>0.002175077439337221</v>
+        <v>0.002175076727734009</v>
       </c>
       <c r="N14">
-        <v>1.604287279455545E-07</v>
+        <v>1.604287366021867E-07</v>
       </c>
       <c r="O14">
-        <v>0.001995633411156215</v>
+        <v>0.001995633472277334</v>
       </c>
       <c r="P14">
-        <v>0.004134859060837671</v>
+        <v>0.004134859163671615</v>
       </c>
       <c r="Q14">
-        <v>0.004473835958450838</v>
+        <v>0.004473836056420445</v>
       </c>
       <c r="R14">
-        <v>0.01576991031947352</v>
+        <v>0.0157699102908706</v>
       </c>
       <c r="S14">
-        <v>8.009724055612615E-09</v>
+        <v>8.009732051666177E-09</v>
       </c>
       <c r="T14">
-        <v>3.628826880635157E-06</v>
+        <v>3.6288269438484E-06</v>
       </c>
       <c r="U14">
-        <v>0.6748054550203263</v>
+        <v>0.6748054547088523</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.01272720797619977</v>
+        <v>0.01272720781576436</v>
       </c>
       <c r="B15">
-        <v>7.032576261707963</v>
+        <v>7.032576229837638</v>
       </c>
       <c r="C15">
-        <v>0.1663298374686025</v>
+        <v>0.1663298266141635</v>
       </c>
       <c r="D15">
-        <v>0.213105399830592</v>
+        <v>0.2131053854825469</v>
       </c>
       <c r="E15">
-        <v>26.56433399316073</v>
+        <v>26.56433226888274</v>
       </c>
       <c r="F15">
-        <v>3.57072510282161</v>
+        <v>3.570725094951213</v>
       </c>
       <c r="G15">
-        <v>0.0006056785661284576</v>
+        <v>0.0006056785420479979</v>
       </c>
       <c r="H15">
-        <v>0.000267987303159198</v>
+        <v>0.0002679873015380219</v>
       </c>
       <c r="I15">
-        <v>0.1553199939283869</v>
+        <v>0.1553199900445735</v>
       </c>
       <c r="J15">
-        <v>4.531832962326899</v>
+        <v>4.531832738705824</v>
       </c>
       <c r="K15">
-        <v>0.358107632259403</v>
+        <v>0.3581076320016315</v>
       </c>
       <c r="L15">
-        <v>-0.07797875173181412</v>
+        <v>-0.07797713266330604</v>
       </c>
       <c r="M15">
-        <v>0.007267870142006077</v>
+        <v>0.007267869241277021</v>
       </c>
       <c r="N15">
-        <v>2.726001542417113E-06</v>
+        <v>2.72600154144992E-06</v>
       </c>
       <c r="O15">
-        <v>0.00600279621640676</v>
+        <v>0.006002796179859615</v>
       </c>
       <c r="P15">
-        <v>0.01216633175137937</v>
+        <v>0.0121663318938074</v>
       </c>
       <c r="Q15">
-        <v>0.01229157870461212</v>
+        <v>0.01229157884098192</v>
       </c>
       <c r="R15">
-        <v>0.109842012485561</v>
+        <v>0.1098420122394254</v>
       </c>
       <c r="S15">
-        <v>2.413637284262138E-08</v>
+        <v>2.413638706410298E-08</v>
       </c>
       <c r="T15">
-        <v>1.210492307601309E-05</v>
+        <v>1.21049229592452E-05</v>
       </c>
       <c r="U15">
-        <v>1.371581759775179</v>
+        <v>1.371581758455576</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.006376674718661596</v>
+        <v>0.00637667473948999</v>
       </c>
       <c r="B16">
-        <v>2.716596966260076</v>
+        <v>2.716596966609455</v>
       </c>
       <c r="C16">
-        <v>0.06539456674716287</v>
+        <v>0.06539456819337876</v>
       </c>
       <c r="D16">
-        <v>0.08697010001624958</v>
+        <v>0.08697010194762629</v>
       </c>
       <c r="E16">
-        <v>7.006761344370148</v>
+        <v>7.006761550148637</v>
       </c>
       <c r="F16">
-        <v>1.798712859140302</v>
+        <v>1.798712858586584</v>
       </c>
       <c r="G16">
-        <v>0.000641224491797704</v>
+        <v>0.0006412244973032053</v>
       </c>
       <c r="H16">
-        <v>8.931098180122362E-05</v>
+        <v>8.93109822292799E-05</v>
       </c>
       <c r="I16">
-        <v>0.07490979807912673</v>
+        <v>0.07490979827228272</v>
       </c>
       <c r="J16">
-        <v>1.503420434628672</v>
+        <v>1.503420470227822</v>
       </c>
       <c r="K16">
-        <v>0.1273094534804341</v>
+        <v>0.1273094532934305</v>
       </c>
       <c r="L16">
-        <v>0.1121490723185504</v>
+        <v>0.1121490700793208</v>
       </c>
       <c r="M16">
-        <v>0.003026546153190109</v>
+        <v>0.003026546312057512</v>
       </c>
       <c r="N16">
-        <v>4.228469992993564E-07</v>
+        <v>4.228469960696245E-07</v>
       </c>
       <c r="O16">
-        <v>0.003314047558984793</v>
+        <v>0.003314047560542667</v>
       </c>
       <c r="P16">
-        <v>0.005944326686873407</v>
+        <v>0.00594432662030437</v>
       </c>
       <c r="Q16">
-        <v>0.006631010840016647</v>
+        <v>0.00663101077194205</v>
       </c>
       <c r="R16">
-        <v>0.0445394062895293</v>
+        <v>0.0445394063442835</v>
       </c>
       <c r="S16">
-        <v>1.137514034713228E-08</v>
+        <v>1.13751403311042E-08</v>
       </c>
       <c r="T16">
-        <v>5.300656863324238E-06</v>
+        <v>5.300656873430202E-06</v>
       </c>
       <c r="U16">
-        <v>0.6995528681172229</v>
+        <v>0.6995528675095694</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0003009920806680487</v>
+        <v>-0.0003009920790830349</v>
       </c>
       <c r="B17">
-        <v>-2.398654596930313</v>
+        <v>-2.39865460065352</v>
       </c>
       <c r="C17">
-        <v>-0.1196209911171806</v>
+        <v>-0.119620992334391</v>
       </c>
       <c r="D17">
-        <v>-0.1592720009994231</v>
+        <v>-0.1592720026077019</v>
       </c>
       <c r="E17">
-        <v>-1.253169231654547</v>
+        <v>-1.253169410615843</v>
       </c>
       <c r="F17">
-        <v>-0.01544141117239911</v>
+        <v>-0.01544141228704391</v>
       </c>
       <c r="G17">
-        <v>-1.152841498066703E-05</v>
+        <v>-1.152841697233867E-05</v>
       </c>
       <c r="H17">
-        <v>-2.169141974612981E-05</v>
+        <v>-2.169141988415875E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02133274641386552</v>
+        <v>-0.02133274715532818</v>
       </c>
       <c r="J17">
-        <v>-2.33358195245208</v>
+        <v>-2.333581976639072</v>
       </c>
       <c r="K17">
-        <v>0.0002297377287659514</v>
+        <v>0.0002297377042087028</v>
       </c>
       <c r="L17">
-        <v>-0.000353719899621558</v>
+        <v>-0.0003537116018383545</v>
       </c>
       <c r="M17">
-        <v>-0.000282114655903389</v>
+        <v>-0.0002821147938645486</v>
       </c>
       <c r="N17">
-        <v>-1.034697470755801E-06</v>
+        <v>-1.034697469709357E-06</v>
       </c>
       <c r="O17">
-        <v>-0.0001109728191362853</v>
+        <v>-0.0001109728133689638</v>
       </c>
       <c r="P17">
-        <v>-0.0006372333931325931</v>
+        <v>-0.0006372333588005362</v>
       </c>
       <c r="Q17">
-        <v>-0.0006445037557049229</v>
+        <v>-0.000644503723222026</v>
       </c>
       <c r="R17">
-        <v>-0.003509081715610788</v>
+        <v>-0.003509081739989633</v>
       </c>
       <c r="S17">
-        <v>-6.988119992199579E-09</v>
+        <v>-6.988119928835561E-09</v>
       </c>
       <c r="T17">
-        <v>-2.907840504806486E-06</v>
+        <v>-2.907840512629234E-06</v>
       </c>
       <c r="U17">
-        <v>-0.005221392264457179</v>
+        <v>-0.005221392551028168</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.004780964443843565</v>
+        <v>0.004780964464547654</v>
       </c>
       <c r="B18">
-        <v>2.178995776651933</v>
+        <v>2.178995771660152</v>
       </c>
       <c r="C18">
-        <v>0.03811096905474584</v>
+        <v>0.03811097105174809</v>
       </c>
       <c r="D18">
-        <v>0.05165170326944204</v>
+        <v>0.05165170602057122</v>
       </c>
       <c r="E18">
-        <v>6.356138676239997</v>
+        <v>6.356139242331898</v>
       </c>
       <c r="F18">
-        <v>1.625557052156438</v>
+        <v>1.625557050113432</v>
       </c>
       <c r="G18">
-        <v>0.0002562462296328746</v>
+        <v>0.0002562462349479244</v>
       </c>
       <c r="H18">
-        <v>2.84623066844174E-05</v>
+        <v>2.846230684581015E-05</v>
       </c>
       <c r="I18">
-        <v>0.06626840122539053</v>
+        <v>0.06626840231526572</v>
       </c>
       <c r="J18">
-        <v>0.8811122916026262</v>
+        <v>0.8811123513066622</v>
       </c>
       <c r="K18">
-        <v>0.0394065804472301</v>
+        <v>0.03940658054533246</v>
       </c>
       <c r="L18">
-        <v>0.02488070676199675</v>
+        <v>0.02488084505281529</v>
       </c>
       <c r="M18">
-        <v>0.001691993816489763</v>
+        <v>0.001691993762812493</v>
       </c>
       <c r="N18">
-        <v>3.273022430755949E-07</v>
+        <v>3.273022364948025E-07</v>
       </c>
       <c r="O18">
-        <v>0.002113792922920501</v>
+        <v>0.002113792909111954</v>
       </c>
       <c r="P18">
-        <v>0.004469588998748933</v>
+        <v>0.004469588847808187</v>
       </c>
       <c r="Q18">
-        <v>0.004864475245192135</v>
+        <v>0.004864475091748697</v>
       </c>
       <c r="R18">
-        <v>0.01792902232530027</v>
+        <v>0.01792902235985377</v>
       </c>
       <c r="S18">
-        <v>8.241577757831057E-09</v>
+        <v>8.241578967706904E-09</v>
       </c>
       <c r="T18">
-        <v>3.815500285489703E-06</v>
+        <v>3.815500289304582E-06</v>
       </c>
       <c r="U18">
-        <v>0.6571808940464998</v>
+        <v>0.6571808927517784</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>0.0002379240788575321</v>
+        <v>0.0001063707192355794</v>
       </c>
       <c r="B19">
-        <v>-0.004152896375607014</v>
+        <v>0.02355055759974755</v>
       </c>
       <c r="C19">
-        <v>-0.001150883819094437</v>
+        <v>0.000796490302315237</v>
       </c>
       <c r="D19">
-        <v>0.0001848456707030059</v>
+        <v>0.0008286073417947014</v>
       </c>
       <c r="E19">
-        <v>0.05186737387679342</v>
+        <v>0.0623922043637356</v>
       </c>
       <c r="F19">
-        <v>0.01093194409096968</v>
+        <v>0.01386694357347227</v>
       </c>
       <c r="G19">
-        <v>-2.444508854409815E-05</v>
+        <v>9.461375663782303E-06</v>
       </c>
       <c r="H19">
-        <v>6.402489992740549E-05</v>
+        <v>4.855005563265156E-05</v>
       </c>
       <c r="I19">
-        <v>0.0005941411064780564</v>
+        <v>0.0006585166923609961</v>
       </c>
       <c r="J19">
-        <v>0.02320084065492493</v>
+        <v>0.01889894652316014</v>
       </c>
       <c r="K19">
-        <v>0.0008576568900160369</v>
+        <v>0.0006361200220619751</v>
       </c>
       <c r="L19">
-        <v>-0.004605457972764822</v>
+        <v>0.003557495518889721</v>
       </c>
       <c r="M19">
-        <v>3.097504742889762E-05</v>
+        <v>3.287165085289295E-05</v>
       </c>
       <c r="N19">
-        <v>9.143949736164743E-08</v>
+        <v>4.902036838290296E-08</v>
       </c>
       <c r="O19">
-        <v>4.233761033256603E-05</v>
+        <v>3.304747110458103E-05</v>
       </c>
       <c r="P19">
-        <v>0.0004246133699916869</v>
+        <v>0.000417349161572485</v>
       </c>
       <c r="Q19">
-        <v>0.0006490604882442929</v>
+        <v>0.0006436004086737003</v>
       </c>
       <c r="R19">
-        <v>0.005661413626980275</v>
+        <v>0.005403991845166073</v>
       </c>
       <c r="S19">
-        <v>6.50396591041183E-11</v>
+        <v>2.107249925595351E-10</v>
       </c>
       <c r="T19">
-        <v>4.304494062913422E-08</v>
+        <v>6.153227794845783E-08</v>
       </c>
       <c r="U19">
-        <v>0.004136242638513382</v>
+        <v>0.005326054344058451</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>-0.0003588602375237482</v>
+        <v>-0.0003588603259770816</v>
       </c>
       <c r="B20">
-        <v>-0.1647369004062832</v>
+        <v>-0.1647369137057836</v>
       </c>
       <c r="C20">
-        <v>-0.03997487611765219</v>
+        <v>-0.03997487858937464</v>
       </c>
       <c r="D20">
-        <v>-0.05149221962433305</v>
+        <v>-0.05149222293942116</v>
       </c>
       <c r="E20">
-        <v>-1.249387300148525</v>
+        <v>-1.249387728252385</v>
       </c>
       <c r="F20">
-        <v>-0.04853409456123065</v>
+        <v>-0.04853409791575725</v>
       </c>
       <c r="G20">
-        <v>-5.554678247595919E-05</v>
+        <v>-5.554678853471037E-05</v>
       </c>
       <c r="H20">
-        <v>-3.397164145033431E-05</v>
+        <v>-3.397164198836721E-05</v>
       </c>
       <c r="I20">
-        <v>-0.009524399541830784</v>
+        <v>-0.009524400994026317</v>
       </c>
       <c r="J20">
-        <v>-0.6402985244204104</v>
+        <v>-0.640298579805186</v>
       </c>
       <c r="K20">
-        <v>-0.03219664020759827</v>
+        <v>-0.03219664019715276</v>
       </c>
       <c r="L20">
-        <v>-0.009609947364944308</v>
+        <v>-0.009610008086164358</v>
       </c>
       <c r="M20">
-        <v>-0.0002753877988260522</v>
+        <v>-0.0002753880904931472</v>
       </c>
       <c r="N20">
-        <v>-9.526177402396517E-08</v>
+        <v>-9.526177845913757E-08</v>
       </c>
       <c r="O20">
-        <v>-0.0002486555604819148</v>
+        <v>-0.0002486555967316999</v>
       </c>
       <c r="P20">
-        <v>-0.0002489437896239025</v>
+        <v>-0.000248943853941964</v>
       </c>
       <c r="Q20">
-        <v>-0.0002687332777511765</v>
+        <v>-0.0002687333446804483</v>
       </c>
       <c r="R20">
-        <v>-0.0009053003176032626</v>
+        <v>-0.0009053003810560189</v>
       </c>
       <c r="S20">
-        <v>-7.419529642182456E-10</v>
+        <v>-7.419535788590303E-10</v>
       </c>
       <c r="T20">
-        <v>-4.893985689627032E-07</v>
+        <v>-4.893986217320803E-07</v>
       </c>
       <c r="U20">
-        <v>-0.01596443564805763</v>
+        <v>-0.01596443665554229</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>-0.0006754251389245959</v>
+        <v>-0.000675425344568323</v>
       </c>
       <c r="B21">
-        <v>-0.6003455688321846</v>
+        <v>-0.6003455973116789</v>
       </c>
       <c r="C21">
-        <v>-0.07474441459015708</v>
+        <v>-0.07474441926602965</v>
       </c>
       <c r="D21">
-        <v>-0.0979227017380179</v>
+        <v>-0.09792270806544957</v>
       </c>
       <c r="E21">
-        <v>-1.483742842613583</v>
+        <v>-1.483743819192543</v>
       </c>
       <c r="F21">
-        <v>-0.2011402797089892</v>
+        <v>-0.2011402871662241</v>
       </c>
       <c r="G21">
-        <v>-0.0001090717260024105</v>
+        <v>-0.0001090717365235345</v>
       </c>
       <c r="H21">
-        <v>-8.143851269347226E-05</v>
+        <v>-8.143851371580744E-05</v>
       </c>
       <c r="I21">
-        <v>-0.01684666584776962</v>
+        <v>-0.01684666866268544</v>
       </c>
       <c r="J21">
-        <v>-1.468389034075517</v>
+        <v>-1.468389147282839</v>
       </c>
       <c r="K21">
-        <v>-0.0241407860546567</v>
+        <v>-0.02414078613519907</v>
       </c>
       <c r="L21">
-        <v>0.04254329976121924</v>
+        <v>0.04254342305986222</v>
       </c>
       <c r="M21">
-        <v>-0.0001798798669889861</v>
+        <v>-0.0001798801980654545</v>
       </c>
       <c r="N21">
-        <v>-1.291790949938278E-07</v>
+        <v>-1.291791067194892E-07</v>
       </c>
       <c r="O21">
-        <v>-0.0004922859763866415</v>
+        <v>-0.0004922860615543727</v>
       </c>
       <c r="P21">
-        <v>-0.000586722752137479</v>
+        <v>-0.0005867229382142051</v>
       </c>
       <c r="Q21">
-        <v>-0.0006631586420545958</v>
+        <v>-0.0006631588346144829</v>
       </c>
       <c r="R21">
-        <v>-0.002564824170177433</v>
+        <v>-0.002564824275648664</v>
       </c>
       <c r="S21">
-        <v>-1.68509945574523E-09</v>
+        <v>-1.685098531548765E-09</v>
       </c>
       <c r="T21">
-        <v>-1.263970473372453E-06</v>
+        <v>-1.263970588883394E-06</v>
       </c>
       <c r="U21">
-        <v>-0.06971537002871374</v>
+        <v>-0.06971537249446151</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22">
-        <v>0.002225502222335813</v>
+        <v>0.002225502104055642</v>
       </c>
       <c r="B22">
-        <v>0.6030907573632506</v>
+        <v>0.6030907458738971</v>
       </c>
       <c r="C22">
-        <v>0.03776601077239312</v>
+        <v>0.03776600743340193</v>
       </c>
       <c r="D22">
-        <v>0.04919997324730895</v>
+        <v>0.04919996866731003</v>
       </c>
       <c r="E22">
-        <v>3.71978470083782</v>
+        <v>3.719783775090326</v>
       </c>
       <c r="F22">
-        <v>0.1626205650024049</v>
+        <v>0.1626205622632023</v>
       </c>
       <c r="G22">
-        <v>0.0003095745931233484</v>
+        <v>0.0003095745871784514</v>
       </c>
       <c r="H22">
-        <v>3.676146067606518E-05</v>
+        <v>3.676146045811156E-05</v>
       </c>
       <c r="I22">
-        <v>0.0250504289211721</v>
+        <v>0.02505042709028966</v>
       </c>
       <c r="J22">
-        <v>0.6841581507551933</v>
+        <v>0.6841580598837149</v>
       </c>
       <c r="K22">
-        <v>0.06256018056853507</v>
+        <v>0.06256018032971465</v>
       </c>
       <c r="L22">
-        <v>0.03526746488159644</v>
+        <v>0.03526749224714044</v>
       </c>
       <c r="M22">
-        <v>0.001041098756992384</v>
+        <v>0.001041098880756696</v>
       </c>
       <c r="N22">
-        <v>2.164227983110349E-07</v>
+        <v>2.164227942330363E-07</v>
       </c>
       <c r="O22">
-        <v>0.001568722556135162</v>
+        <v>0.001568722515728936</v>
       </c>
       <c r="P22">
-        <v>0.001954581847099818</v>
+        <v>0.001954581816790583</v>
       </c>
       <c r="Q22">
-        <v>0.00201385269667276</v>
+        <v>0.002013852663971021</v>
       </c>
       <c r="R22">
-        <v>0.004526912715236662</v>
+        <v>0.004526912668046652</v>
       </c>
       <c r="S22">
-        <v>3.014590377169295E-09</v>
+        <v>3.014590541266464E-09</v>
       </c>
       <c r="T22">
-        <v>1.797458819428594E-06</v>
+        <v>1.797458756468812E-06</v>
       </c>
       <c r="U22">
-        <v>0.04205393795054348</v>
+        <v>0.04205393726129956</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23">
-        <v>0.0002840855621507699</v>
+        <v>0.0002840855632939186</v>
       </c>
       <c r="B23">
-        <v>0.1916309146753268</v>
+        <v>0.1916309147539628</v>
       </c>
       <c r="C23">
-        <v>0.005273320558215482</v>
+        <v>0.005273320559490146</v>
       </c>
       <c r="D23">
-        <v>0.008911897602103917</v>
+        <v>0.008911897605801099</v>
       </c>
       <c r="E23">
-        <v>3.646842363120246</v>
+        <v>3.646842368432486</v>
       </c>
       <c r="F23">
-        <v>0.06090754591135848</v>
+        <v>0.06090754593950603</v>
       </c>
       <c r="G23">
-        <v>1.904772672191057E-05</v>
+        <v>1.904772667563836E-05</v>
       </c>
       <c r="H23">
-        <v>5.182440337851744E-06</v>
+        <v>5.182440336609607E-06</v>
       </c>
       <c r="I23">
-        <v>0.002546036305516853</v>
+        <v>0.002546036327936699</v>
       </c>
       <c r="J23">
-        <v>0.1602094902349668</v>
+        <v>0.1602094905592393</v>
       </c>
       <c r="K23">
-        <v>0.0008264981591628813</v>
+        <v>0.0008264981628166267</v>
       </c>
       <c r="L23">
-        <v>0.007829168250626692</v>
+        <v>0.007829169683203062</v>
       </c>
       <c r="M23">
-        <v>0.0008259585540483903</v>
+        <v>0.0008259585479214023</v>
       </c>
       <c r="N23">
-        <v>8.549886565588189E-08</v>
+        <v>8.549886572163537E-08</v>
       </c>
       <c r="O23">
-        <v>0.0001606574444257839</v>
+        <v>0.0001606574448193244</v>
       </c>
       <c r="P23">
-        <v>0.0003520111289852221</v>
+        <v>0.0003520111306530463</v>
       </c>
       <c r="Q23">
-        <v>0.0003932514905786163</v>
+        <v>0.0003932514922719513</v>
       </c>
       <c r="R23">
-        <v>0.000282160589941118</v>
+        <v>0.0002821605894403226</v>
       </c>
       <c r="S23">
-        <v>7.760621807759346E-10</v>
+        <v>7.760621942044413E-10</v>
       </c>
       <c r="T23">
-        <v>3.248031164003761E-07</v>
+        <v>3.248031168694782E-07</v>
       </c>
       <c r="U23">
-        <v>0.02566646438172726</v>
+        <v>0.02566646439782464</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24">
-        <v>0.0001987390800618283</v>
+        <v>0.0001987390711578602</v>
       </c>
       <c r="B24">
-        <v>0.01638159154276921</v>
+        <v>0.01638158822804578</v>
       </c>
       <c r="C24">
-        <v>0.0002372668404943172</v>
+        <v>0.0002372667366199457</v>
       </c>
       <c r="D24">
-        <v>0.0003729307726568619</v>
+        <v>0.0003729306277176879</v>
       </c>
       <c r="E24">
-        <v>0.1010706147477301</v>
+        <v>0.1010706026114365</v>
       </c>
       <c r="F24">
-        <v>0.004679762679549605</v>
+        <v>0.004679762066129654</v>
       </c>
       <c r="G24">
-        <v>9.647179543140249E-07</v>
+        <v>9.647172839999497E-07</v>
       </c>
       <c r="H24">
-        <v>3.712469863982734E-07</v>
+        <v>3.712468953494228E-07</v>
       </c>
       <c r="I24">
-        <v>0.0009929670954826537</v>
+        <v>0.0009929661102365051</v>
       </c>
       <c r="J24">
-        <v>0.005452346068435757</v>
+        <v>0.005452344271093155</v>
       </c>
       <c r="K24">
-        <v>0.0001450797003053898</v>
+        <v>0.0001450796206944476</v>
       </c>
       <c r="L24">
-        <v>0.0002847327011833563</v>
+        <v>0.0002847320839648627</v>
       </c>
       <c r="M24">
-        <v>0.0001673102752720797</v>
+        <v>0.0001673101403458082</v>
       </c>
       <c r="N24">
-        <v>7.189256067907245E-09</v>
+        <v>7.189255151584311E-09</v>
       </c>
       <c r="O24">
-        <v>6.630470494400158E-05</v>
+        <v>6.630469943179263E-05</v>
       </c>
       <c r="P24">
-        <v>0.000223400762944632</v>
+        <v>0.0002234007528525984</v>
       </c>
       <c r="Q24">
-        <v>0.0002271348988839288</v>
+        <v>0.0002271348884804587</v>
       </c>
       <c r="R24">
-        <v>2.011051380546784E-05</v>
+        <v>2.01105002984098E-05</v>
       </c>
       <c r="S24">
-        <v>1.218366655965425E-10</v>
+        <v>1.218366469305791E-10</v>
       </c>
       <c r="T24">
-        <v>6.165441952721933E-08</v>
+        <v>6.165440926478706E-08</v>
       </c>
       <c r="U24">
-        <v>0.002024188263845268</v>
+        <v>0.002024188064694447</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25">
-        <v>0.003211433318829077</v>
+        <v>0.003211433199819667</v>
       </c>
       <c r="B25">
-        <v>1.192351088948884</v>
+        <v>1.192351062727687</v>
       </c>
       <c r="C25">
-        <v>0.04087487502997618</v>
+        <v>0.04087487018545594</v>
       </c>
       <c r="D25">
-        <v>0.05159470362606289</v>
+        <v>0.05159469726985712</v>
       </c>
       <c r="E25">
-        <v>7.351983840438118</v>
+        <v>7.351983393866012</v>
       </c>
       <c r="F25">
-        <v>0.2589782478484955</v>
+        <v>0.2589782409952899</v>
       </c>
       <c r="G25">
-        <v>0.0005037090660727986</v>
+        <v>0.0005037090519338206</v>
       </c>
       <c r="H25">
-        <v>-0.002462599940712604</v>
+        <v>-0.00246259994205911</v>
       </c>
       <c r="I25">
-        <v>0.02425253009949946</v>
+        <v>0.02425252822765734</v>
       </c>
       <c r="J25">
-        <v>2.397394047779668</v>
+        <v>2.397393963164784</v>
       </c>
       <c r="K25">
-        <v>0.05817103551493474</v>
+        <v>0.05817103528075913</v>
       </c>
       <c r="L25">
-        <v>2.002549886069042</v>
+        <v>2.002550013353894</v>
       </c>
       <c r="M25">
-        <v>0.001342252263165771</v>
+        <v>0.001342251441042272</v>
       </c>
       <c r="N25">
-        <v>3.00038536515226E-07</v>
+        <v>3.000385275410525E-07</v>
       </c>
       <c r="O25">
-        <v>0.002814346038037487</v>
+        <v>0.002814345973725132</v>
       </c>
       <c r="P25">
-        <v>0.004199702901603065</v>
+        <v>0.004199702778391406</v>
       </c>
       <c r="Q25">
-        <v>0.004308237771198953</v>
+        <v>0.004308237640817151</v>
       </c>
       <c r="R25">
-        <v>0.06643524738567096</v>
+        <v>0.06643524724471155</v>
       </c>
       <c r="S25">
-        <v>2.278455634450217E-08</v>
+        <v>2.278455734029988E-08</v>
       </c>
       <c r="T25">
-        <v>3.655687378395393E-06</v>
+        <v>3.65568728769388E-06</v>
       </c>
       <c r="U25">
-        <v>0.08608849922284238</v>
+        <v>0.08608849724507592</v>
       </c>
     </row>
   </sheetData>
